--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_호남선.xlsx
@@ -51,19 +51,19 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>TiDE</t>
+    <t>DilatedRNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
   </si>
   <si>
     <t>TCN</t>
   </si>
   <si>
-    <t>XGBoost</t>
+    <t>TiDE</t>
   </si>
   <si>
-    <t>RandomForest</t>
-  </si>
-  <si>
-    <t>CatBoost</t>
+    <t>GRU</t>
   </si>
   <si>
     <t>LSTM</t>
@@ -72,13 +72,13 @@
     <t>LightGBM</t>
   </si>
   <si>
-    <t>DilatedRNN</t>
+    <t>XGBoost</t>
   </si>
   <si>
-    <t>RNN</t>
+    <t>CatBoost</t>
   </si>
   <si>
-    <t>GRU</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>MLP</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>126282410311.2796</v>
+        <v>126285823401.0563</v>
       </c>
       <c r="C3">
-        <v>355362.364793009</v>
+        <v>355367.1670273667</v>
       </c>
       <c r="D3">
-        <v>0.02919314153977748</v>
+        <v>0.02919554090658791</v>
       </c>
       <c r="E3">
-        <v>149989.265625</v>
+        <v>150003.421875</v>
       </c>
       <c r="F3">
-        <v>0.09367503429664788</v>
+        <v>0.09368825963423144</v>
       </c>
       <c r="G3">
-        <v>50574.46875</v>
+        <v>50641.28125</v>
       </c>
       <c r="H3">
-        <v>0.04990401938904356</v>
+        <v>0.04996994539287667</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>126286279704.3232</v>
+        <v>126286136611.1859</v>
       </c>
       <c r="C4">
-        <v>355367.8090434237</v>
+        <v>355367.607712332</v>
       </c>
       <c r="D4">
-        <v>0.02919559041521566</v>
+        <v>0.02919555624235951</v>
       </c>
       <c r="E4">
-        <v>150003.046875</v>
+        <v>150002.890625</v>
       </c>
       <c r="F4">
-        <v>0.09368777424030557</v>
+        <v>0.09368764737471019</v>
       </c>
       <c r="G4">
-        <v>50642.75</v>
+        <v>50642.9375</v>
       </c>
       <c r="H4">
-        <v>0.04997139460577546</v>
+        <v>0.04997157959185183</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>141961177770.4743</v>
+        <v>129674309321.1924</v>
       </c>
       <c r="C5">
-        <v>376777.3583569935</v>
+        <v>360103.192600666</v>
       </c>
       <c r="D5">
-        <v>0.04458534825045399</v>
+        <v>0.03621406533670912</v>
       </c>
       <c r="E5">
-        <v>218715.484375</v>
+        <v>195605.234375</v>
       </c>
       <c r="F5">
-        <v>0.1625352174926701</v>
+        <v>0.1408281625542005</v>
       </c>
       <c r="G5">
-        <v>156189.40625</v>
+        <v>101198.21875</v>
       </c>
       <c r="H5">
-        <v>0.1568517882781932</v>
+        <v>0.09958035899329379</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>156749332063.5423</v>
+        <v>129328004677.5127</v>
       </c>
       <c r="C6">
-        <v>395915.8143640417</v>
+        <v>359622.0303005819</v>
       </c>
       <c r="D6">
-        <v>0.05751209653095198</v>
+        <v>0.03991844095559782</v>
       </c>
       <c r="E6">
-        <v>269795.9791666667</v>
+        <v>198492.921875</v>
       </c>
       <c r="F6">
-        <v>0.2125340122295028</v>
+        <v>0.1450925069106751</v>
       </c>
       <c r="G6">
-        <v>186042.3125</v>
+        <v>109383.65625</v>
       </c>
       <c r="H6">
-        <v>0.18022077139994</v>
+        <v>0.104801863243321</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>180771375096.2233</v>
+        <v>133701743506.3021</v>
       </c>
       <c r="C7">
-        <v>425172.1711215626</v>
+        <v>365652.4900862868</v>
       </c>
       <c r="D7">
-        <v>0.06580130937365371</v>
+        <v>0.04511500414983697</v>
       </c>
       <c r="E7">
-        <v>285768.875</v>
+        <v>218547.90625</v>
       </c>
       <c r="F7">
-        <v>0.224389987144375</v>
+        <v>0.1654105317018767</v>
       </c>
       <c r="G7">
-        <v>201220.34375</v>
+        <v>107162.59375</v>
       </c>
       <c r="H7">
-        <v>0.1964688552309899</v>
+        <v>0.1054511753996051</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>176678268088.3696</v>
+        <v>140967183431.7962</v>
       </c>
       <c r="C8">
-        <v>420331.140992872</v>
+        <v>375455.9673674081</v>
       </c>
       <c r="D8">
-        <v>0.06406356145149396</v>
+        <v>0.0444922664604471</v>
       </c>
       <c r="E8">
-        <v>283937.209193272</v>
+        <v>218972.1458333333</v>
       </c>
       <c r="F8">
-        <v>0.2229626581454235</v>
+        <v>0.163006142284401</v>
       </c>
       <c r="G8">
-        <v>204166.3895972222</v>
+        <v>156992.15625</v>
       </c>
       <c r="H8">
-        <v>0.1993192694011627</v>
+        <v>0.1590397392448714</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>180897403874.4905</v>
+        <v>184253782111.9232</v>
       </c>
       <c r="C9">
-        <v>425320.3544088744</v>
+        <v>429247.9261591409</v>
       </c>
       <c r="D9">
-        <v>0.06650765168467339</v>
+        <v>0.09171068595358789</v>
       </c>
       <c r="E9">
-        <v>289169.8081584744</v>
+        <v>299565.3932291667</v>
       </c>
       <c r="F9">
-        <v>0.2276346615189248</v>
+        <v>0.2444524578974622</v>
       </c>
       <c r="G9">
-        <v>201719.8640882502</v>
+        <v>137549.0625</v>
       </c>
       <c r="H9">
-        <v>0.1969327387110874</v>
+        <v>0.1369160915041052</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>169633414986.8115</v>
+        <v>170095140850.7025</v>
       </c>
       <c r="C10">
-        <v>411865.7730217595</v>
+        <v>412425.9216522435</v>
       </c>
       <c r="D10">
-        <v>0.06367236919696563</v>
+        <v>0.07679860921302156</v>
       </c>
       <c r="E10">
-        <v>283529.0364583333</v>
+        <v>289208.4583333333</v>
       </c>
       <c r="F10">
-        <v>0.224225103662386</v>
+        <v>0.2337165805075608</v>
       </c>
       <c r="G10">
-        <v>217413.8125</v>
+        <v>200494.25</v>
       </c>
       <c r="H10">
-        <v>0.2037474366235397</v>
+        <v>0.1904240732490254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>178754778329.8654</v>
+        <v>204884801194.7949</v>
       </c>
       <c r="C11">
-        <v>422794.0140657924</v>
+        <v>452642.0232311566</v>
       </c>
       <c r="D11">
-        <v>0.06535047721850408</v>
+        <v>0.08272146167433646</v>
       </c>
       <c r="E11">
-        <v>287425.7151292611</v>
+        <v>327488.7204252223</v>
       </c>
       <c r="F11">
-        <v>0.2254904858954215</v>
+        <v>0.2636003989294531</v>
       </c>
       <c r="G11">
-        <v>209418.6246640818</v>
+        <v>233785.3286654915</v>
       </c>
       <c r="H11">
-        <v>0.2034201089862199</v>
+        <v>0.2332291644478908</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>180157452767.0287</v>
+        <v>194980731336.9818</v>
       </c>
       <c r="C12">
-        <v>424449.5880160902</v>
+        <v>441566.2253127857</v>
       </c>
       <c r="D12">
-        <v>0.0676217820532117</v>
+        <v>0.08005215679898768</v>
       </c>
       <c r="E12">
-        <v>293814.9583333333</v>
+        <v>313930.40625</v>
       </c>
       <c r="F12">
-        <v>0.232823977458846</v>
+        <v>0.2527384841897122</v>
       </c>
       <c r="G12">
-        <v>205211.84375</v>
+        <v>243365.4375</v>
       </c>
       <c r="H12">
-        <v>0.2036711145741462</v>
+        <v>0.247823378544239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>182666400941.8076</v>
+        <v>195785872110.7588</v>
       </c>
       <c r="C13">
-        <v>427394.900463035</v>
+        <v>442476.9735373342</v>
       </c>
       <c r="D13">
-        <v>0.07368792404626667</v>
+        <v>0.08068455480262469</v>
       </c>
       <c r="E13">
-        <v>308473.828125</v>
+        <v>318388.6362028705</v>
       </c>
       <c r="F13">
-        <v>0.2483815415653515</v>
+        <v>0.2567951091766781</v>
       </c>
       <c r="G13">
-        <v>225860.15625</v>
+        <v>242974.4933561506</v>
       </c>
       <c r="H13">
-        <v>0.227777946986714</v>
+        <v>0.2474244156120383</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>189214122534.2158</v>
+        <v>194565003137.4846</v>
       </c>
       <c r="C14">
-        <v>434987.496986081</v>
+        <v>441095.2313701482</v>
       </c>
       <c r="D14">
-        <v>0.07625729446620752</v>
+        <v>0.08034299314733022</v>
       </c>
       <c r="E14">
-        <v>311291.828125</v>
+        <v>319296.3891210802</v>
       </c>
       <c r="F14">
-        <v>0.2503736767519039</v>
+        <v>0.2579439880615044</v>
       </c>
       <c r="G14">
-        <v>227767.5</v>
+        <v>252981.3472916668</v>
       </c>
       <c r="H14">
-        <v>0.2289685948800885</v>
+        <v>0.2496259923506825</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>8929567786635.596</v>
+        <v>68960697033939.02</v>
       </c>
       <c r="C15">
-        <v>2988238.241277893</v>
+        <v>8304257.765383913</v>
       </c>
       <c r="D15">
-        <v>6.225415847599698</v>
+        <v>64.84059653995675</v>
       </c>
       <c r="E15">
-        <v>2444569.41015625</v>
+        <v>6951419.270833333</v>
       </c>
       <c r="F15">
-        <v>2.132107949242459</v>
+        <v>6.666848308003765</v>
       </c>
       <c r="G15">
-        <v>1831747.25</v>
+        <v>7352680.75</v>
       </c>
       <c r="H15">
-        <v>1.820378138953791</v>
+        <v>7.448588396120817</v>
       </c>
     </row>
   </sheetData>
@@ -927,43 +927,43 @@
         <v>1009081.25</v>
       </c>
       <c r="E2">
-        <v>962794.25</v>
+        <v>962788.3125</v>
       </c>
       <c r="F2">
-        <v>962785.75</v>
+        <v>962786.1875</v>
       </c>
       <c r="G2">
-        <v>1026253.75</v>
+        <v>922197</v>
       </c>
       <c r="H2">
-        <v>882205.5</v>
+        <v>923680.6875</v>
       </c>
       <c r="I2">
-        <v>840861.125</v>
+        <v>916269.5625</v>
       </c>
       <c r="J2">
-        <v>837536.7219404761</v>
+        <v>1033759.1875</v>
       </c>
       <c r="K2">
-        <v>842351.8643017001</v>
+        <v>922799.125</v>
       </c>
       <c r="L2">
-        <v>831866.0625</v>
+        <v>976244.875</v>
       </c>
       <c r="M2">
-        <v>831488.1121378717</v>
+        <v>799505.221539111</v>
       </c>
       <c r="N2">
-        <v>809645.125</v>
+        <v>829620.375</v>
       </c>
       <c r="O2">
-        <v>849592.1875</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="P2">
-        <v>865792.625</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="Q2">
-        <v>2630750</v>
+        <v>1418353.25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -980,43 +980,43 @@
         <v>978737.6875</v>
       </c>
       <c r="E3">
-        <v>962791.125</v>
+        <v>962785.75</v>
       </c>
       <c r="F3">
-        <v>962783.125</v>
+        <v>962783.8125</v>
       </c>
       <c r="G3">
-        <v>961786.1875</v>
+        <v>985108.8125</v>
       </c>
       <c r="H3">
-        <v>952043</v>
+        <v>1010606.375</v>
       </c>
       <c r="I3">
-        <v>857550.1875</v>
+        <v>1016421.125</v>
       </c>
       <c r="J3">
-        <v>872341.5373333334</v>
+        <v>967533.3125</v>
       </c>
       <c r="K3">
-        <v>862406.5846860122</v>
+        <v>993570.5</v>
       </c>
       <c r="L3">
-        <v>912445</v>
+        <v>988817</v>
       </c>
       <c r="M3">
-        <v>871778.6249303562</v>
+        <v>820741.2497030696</v>
       </c>
       <c r="N3">
-        <v>872957.1875</v>
+        <v>857550.5625</v>
       </c>
       <c r="O3">
-        <v>894116.5</v>
+        <v>857821.2410041719</v>
       </c>
       <c r="P3">
-        <v>869326.625</v>
+        <v>863145.4623333334</v>
       </c>
       <c r="Q3">
-        <v>-3923400.75</v>
+        <v>-1227318</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,43 +1033,43 @@
         <v>958222.0625</v>
       </c>
       <c r="E4">
-        <v>962785</v>
+        <v>962785.25</v>
       </c>
       <c r="F4">
-        <v>962784.5</v>
+        <v>962784.75</v>
       </c>
       <c r="G4">
-        <v>923466.375</v>
+        <v>907592.5625</v>
       </c>
       <c r="H4">
-        <v>836321.75</v>
+        <v>932218.1875</v>
       </c>
       <c r="I4">
-        <v>726408.125</v>
+        <v>901591.25</v>
       </c>
       <c r="J4">
-        <v>748849.6008333334</v>
+        <v>921077.375</v>
       </c>
       <c r="K4">
-        <v>746107.6409129272</v>
+        <v>870853.875</v>
       </c>
       <c r="L4">
-        <v>825752.125</v>
+        <v>903678.4375</v>
       </c>
       <c r="M4">
-        <v>775592.6419661848</v>
+        <v>713562.4180274772</v>
       </c>
       <c r="N4">
-        <v>784021.3125</v>
+        <v>726234.3125</v>
       </c>
       <c r="O4">
-        <v>774570.6875</v>
+        <v>738045.533730357</v>
       </c>
       <c r="P4">
-        <v>762515.5625</v>
+        <v>718196.9133805915</v>
       </c>
       <c r="Q4">
-        <v>-1676870.75</v>
+        <v>2868061.75</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,43 +1086,43 @@
         <v>927141.9375</v>
       </c>
       <c r="E5">
-        <v>962784.5</v>
+        <v>962788.0625</v>
       </c>
       <c r="F5">
-        <v>962786.75</v>
+        <v>962786.8125</v>
       </c>
       <c r="G5">
-        <v>907128.1875</v>
+        <v>892300.375</v>
       </c>
       <c r="H5">
-        <v>815743</v>
+        <v>905353.6875</v>
       </c>
       <c r="I5">
-        <v>712668.375</v>
+        <v>857363</v>
       </c>
       <c r="J5">
-        <v>743750.0957124819</v>
+        <v>912240.625</v>
       </c>
       <c r="K5">
-        <v>730462.4923763644</v>
+        <v>873260.3125</v>
       </c>
       <c r="L5">
-        <v>800550.875</v>
+        <v>873412</v>
       </c>
       <c r="M5">
-        <v>852794.8423079726</v>
+        <v>786459.8855714849</v>
       </c>
       <c r="N5">
-        <v>756014.9375</v>
+        <v>645473.5625</v>
       </c>
       <c r="O5">
-        <v>733983</v>
+        <v>648236.0568016755</v>
       </c>
       <c r="P5">
-        <v>737909.6875</v>
+        <v>673377.6873333335</v>
       </c>
       <c r="Q5">
-        <v>1410462.625</v>
+        <v>-5404864.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,43 +1139,43 @@
         <v>931413.8125</v>
       </c>
       <c r="E6">
-        <v>962792.25</v>
+        <v>962783</v>
       </c>
       <c r="F6">
-        <v>962784.9375</v>
+        <v>962785.625</v>
       </c>
       <c r="G6">
-        <v>835932.3125</v>
+        <v>834267.375</v>
       </c>
       <c r="H6">
-        <v>790585.5625</v>
+        <v>873092.5625</v>
       </c>
       <c r="I6">
-        <v>803041.6875</v>
+        <v>848938.8125</v>
       </c>
       <c r="J6">
-        <v>801388.8376468257</v>
+        <v>833304.9375</v>
       </c>
       <c r="K6">
-        <v>803712.0131875655</v>
+        <v>863349</v>
       </c>
       <c r="L6">
-        <v>776397.375</v>
+        <v>660190.5625</v>
       </c>
       <c r="M6">
-        <v>774889.33942124</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="N6">
-        <v>718953.1875</v>
+        <v>737058.5625</v>
       </c>
       <c r="O6">
-        <v>717506.8125</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="P6">
-        <v>712596.1875</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="Q6">
-        <v>5319021</v>
+        <v>-1189746.25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,43 +1192,43 @@
         <v>967818.9375</v>
       </c>
       <c r="E7">
-        <v>962796.6875</v>
+        <v>962788.75</v>
       </c>
       <c r="F7">
-        <v>962790.1875</v>
+        <v>962790.4375</v>
       </c>
       <c r="G7">
-        <v>776078.4375</v>
+        <v>943312.75</v>
       </c>
       <c r="H7">
-        <v>866169.125</v>
+        <v>988304.9375</v>
       </c>
       <c r="I7">
-        <v>891492</v>
+        <v>946960.1875</v>
       </c>
       <c r="J7">
-        <v>887587.8216666668</v>
+        <v>772083.75</v>
       </c>
       <c r="K7">
-        <v>893770.8443177267</v>
+        <v>926263.1875</v>
       </c>
       <c r="L7">
-        <v>882015.8125</v>
+        <v>906213.125</v>
       </c>
       <c r="M7">
-        <v>870761.3333335741</v>
+        <v>799281.0566926182</v>
       </c>
       <c r="N7">
-        <v>860941.25</v>
+        <v>891492.9375</v>
       </c>
       <c r="O7">
-        <v>847484.625</v>
+        <v>891758.9626808777</v>
       </c>
       <c r="P7">
-        <v>854193</v>
+        <v>868364.7646428571</v>
       </c>
       <c r="Q7">
-        <v>3050098.5</v>
+        <v>-1537966.5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,43 +1245,43 @@
         <v>1028504.1875</v>
       </c>
       <c r="E8">
-        <v>962794.25</v>
+        <v>962785.4375</v>
       </c>
       <c r="F8">
-        <v>962790.1875</v>
+        <v>962789.6875</v>
       </c>
       <c r="G8">
-        <v>903953.1875</v>
+        <v>1003259.125</v>
       </c>
       <c r="H8">
-        <v>896683.125</v>
+        <v>1008220.875</v>
       </c>
       <c r="I8">
-        <v>947253.5</v>
+        <v>991990.9375</v>
       </c>
       <c r="J8">
-        <v>927688.1536111112</v>
+        <v>899186.4375</v>
       </c>
       <c r="K8">
-        <v>905244.5152314665</v>
+        <v>956354.125</v>
       </c>
       <c r="L8">
-        <v>857667.1875</v>
+        <v>919714.9375</v>
       </c>
       <c r="M8">
-        <v>878834.7784454646</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="N8">
-        <v>902821.25</v>
+        <v>977150.0625</v>
       </c>
       <c r="O8">
-        <v>835698.375</v>
+        <v>909873.7541929655</v>
       </c>
       <c r="P8">
-        <v>857634.5625</v>
+        <v>923310.211804834</v>
       </c>
       <c r="Q8">
-        <v>-376629.65625</v>
+        <v>12485534</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,43 +1298,43 @@
         <v>1056136.5</v>
       </c>
       <c r="E9">
-        <v>962800.75</v>
+        <v>962785.875</v>
       </c>
       <c r="F9">
-        <v>962786.5</v>
+        <v>962786.6875</v>
       </c>
       <c r="G9">
-        <v>1150133.5</v>
+        <v>930980.375</v>
       </c>
       <c r="H9">
-        <v>855954.25</v>
+        <v>1011157.75</v>
       </c>
       <c r="I9">
-        <v>843529.625</v>
+        <v>988472.125</v>
       </c>
       <c r="J9">
-        <v>839290.38315873</v>
+        <v>1155639.25</v>
       </c>
       <c r="K9">
-        <v>841860.2586359341</v>
+        <v>921361.375</v>
       </c>
       <c r="L9">
-        <v>920399.6875</v>
+        <v>846694.8125</v>
       </c>
       <c r="M9">
-        <v>804054.977597915</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="N9">
-        <v>836988.9375</v>
+        <v>864513.125</v>
       </c>
       <c r="O9">
-        <v>859111.75</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="P9">
-        <v>875181.875</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="Q9">
-        <v>6094793.5</v>
+        <v>15469295</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,43 +1351,43 @@
         <v>1046735.875</v>
       </c>
       <c r="E10">
-        <v>962830.25</v>
+        <v>962786.375</v>
       </c>
       <c r="F10">
-        <v>962786.8125</v>
+        <v>962786.9375</v>
       </c>
       <c r="G10">
-        <v>1147448.75</v>
+        <v>966886</v>
       </c>
       <c r="H10">
-        <v>864678.4375</v>
+        <v>943336</v>
       </c>
       <c r="I10">
-        <v>837969.0625</v>
+        <v>963096.75</v>
       </c>
       <c r="J10">
-        <v>837229.0744404763</v>
+        <v>1140444.875</v>
       </c>
       <c r="K10">
-        <v>836987.69307371</v>
+        <v>816905.3125</v>
       </c>
       <c r="L10">
-        <v>845182.625</v>
+        <v>858087.6875</v>
       </c>
       <c r="M10">
-        <v>795016.9722263718</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="N10">
-        <v>858358.375</v>
+        <v>742881.375</v>
       </c>
       <c r="O10">
-        <v>851674.875</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="P10">
-        <v>864611.875</v>
+        <v>754977.432238095</v>
       </c>
       <c r="Q10">
-        <v>2637635.5</v>
+        <v>12474751</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,43 +1404,43 @@
         <v>1046905.5625</v>
       </c>
       <c r="E11">
-        <v>962853.3125</v>
+        <v>962790.1875</v>
       </c>
       <c r="F11">
-        <v>962787.3125</v>
+        <v>962787.125</v>
       </c>
       <c r="G11">
-        <v>812536.875</v>
+        <v>822539.9375</v>
       </c>
       <c r="H11">
-        <v>724408.375</v>
+        <v>750389.25</v>
       </c>
       <c r="I11">
-        <v>803041.6875</v>
+        <v>752237.75</v>
       </c>
       <c r="J11">
-        <v>801388.8376468257</v>
+        <v>812410.375</v>
       </c>
       <c r="K11">
-        <v>803712.0131875655</v>
+        <v>541284.4375</v>
       </c>
       <c r="L11">
-        <v>732264.5</v>
+        <v>609530</v>
       </c>
       <c r="M11">
-        <v>774889.33942124</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="N11">
-        <v>772561.1875</v>
+        <v>737058.5625</v>
       </c>
       <c r="O11">
-        <v>713780.8125</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="P11">
-        <v>690959.3125</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="Q11">
-        <v>105432.109375</v>
+        <v>11851154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>1041554</v>
       </c>
       <c r="E12">
-        <v>962853.4375</v>
+        <v>962788.9375</v>
       </c>
       <c r="F12">
-        <v>962787.625</v>
+        <v>962787.5</v>
       </c>
       <c r="G12">
-        <v>797761</v>
+        <v>928172.25</v>
       </c>
       <c r="H12">
-        <v>831837.375</v>
+        <v>840354.3125</v>
       </c>
       <c r="I12">
-        <v>794961.0625</v>
+        <v>832622.625</v>
       </c>
       <c r="J12">
-        <v>784445.3512500002</v>
+        <v>801568.4375</v>
       </c>
       <c r="K12">
-        <v>752330.6891136256</v>
+        <v>587759.5</v>
       </c>
       <c r="L12">
-        <v>792770.75</v>
+        <v>707780</v>
       </c>
       <c r="M12">
-        <v>851745.4844343032</v>
+        <v>793763.473869375</v>
       </c>
       <c r="N12">
-        <v>836809.5625</v>
+        <v>806892.3125</v>
       </c>
       <c r="O12">
-        <v>795257.9375</v>
+        <v>802711.9152008167</v>
       </c>
       <c r="P12">
-        <v>778562.4375</v>
+        <v>765920.8731785713</v>
       </c>
       <c r="Q12">
-        <v>201441.25</v>
+        <v>11206404</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1510,43 +1510,43 @@
         <v>1088453.5</v>
       </c>
       <c r="E13">
-        <v>962858.625</v>
+        <v>962789.5</v>
       </c>
       <c r="F13">
-        <v>962787.875</v>
+        <v>962787.625</v>
       </c>
       <c r="G13">
-        <v>843127.625</v>
+        <v>842092.625</v>
       </c>
       <c r="H13">
-        <v>771790.75</v>
+        <v>757342.3125</v>
       </c>
       <c r="I13">
-        <v>837969.0625</v>
+        <v>687433</v>
       </c>
       <c r="J13">
-        <v>837229.0744404763</v>
+        <v>845292.3125</v>
       </c>
       <c r="K13">
-        <v>836987.69307371</v>
+        <v>457426.53125</v>
       </c>
       <c r="L13">
-        <v>746311.5625</v>
+        <v>605107.0625</v>
       </c>
       <c r="M13">
-        <v>795016.9722263718</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="N13">
-        <v>790120.1875</v>
+        <v>742881.375</v>
       </c>
       <c r="O13">
-        <v>751508.5</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="P13">
-        <v>721186.3125</v>
+        <v>754977.432238095</v>
       </c>
       <c r="Q13">
-        <v>3384366</v>
+        <v>9360363</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1563,43 +1563,43 @@
         <v>1122139.5</v>
       </c>
       <c r="E14">
-        <v>962890.8125</v>
+        <v>962790.5625</v>
       </c>
       <c r="F14">
-        <v>962788.1875</v>
+        <v>962788.625</v>
       </c>
       <c r="G14">
-        <v>907188.375</v>
+        <v>823420.6875</v>
       </c>
       <c r="H14">
-        <v>766695.0625</v>
+        <v>765860.4375</v>
       </c>
       <c r="I14">
-        <v>683557.6875</v>
+        <v>712523.75</v>
       </c>
       <c r="J14">
-        <v>683133.9541269842</v>
+        <v>894478.5</v>
       </c>
       <c r="K14">
-        <v>694451.9765205679</v>
+        <v>593668.4375</v>
       </c>
       <c r="L14">
-        <v>805579.5</v>
+        <v>647691.875</v>
       </c>
       <c r="M14">
-        <v>759402.2859814564</v>
+        <v>693123.6154550827</v>
       </c>
       <c r="N14">
-        <v>811854.3125</v>
+        <v>671510.875</v>
       </c>
       <c r="O14">
-        <v>804041.0625</v>
+        <v>670238.5939894114</v>
       </c>
       <c r="P14">
-        <v>791782.5625</v>
+        <v>666634.0994241867</v>
       </c>
       <c r="Q14">
-        <v>2872789.5</v>
+        <v>11405830</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1616,43 +1616,43 @@
         <v>1133236.375</v>
       </c>
       <c r="E15">
-        <v>962919.75</v>
+        <v>962787.1875</v>
       </c>
       <c r="F15">
-        <v>962788.9375</v>
+        <v>962788.8125</v>
       </c>
       <c r="G15">
-        <v>774352.75</v>
+        <v>946156.8125</v>
       </c>
       <c r="H15">
-        <v>839101.5</v>
+        <v>809579.625</v>
       </c>
       <c r="I15">
-        <v>849167.1875</v>
+        <v>884403.0625</v>
       </c>
       <c r="J15">
-        <v>866867.531111111</v>
+        <v>776655.125</v>
       </c>
       <c r="K15">
-        <v>882855.5788277513</v>
+        <v>717411.4375</v>
       </c>
       <c r="L15">
-        <v>855553.3125</v>
+        <v>847455.6875</v>
       </c>
       <c r="M15">
-        <v>878834.7784454646</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="N15">
-        <v>914593</v>
+        <v>916662.375</v>
       </c>
       <c r="O15">
-        <v>886483.3125</v>
+        <v>934076.5863701217</v>
       </c>
       <c r="P15">
-        <v>887782.5625</v>
+        <v>909471.2724166667</v>
       </c>
       <c r="Q15">
-        <v>-1945707.375</v>
+        <v>13388043</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,43 +1669,43 @@
         <v>1133940</v>
       </c>
       <c r="E16">
-        <v>962914.9375</v>
+        <v>962791.3125</v>
       </c>
       <c r="F16">
-        <v>962788.1875</v>
+        <v>962788.5</v>
       </c>
       <c r="G16">
-        <v>770662.625</v>
+        <v>803330.5</v>
       </c>
       <c r="H16">
-        <v>796453.5</v>
+        <v>733971.8125</v>
       </c>
       <c r="I16">
-        <v>856303.0625</v>
+        <v>688758</v>
       </c>
       <c r="J16">
-        <v>846387.5665952384</v>
+        <v>778950.75</v>
       </c>
       <c r="K16">
-        <v>849109.9425445142</v>
+        <v>598741.3125</v>
       </c>
       <c r="L16">
-        <v>777147.75</v>
+        <v>697801.25</v>
       </c>
       <c r="M16">
-        <v>791583.1583149504</v>
+        <v>755065.0793452159</v>
       </c>
       <c r="N16">
-        <v>803502.4375</v>
+        <v>856314.375</v>
       </c>
       <c r="O16">
-        <v>791961.4375</v>
+        <v>853917.8688880595</v>
       </c>
       <c r="P16">
-        <v>792801.375</v>
+        <v>841374.6702770565</v>
       </c>
       <c r="Q16">
-        <v>2085881.125</v>
+        <v>7364211.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,43 +1722,43 @@
         <v>1134382.25</v>
       </c>
       <c r="E17">
-        <v>962910.3125</v>
+        <v>962789.375</v>
       </c>
       <c r="F17">
-        <v>962786.75</v>
+        <v>962786.5625</v>
       </c>
       <c r="G17">
-        <v>737508.4375</v>
+        <v>759785.125</v>
       </c>
       <c r="H17">
-        <v>741116</v>
+        <v>691875.125</v>
       </c>
       <c r="I17">
-        <v>883223.4375</v>
+        <v>613213.875</v>
       </c>
       <c r="J17">
-        <v>860504.4080714287</v>
+        <v>741080.75</v>
       </c>
       <c r="K17">
-        <v>872774.735603758</v>
+        <v>550556.25</v>
       </c>
       <c r="L17">
-        <v>765486.5625</v>
+        <v>692256</v>
       </c>
       <c r="M17">
-        <v>819542.0310376986</v>
+        <v>824929.317296171</v>
       </c>
       <c r="N17">
-        <v>772375.125</v>
+        <v>883311.8125</v>
       </c>
       <c r="O17">
-        <v>772213.875</v>
+        <v>877699.4252782038</v>
       </c>
       <c r="P17">
-        <v>753276.6875</v>
+        <v>853246.6203012821</v>
       </c>
       <c r="Q17">
-        <v>1437403.375</v>
+        <v>16390917</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,43 +1775,43 @@
         <v>1108786.5</v>
       </c>
       <c r="E18">
-        <v>962910.625</v>
+        <v>962798.1875</v>
       </c>
       <c r="F18">
-        <v>962787.875</v>
+        <v>962788</v>
       </c>
       <c r="G18">
-        <v>627710</v>
+        <v>847765.375</v>
       </c>
       <c r="H18">
-        <v>818266.875</v>
+        <v>682495.75</v>
       </c>
       <c r="I18">
-        <v>777735.125</v>
+        <v>613256.75</v>
       </c>
       <c r="J18">
-        <v>775883.9756825395</v>
+        <v>627708.3125</v>
       </c>
       <c r="K18">
-        <v>779454.8088151764</v>
+        <v>564594.3125</v>
       </c>
       <c r="L18">
-        <v>774951.0625</v>
+        <v>702194.625</v>
       </c>
       <c r="M18">
-        <v>812889.8884850513</v>
+        <v>751708.3399469188</v>
       </c>
       <c r="N18">
-        <v>805285.5</v>
+        <v>783829.1875</v>
       </c>
       <c r="O18">
-        <v>814252.875</v>
+        <v>783435.6375703098</v>
       </c>
       <c r="P18">
-        <v>816158.0625</v>
+        <v>781285.8103112169</v>
       </c>
       <c r="Q18">
-        <v>1199493.5</v>
+        <v>14106606</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,43 +1828,43 @@
         <v>1120666.375</v>
       </c>
       <c r="E19">
-        <v>962910.875</v>
+        <v>962794.8125</v>
       </c>
       <c r="F19">
-        <v>962787.5</v>
+        <v>962787.4375</v>
       </c>
       <c r="G19">
-        <v>534006.5625</v>
+        <v>843283.375</v>
       </c>
       <c r="H19">
-        <v>839208.0625</v>
+        <v>716323.375</v>
       </c>
       <c r="I19">
-        <v>921733.9375</v>
+        <v>776888.625</v>
       </c>
       <c r="J19">
-        <v>914943.872</v>
+        <v>536018.0625</v>
       </c>
       <c r="K19">
-        <v>918000.3404683942</v>
+        <v>584366.625</v>
       </c>
       <c r="L19">
-        <v>813719.875</v>
+        <v>767065.0625</v>
       </c>
       <c r="M19">
-        <v>858801.6379494116</v>
+        <v>864621.0921165585</v>
       </c>
       <c r="N19">
-        <v>864974.3125</v>
+        <v>935979.3125</v>
       </c>
       <c r="O19">
-        <v>829458.125</v>
+        <v>935003.0584097266</v>
       </c>
       <c r="P19">
-        <v>872679</v>
+        <v>923759.4208333334</v>
       </c>
       <c r="Q19">
-        <v>-4869808.5</v>
+        <v>9526541</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1881,43 +1881,43 @@
         <v>1180209.875</v>
       </c>
       <c r="E20">
-        <v>962912.0625</v>
+        <v>962794.0625</v>
       </c>
       <c r="F20">
-        <v>962787.3125</v>
+        <v>962787.6875</v>
       </c>
       <c r="G20">
-        <v>780232.875</v>
+        <v>872024.125</v>
       </c>
       <c r="H20">
-        <v>860969.5</v>
+        <v>663019.4375</v>
       </c>
       <c r="I20">
-        <v>925090.9375</v>
+        <v>607027.5625</v>
       </c>
       <c r="J20">
-        <v>917359.5678571429</v>
+        <v>779337.1875</v>
       </c>
       <c r="K20">
-        <v>919277.0530309108</v>
+        <v>586412.875</v>
       </c>
       <c r="L20">
-        <v>856604.75</v>
+        <v>803594.0625</v>
       </c>
       <c r="M20">
-        <v>871778.6249303562</v>
+        <v>820741.2497030696</v>
       </c>
       <c r="N20">
-        <v>866651.5625</v>
+        <v>925104.0625</v>
       </c>
       <c r="O20">
-        <v>895723.125</v>
+        <v>923847.1420002986</v>
       </c>
       <c r="P20">
-        <v>890832.625</v>
+        <v>910675.1330714284</v>
       </c>
       <c r="Q20">
-        <v>4692949</v>
+        <v>10926579</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1934,43 +1934,43 @@
         <v>1185161.75</v>
       </c>
       <c r="E21">
-        <v>962913.3125</v>
+        <v>962794.625</v>
       </c>
       <c r="F21">
-        <v>962786.125</v>
+        <v>962786</v>
       </c>
       <c r="G21">
-        <v>529248</v>
+        <v>905754.8125</v>
       </c>
       <c r="H21">
-        <v>849079.3125</v>
+        <v>744068.0625</v>
       </c>
       <c r="I21">
-        <v>840861.125</v>
+        <v>661617.375</v>
       </c>
       <c r="J21">
-        <v>837536.7219404761</v>
+        <v>534767.0625</v>
       </c>
       <c r="K21">
-        <v>842351.8643017001</v>
+        <v>622496.75</v>
       </c>
       <c r="L21">
-        <v>865343.875</v>
+        <v>778356.5</v>
       </c>
       <c r="M21">
-        <v>831488.1121378717</v>
+        <v>799505.221539111</v>
       </c>
       <c r="N21">
-        <v>893385.375</v>
+        <v>829620.375</v>
       </c>
       <c r="O21">
-        <v>867359.0625</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="P21">
-        <v>884830.6875</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="Q21">
-        <v>4401482</v>
+        <v>14370654</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,43 +1987,43 @@
         <v>1209640.375</v>
       </c>
       <c r="E22">
-        <v>962927.3125</v>
+        <v>962795.875</v>
       </c>
       <c r="F22">
-        <v>962787.0625</v>
+        <v>962786.5</v>
       </c>
       <c r="G22">
-        <v>929307.1875</v>
+        <v>849883.125</v>
       </c>
       <c r="H22">
-        <v>829429.375</v>
+        <v>722228.5625</v>
       </c>
       <c r="I22">
-        <v>758001</v>
+        <v>638367</v>
       </c>
       <c r="J22">
-        <v>759400.9237103175</v>
+        <v>919038.9375</v>
       </c>
       <c r="K22">
-        <v>756251.4457300263</v>
+        <v>614589.5</v>
       </c>
       <c r="L22">
-        <v>847919.4375</v>
+        <v>791461.3125</v>
       </c>
       <c r="M22">
-        <v>778828.6752670999</v>
+        <v>737095.9237023004</v>
       </c>
       <c r="N22">
-        <v>834312.6875</v>
+        <v>710048.5625</v>
       </c>
       <c r="O22">
-        <v>848130.0625</v>
+        <v>710138.1638713292</v>
       </c>
       <c r="P22">
-        <v>848329.1875</v>
+        <v>716961.3829173604</v>
       </c>
       <c r="Q22">
-        <v>-392756.875</v>
+        <v>9413487</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2040,43 +2040,43 @@
         <v>1195656</v>
       </c>
       <c r="E23">
-        <v>962942.6875</v>
+        <v>962794.1875</v>
       </c>
       <c r="F23">
-        <v>962788.25</v>
+        <v>962787.6875</v>
       </c>
       <c r="G23">
-        <v>733939.9375</v>
+        <v>850927.8125</v>
       </c>
       <c r="H23">
-        <v>839631.25</v>
+        <v>761915.6875</v>
       </c>
       <c r="I23">
-        <v>816585.6875</v>
+        <v>709601.8125</v>
       </c>
       <c r="J23">
-        <v>833224.4338095239</v>
+        <v>739373.4375</v>
       </c>
       <c r="K23">
-        <v>820212.5249865989</v>
+        <v>731161.3125</v>
       </c>
       <c r="L23">
-        <v>817308.4375</v>
+        <v>816727.125</v>
       </c>
       <c r="M23">
-        <v>878834.7784454646</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="N23">
-        <v>870451.1875</v>
+        <v>884836.5</v>
       </c>
       <c r="O23">
-        <v>847036.75</v>
+        <v>885692.6704541745</v>
       </c>
       <c r="P23">
-        <v>891679.75</v>
+        <v>886345.3425714289</v>
       </c>
       <c r="Q23">
-        <v>-1776328.25</v>
+        <v>9268813</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2093,43 +2093,43 @@
         <v>1234132.375</v>
       </c>
       <c r="E24">
-        <v>962937.1875</v>
+        <v>962792.9375</v>
       </c>
       <c r="F24">
-        <v>962787.8125</v>
+        <v>962787.1875</v>
       </c>
       <c r="G24">
-        <v>814436.4375</v>
+        <v>633124.375</v>
       </c>
       <c r="H24">
-        <v>702763</v>
+        <v>498975.375</v>
       </c>
       <c r="I24">
-        <v>676462.25</v>
+        <v>529197.875</v>
       </c>
       <c r="J24">
-        <v>727688.1952619047</v>
+        <v>816496.375</v>
       </c>
       <c r="K24">
-        <v>683690.5647319045</v>
+        <v>516830.78125</v>
       </c>
       <c r="L24">
-        <v>679517.1875</v>
+        <v>618552.375</v>
       </c>
       <c r="M24">
-        <v>772378.704716297</v>
+        <v>768140.0246522534</v>
       </c>
       <c r="N24">
-        <v>711565.9375</v>
+        <v>797295.875</v>
       </c>
       <c r="O24">
-        <v>766982.25</v>
+        <v>796953.7915318637</v>
       </c>
       <c r="P24">
-        <v>745087.25</v>
+        <v>790559.7446666667</v>
       </c>
       <c r="Q24">
-        <v>4464722</v>
+        <v>11801365</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2146,43 +2146,43 @@
         <v>1251246.375</v>
       </c>
       <c r="E25">
-        <v>962927.8125</v>
+        <v>962795.4375</v>
       </c>
       <c r="F25">
-        <v>962787.9375</v>
+        <v>962786.875</v>
       </c>
       <c r="G25">
-        <v>1016744.625</v>
+        <v>669787.1875</v>
       </c>
       <c r="H25">
-        <v>796735.75</v>
+        <v>433870.46875</v>
       </c>
       <c r="I25">
-        <v>930397.5</v>
+        <v>541402.0625</v>
       </c>
       <c r="J25">
-        <v>926748.3446666666</v>
+        <v>1014056.5625</v>
       </c>
       <c r="K25">
-        <v>926992.0478542953</v>
+        <v>430521.5</v>
       </c>
       <c r="L25">
-        <v>783009</v>
+        <v>687907.375</v>
       </c>
       <c r="M25">
-        <v>899824.4808781837</v>
+        <v>866950.584606506</v>
       </c>
       <c r="N25">
-        <v>816888</v>
+        <v>977676.875</v>
       </c>
       <c r="O25">
-        <v>881507.625</v>
+        <v>977065.9413771348</v>
       </c>
       <c r="P25">
-        <v>881653.75</v>
+        <v>968580.7619999999</v>
       </c>
       <c r="Q25">
-        <v>-3012039.75</v>
+        <v>9200107</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2199,43 +2199,43 @@
         <v>1262408.75</v>
       </c>
       <c r="E26">
-        <v>962922.1875</v>
+        <v>962795</v>
       </c>
       <c r="F26">
-        <v>962787.75</v>
+        <v>962786.8125</v>
       </c>
       <c r="G26">
-        <v>880709.4375</v>
+        <v>735999.875</v>
       </c>
       <c r="H26">
-        <v>844683.5</v>
+        <v>494741.96875</v>
       </c>
       <c r="I26">
-        <v>843529.625</v>
+        <v>614138</v>
       </c>
       <c r="J26">
-        <v>839290.38315873</v>
+        <v>871098.3125</v>
       </c>
       <c r="K26">
-        <v>841860.2586359341</v>
+        <v>503505.5625</v>
       </c>
       <c r="L26">
-        <v>823056.4375</v>
+        <v>731288.375</v>
       </c>
       <c r="M26">
-        <v>804054.977597915</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="N26">
-        <v>848036.875</v>
+        <v>864513.125</v>
       </c>
       <c r="O26">
-        <v>854023.875</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="P26">
-        <v>863214.25</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="Q26">
-        <v>3977220.75</v>
+        <v>22978500</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2252,43 +2252,43 @@
         <v>1284597.125</v>
       </c>
       <c r="E27">
-        <v>962917.5</v>
+        <v>962793.3125</v>
       </c>
       <c r="F27">
-        <v>962787.8125</v>
+        <v>962787.125</v>
       </c>
       <c r="G27">
-        <v>1129531.25</v>
+        <v>797888.625</v>
       </c>
       <c r="H27">
-        <v>902821.5</v>
+        <v>684645.125</v>
       </c>
       <c r="I27">
-        <v>914860.5</v>
+        <v>716691.375</v>
       </c>
       <c r="J27">
-        <v>917128.4438333332</v>
+        <v>1144123.375</v>
       </c>
       <c r="K27">
-        <v>916907.0766579479</v>
+        <v>724192.875</v>
       </c>
       <c r="L27">
-        <v>878893.25</v>
+        <v>813300.5625</v>
       </c>
       <c r="M27">
-        <v>899824.4808781837</v>
+        <v>866950.584606506</v>
       </c>
       <c r="N27">
-        <v>890813.4375</v>
+        <v>701215.375</v>
       </c>
       <c r="O27">
-        <v>926877.875</v>
+        <v>710232.0093093037</v>
       </c>
       <c r="P27">
-        <v>910176.6875</v>
+        <v>785458.8696666665</v>
       </c>
       <c r="Q27">
-        <v>6822110</v>
+        <v>22317442</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2305,43 +2305,43 @@
         <v>1291120.5</v>
       </c>
       <c r="E28">
-        <v>962914.0625</v>
+        <v>962792.1875</v>
       </c>
       <c r="F28">
-        <v>962787.75</v>
+        <v>962787.125</v>
       </c>
       <c r="G28">
-        <v>748059.0625</v>
+        <v>760439.75</v>
       </c>
       <c r="H28">
-        <v>825324.75</v>
+        <v>626077.875</v>
       </c>
       <c r="I28">
-        <v>726408.125</v>
+        <v>693236.5625</v>
       </c>
       <c r="J28">
-        <v>748849.6008333334</v>
+        <v>768228.875</v>
       </c>
       <c r="K28">
-        <v>746107.6409129272</v>
+        <v>652753</v>
       </c>
       <c r="L28">
-        <v>813200.625</v>
+        <v>823461.9375</v>
       </c>
       <c r="M28">
-        <v>775592.6419661848</v>
+        <v>713562.4180274772</v>
       </c>
       <c r="N28">
-        <v>858605.4375</v>
+        <v>726234.3125</v>
       </c>
       <c r="O28">
-        <v>862341.875</v>
+        <v>738045.533730357</v>
       </c>
       <c r="P28">
-        <v>854686.5625</v>
+        <v>718196.9133805915</v>
       </c>
       <c r="Q28">
-        <v>-2953319.25</v>
+        <v>17386074</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2358,43 +2358,43 @@
         <v>1300758.625</v>
       </c>
       <c r="E29">
-        <v>962910.875</v>
+        <v>962793.3125</v>
       </c>
       <c r="F29">
-        <v>962787.625</v>
+        <v>962786.875</v>
       </c>
       <c r="G29">
-        <v>999422.1875</v>
+        <v>758002.25</v>
       </c>
       <c r="H29">
-        <v>852026.4375</v>
+        <v>647040.5</v>
       </c>
       <c r="I29">
-        <v>883223.4375</v>
+        <v>665703.875</v>
       </c>
       <c r="J29">
-        <v>860504.4080714287</v>
+        <v>989268.3125</v>
       </c>
       <c r="K29">
-        <v>872774.735603758</v>
+        <v>625340.1875</v>
       </c>
       <c r="L29">
-        <v>828889.375</v>
+        <v>832753.375</v>
       </c>
       <c r="M29">
-        <v>819542.0310376986</v>
+        <v>824929.317296171</v>
       </c>
       <c r="N29">
-        <v>823332.625</v>
+        <v>883311.8125</v>
       </c>
       <c r="O29">
-        <v>874162.6875</v>
+        <v>877699.4252782038</v>
       </c>
       <c r="P29">
-        <v>870623.3125</v>
+        <v>853246.6203012821</v>
       </c>
       <c r="Q29">
-        <v>4266069.5</v>
+        <v>21063496</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2411,43 +2411,43 @@
         <v>1292561</v>
       </c>
       <c r="E30">
-        <v>962908.0625</v>
+        <v>962792.25</v>
       </c>
       <c r="F30">
-        <v>962787.9375</v>
+        <v>962787.5625</v>
       </c>
       <c r="G30">
-        <v>1028374.6875</v>
+        <v>821263</v>
       </c>
       <c r="H30">
-        <v>881968.5</v>
+        <v>698362.0625</v>
       </c>
       <c r="I30">
-        <v>837969.0625</v>
+        <v>688192.0625</v>
       </c>
       <c r="J30">
-        <v>837229.0744404763</v>
+        <v>1024684.1875</v>
       </c>
       <c r="K30">
-        <v>836987.69307371</v>
+        <v>724092.25</v>
       </c>
       <c r="L30">
-        <v>863981.125</v>
+        <v>906164.125</v>
       </c>
       <c r="M30">
-        <v>795016.9722263718</v>
+        <v>764753.6759145448</v>
       </c>
       <c r="N30">
-        <v>880585.625</v>
+        <v>742881.375</v>
       </c>
       <c r="O30">
-        <v>915133.4375</v>
+        <v>743340.2843491447</v>
       </c>
       <c r="P30">
-        <v>897054</v>
+        <v>754977.432238095</v>
       </c>
       <c r="Q30">
-        <v>2162860.75</v>
+        <v>17873402</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2464,43 +2464,43 @@
         <v>1310865</v>
       </c>
       <c r="E31">
-        <v>962905.3125</v>
+        <v>962795.5625</v>
       </c>
       <c r="F31">
-        <v>962788.3125</v>
+        <v>962787.625</v>
       </c>
       <c r="G31">
-        <v>749028.6875</v>
+        <v>703843.5625</v>
       </c>
       <c r="H31">
-        <v>804932.4375</v>
+        <v>543304.375</v>
       </c>
       <c r="I31">
-        <v>843529.625</v>
+        <v>593870.375</v>
       </c>
       <c r="J31">
-        <v>839290.38315873</v>
+        <v>749024.625</v>
       </c>
       <c r="K31">
-        <v>841860.2586359341</v>
+        <v>584075</v>
       </c>
       <c r="L31">
-        <v>774583.375</v>
+        <v>803016.0625</v>
       </c>
       <c r="M31">
-        <v>804054.977597915</v>
+        <v>828373.5874550424</v>
       </c>
       <c r="N31">
-        <v>784298.125</v>
+        <v>864513.125</v>
       </c>
       <c r="O31">
-        <v>828733.25</v>
+        <v>865475.3607832349</v>
       </c>
       <c r="P31">
-        <v>810293.875</v>
+        <v>864092.8148971865</v>
       </c>
       <c r="Q31">
-        <v>387826.25</v>
+        <v>35911352</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2517,43 +2517,43 @@
         <v>1307370.125</v>
       </c>
       <c r="E32">
-        <v>962922.8125</v>
+        <v>962834.5625</v>
       </c>
       <c r="F32">
-        <v>962787.625</v>
+        <v>962787.25</v>
       </c>
       <c r="G32">
-        <v>907506.25</v>
+        <v>910959.125</v>
       </c>
       <c r="H32">
-        <v>919889.5</v>
+        <v>708910.1875</v>
       </c>
       <c r="I32">
-        <v>816585.6875</v>
+        <v>746097.8125</v>
       </c>
       <c r="J32">
-        <v>833224.4338095239</v>
+        <v>907508.5</v>
       </c>
       <c r="K32">
-        <v>820212.5249865989</v>
+        <v>838784.5</v>
       </c>
       <c r="L32">
-        <v>940448.3125</v>
+        <v>945923.5</v>
       </c>
       <c r="M32">
-        <v>878834.7784454646</v>
+        <v>891598.8679502531</v>
       </c>
       <c r="N32">
-        <v>970324.3125</v>
+        <v>884836.5</v>
       </c>
       <c r="O32">
-        <v>986288.0625</v>
+        <v>885692.6704541745</v>
       </c>
       <c r="P32">
-        <v>962011.75</v>
+        <v>886345.3425714289</v>
       </c>
       <c r="Q32">
-        <v>9592442</v>
+        <v>47264464</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,43 +2570,43 @@
         <v>1310645</v>
       </c>
       <c r="E33">
-        <v>962954.3125</v>
+        <v>962831.5</v>
       </c>
       <c r="F33">
-        <v>962788.0625</v>
+        <v>962787.4375</v>
       </c>
       <c r="G33">
-        <v>800286.6875</v>
+        <v>866504.875</v>
       </c>
       <c r="H33">
-        <v>884583.625</v>
+        <v>791161.0625</v>
       </c>
       <c r="I33">
-        <v>840861.125</v>
+        <v>820290.625</v>
       </c>
       <c r="J33">
-        <v>837536.7219404761</v>
+        <v>800327.6875</v>
       </c>
       <c r="K33">
-        <v>842351.8643017001</v>
+        <v>890126.5625</v>
       </c>
       <c r="L33">
-        <v>892581.75</v>
+        <v>982303.8125</v>
       </c>
       <c r="M33">
-        <v>831488.1121378717</v>
+        <v>799505.221539111</v>
       </c>
       <c r="N33">
-        <v>870638.75</v>
+        <v>829620.375</v>
       </c>
       <c r="O33">
-        <v>931029.1875</v>
+        <v>829805.9591854673</v>
       </c>
       <c r="P33">
-        <v>935715.8125</v>
+        <v>828693.3498113276</v>
       </c>
       <c r="Q33">
-        <v>-24872.994140625</v>
+        <v>65395548</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2623,43 +2623,43 @@
         <v>1346747.375</v>
       </c>
       <c r="E34">
-        <v>962969.0625</v>
+        <v>962832.5</v>
       </c>
       <c r="F34">
-        <v>962787.6875</v>
+        <v>962787.4375</v>
       </c>
       <c r="G34">
-        <v>703155.6875</v>
+        <v>903893.9375</v>
       </c>
       <c r="H34">
-        <v>909424.0625</v>
+        <v>688216.25</v>
       </c>
       <c r="I34">
-        <v>803041.6875</v>
+        <v>750873.75</v>
       </c>
       <c r="J34">
-        <v>801388.8376468257</v>
+        <v>703149.25</v>
       </c>
       <c r="K34">
-        <v>803712.0131875655</v>
+        <v>767840.9375</v>
       </c>
       <c r="L34">
-        <v>896768.8125</v>
+        <v>983641.25</v>
       </c>
       <c r="M34">
-        <v>774889.33942124</v>
+        <v>716657.1211299059</v>
       </c>
       <c r="N34">
-        <v>866303.0625</v>
+        <v>737058.5625</v>
       </c>
       <c r="O34">
-        <v>945005.375</v>
+        <v>737449.5066438494</v>
       </c>
       <c r="P34">
-        <v>952987.1875</v>
+        <v>739679.1943444065</v>
       </c>
       <c r="Q34">
-        <v>1211329</v>
+        <v>67984872</v>
       </c>
     </row>
   </sheetData>
@@ -2700,236 +2700,236 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>22508767553.31209</v>
+        <v>22858312977.64274</v>
       </c>
       <c r="C2">
-        <v>150029.2223312248</v>
+        <v>151189.6589639739</v>
       </c>
       <c r="D2">
-        <v>0.02894696496536764</v>
+        <v>0.0284537923546231</v>
       </c>
       <c r="E2">
-        <v>70657.12239583333</v>
+        <v>70607.390625</v>
       </c>
       <c r="F2">
-        <v>0.1017847976019197</v>
+        <v>0.09937265376625982</v>
       </c>
       <c r="G2">
-        <v>25593.765625</v>
+        <v>18728.25</v>
       </c>
       <c r="H2">
-        <v>0.0481209965523718</v>
+        <v>0.0371556329522009</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>24148061042.67196</v>
+        <v>21200368533.14494</v>
       </c>
       <c r="C3">
-        <v>155396.4640610331</v>
+        <v>145603.463328126</v>
       </c>
       <c r="D3">
-        <v>0.03107622530147626</v>
+        <v>0.02551819437732288</v>
       </c>
       <c r="E3">
-        <v>84533.74739583333</v>
+        <v>66802.76302083333</v>
       </c>
       <c r="F3">
-        <v>0.1233273889466567</v>
+        <v>0.09225891570666563</v>
       </c>
       <c r="G3">
-        <v>38889.96875</v>
+        <v>27131.125</v>
       </c>
       <c r="H3">
-        <v>0.08562957417963721</v>
+        <v>0.04940612565874219</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>24148202375.75903</v>
+        <v>22508767553.31209</v>
       </c>
       <c r="C4">
-        <v>155396.9188103774</v>
+        <v>150029.2223312248</v>
       </c>
       <c r="D4">
-        <v>0.03107647212172299</v>
+        <v>0.02894696496536764</v>
       </c>
       <c r="E4">
-        <v>84534.25260416667</v>
+        <v>70657.12239583333</v>
       </c>
       <c r="F4">
-        <v>0.1233281173777791</v>
+        <v>0.1017847976019197</v>
       </c>
       <c r="G4">
-        <v>38888.046875</v>
+        <v>25593.765625</v>
       </c>
       <c r="H4">
-        <v>0.08563008857481652</v>
+        <v>0.0481209965523718</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>27938719019.87923</v>
+        <v>22124519681.00407</v>
       </c>
       <c r="C5">
-        <v>167148.7930554069</v>
+        <v>148743.1332230301</v>
       </c>
       <c r="D5">
-        <v>0.04388553438640003</v>
+        <v>0.02976543191989229</v>
       </c>
       <c r="E5">
-        <v>108246.0989583333</v>
+        <v>76737.41666666667</v>
       </c>
       <c r="F5">
-        <v>0.1713996701376298</v>
+        <v>0.1104932414439265</v>
       </c>
       <c r="G5">
-        <v>70896.5</v>
+        <v>30071.65625</v>
       </c>
       <c r="H5">
-        <v>0.1433232184723885</v>
+        <v>0.05684146242176929</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>31875202543.52507</v>
+        <v>23613940329.40853</v>
       </c>
       <c r="C6">
-        <v>178536.2779479988</v>
+        <v>153668.2801667557</v>
       </c>
       <c r="D6">
-        <v>0.04836447419977388</v>
+        <v>0.02987909240334076</v>
       </c>
       <c r="E6">
-        <v>117883.296875</v>
+        <v>76153.90625</v>
       </c>
       <c r="F6">
-        <v>0.1830516067632752</v>
+        <v>0.10983769263598</v>
       </c>
       <c r="G6">
-        <v>93269.421875</v>
+        <v>32195.453125</v>
       </c>
       <c r="H6">
-        <v>0.1707898501856537</v>
+        <v>0.06325650817207337</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>32867509020.29419</v>
+        <v>24148134488.70247</v>
       </c>
       <c r="C7">
-        <v>181293.9850637472</v>
+        <v>155396.7003790701</v>
       </c>
       <c r="D7">
-        <v>0.05154254432276547</v>
+        <v>0.03107619911615371</v>
       </c>
       <c r="E7">
-        <v>122893.1119791667</v>
+        <v>84533.83854166667</v>
       </c>
       <c r="F7">
-        <v>0.1959601721581491</v>
+        <v>0.1233270972233724</v>
       </c>
       <c r="G7">
-        <v>82337.8125</v>
+        <v>38887.09375</v>
       </c>
       <c r="H7">
-        <v>0.164097715300266</v>
+        <v>0.08562117270522679</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>35535018491.17491</v>
+        <v>24146527911.92179</v>
       </c>
       <c r="C8">
-        <v>188507.3433348816</v>
+        <v>155391.5310173685</v>
       </c>
       <c r="D8">
-        <v>0.05260951762481398</v>
+        <v>0.03107365564926702</v>
       </c>
       <c r="E8">
-        <v>122788.1213443312</v>
+        <v>84522.9140625</v>
       </c>
       <c r="F8">
-        <v>0.1896728959501362</v>
+        <v>0.1233118716260161</v>
       </c>
       <c r="G8">
-        <v>94548.96328212792</v>
+        <v>38897.71875</v>
       </c>
       <c r="H8">
-        <v>0.1730240158225798</v>
+        <v>0.08569685786676481</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>37359537782.07456</v>
+        <v>25121477691.57707</v>
       </c>
       <c r="C9">
-        <v>193286.1551743284</v>
+        <v>158497.5636771022</v>
       </c>
       <c r="D9">
-        <v>0.05437966074456022</v>
+        <v>0.0378395658951801</v>
       </c>
       <c r="E9">
-        <v>124133.0557068044</v>
+        <v>89790.76302083333</v>
       </c>
       <c r="F9">
-        <v>0.1908142726745274</v>
+        <v>0.1374796678124565</v>
       </c>
       <c r="G9">
-        <v>94115.57811346996</v>
+        <v>43097.4375</v>
       </c>
       <c r="H9">
-        <v>0.1722551898805185</v>
+        <v>0.08022313782903873</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>35849426811.12109</v>
+        <v>28601409498.62117</v>
       </c>
       <c r="C10">
-        <v>189339.4486395297</v>
+        <v>169119.512471569</v>
       </c>
       <c r="D10">
-        <v>0.05767318161237762</v>
+        <v>0.04463618098724536</v>
       </c>
       <c r="E10">
-        <v>131438.078125</v>
+        <v>109167.1796875</v>
       </c>
       <c r="F10">
-        <v>0.2103811972626468</v>
+        <v>0.1723941679129359</v>
       </c>
       <c r="G10">
-        <v>89494.578125</v>
+        <v>71703.84375</v>
       </c>
       <c r="H10">
-        <v>0.1697855673959172</v>
+        <v>0.1444687975359654</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2937,103 +2937,103 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>37552677570.98209</v>
+        <v>47712558995.49239</v>
       </c>
       <c r="C11">
-        <v>193785.1324817828</v>
+        <v>218432.0466311947</v>
       </c>
       <c r="D11">
-        <v>0.06104690895445319</v>
+        <v>0.07916518149298744</v>
       </c>
       <c r="E11">
-        <v>134417</v>
+        <v>154307.1789980812</v>
       </c>
       <c r="F11">
-        <v>0.2163219266324005</v>
+        <v>0.2467508517017662</v>
       </c>
       <c r="G11">
-        <v>95624.46875</v>
+        <v>110279.1860243262</v>
       </c>
       <c r="H11">
-        <v>0.1767283117611098</v>
+        <v>0.2286239146022777</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>40659415576.45174</v>
+        <v>43655267194.89901</v>
       </c>
       <c r="C12">
-        <v>201641.8001716205</v>
+        <v>208938.429196017</v>
       </c>
       <c r="D12">
-        <v>0.060210906572722</v>
+        <v>0.07652272005546405</v>
       </c>
       <c r="E12">
-        <v>130992.1464704582</v>
+        <v>153174.4317415252</v>
       </c>
       <c r="F12">
-        <v>0.2026523848474183</v>
+        <v>0.2475780542070365</v>
       </c>
       <c r="G12">
-        <v>95907.50336238986</v>
+        <v>125770.97844877</v>
       </c>
       <c r="H12">
-        <v>0.1905683844125882</v>
+        <v>0.2380913424133002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>35332860234.36401</v>
+        <v>49486892158.47128</v>
       </c>
       <c r="C13">
-        <v>187970.3706288946</v>
+        <v>222456.4949792909</v>
       </c>
       <c r="D13">
-        <v>0.05790271024455031</v>
+        <v>0.08274675791619814</v>
       </c>
       <c r="E13">
-        <v>131585.2213541667</v>
+        <v>157824.7473958333</v>
       </c>
       <c r="F13">
-        <v>0.2123422535269759</v>
+        <v>0.2529804115262307</v>
       </c>
       <c r="G13">
-        <v>93698.40625</v>
+        <v>118112.234375</v>
       </c>
       <c r="H13">
-        <v>0.1823516175404107</v>
+        <v>0.2380182608955675</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>34586459147.59245</v>
+        <v>50293922612.02682</v>
       </c>
       <c r="C14">
-        <v>185974.35077879</v>
+        <v>224263.0656439594</v>
       </c>
       <c r="D14">
-        <v>0.05701004560883366</v>
+        <v>0.08410448202057232</v>
       </c>
       <c r="E14">
-        <v>130914.6302083333</v>
+        <v>160270.3208504906</v>
       </c>
       <c r="F14">
-        <v>0.211408484716124</v>
+        <v>0.2569937106200277</v>
       </c>
       <c r="G14">
-        <v>90479.8125</v>
+        <v>125386.0883978349</v>
       </c>
       <c r="H14">
-        <v>0.1837124863954745</v>
+        <v>0.2417150626337585</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3041,25 +3041,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>105950089364.8027</v>
+        <v>2868176593271.097</v>
       </c>
       <c r="C15">
-        <v>325499.7532484513</v>
+        <v>1693569.187624497</v>
       </c>
       <c r="D15">
-        <v>0.3848494163155636</v>
+        <v>11.36144267094694</v>
       </c>
       <c r="E15">
-        <v>290057.0159505208</v>
+        <v>1250301.859375</v>
       </c>
       <c r="F15">
-        <v>0.5424074578051373</v>
+        <v>2.481406562593861</v>
       </c>
       <c r="G15">
-        <v>314434.3125</v>
+        <v>1182588.28125</v>
       </c>
       <c r="H15">
-        <v>0.5867626514277057</v>
+        <v>2.334371325949779</v>
       </c>
     </row>
   </sheetData>
@@ -3086,43 +3086,43 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3139,46 +3139,46 @@
         <v>576373</v>
       </c>
       <c r="D2">
+        <v>570431.375</v>
+      </c>
+      <c r="E2">
+        <v>543328.5</v>
+      </c>
+      <c r="F2">
         <v>533098.5</v>
       </c>
-      <c r="E2">
-        <v>492766.375</v>
-      </c>
-      <c r="F2">
-        <v>492765.3125</v>
-      </c>
       <c r="G2">
-        <v>536240.75</v>
+        <v>609005.5</v>
       </c>
       <c r="H2">
-        <v>449794.15625</v>
+        <v>597694.625</v>
       </c>
       <c r="I2">
-        <v>477260.75</v>
+        <v>492766.5625</v>
       </c>
       <c r="J2">
-        <v>450202.333854918</v>
+        <v>492769.34375</v>
       </c>
       <c r="K2">
-        <v>448835.2607221539</v>
+        <v>530871.4375</v>
       </c>
       <c r="L2">
-        <v>460537.96875</v>
+        <v>528953</v>
       </c>
       <c r="M2">
-        <v>477987.5</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N2">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O2">
-        <v>488602.375</v>
+        <v>435625.875</v>
       </c>
       <c r="P2">
-        <v>473342.25</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q2">
-        <v>180510.40625</v>
+        <v>692182</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3192,46 +3192,46 @@
         <v>999630</v>
       </c>
       <c r="D3">
+        <v>500429.46875</v>
+      </c>
+      <c r="E3">
+        <v>515105.3125</v>
+      </c>
+      <c r="F3">
         <v>499622.6875</v>
       </c>
-      <c r="E3">
-        <v>492766.90625</v>
-      </c>
-      <c r="F3">
-        <v>492766.28125</v>
-      </c>
       <c r="G3">
-        <v>481581.3125</v>
+        <v>524135.375</v>
       </c>
       <c r="H3">
-        <v>448862.40625</v>
+        <v>492544.8125</v>
       </c>
       <c r="I3">
-        <v>437879.3125</v>
+        <v>492766.625</v>
       </c>
       <c r="J3">
-        <v>412666.2076728638</v>
+        <v>492768.6875</v>
       </c>
       <c r="K3">
-        <v>394209.983265873</v>
+        <v>498620.5625</v>
       </c>
       <c r="L3">
-        <v>421036.40625</v>
+        <v>474916.1875</v>
       </c>
       <c r="M3">
-        <v>405854.28125</v>
+        <v>346104.87973779</v>
       </c>
       <c r="N3">
-        <v>370949.9916655814</v>
+        <v>390935.679454401</v>
       </c>
       <c r="O3">
-        <v>424998</v>
+        <v>335167.59375</v>
       </c>
       <c r="P3">
-        <v>433311.65625</v>
+        <v>330180.4496926841</v>
       </c>
       <c r="Q3">
-        <v>753057.0625</v>
+        <v>1158605.125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3245,46 +3245,46 @@
         <v>511512</v>
       </c>
       <c r="D4">
+        <v>509037</v>
+      </c>
+      <c r="E4">
+        <v>532729.75</v>
+      </c>
+      <c r="F4">
         <v>514574.4375</v>
       </c>
-      <c r="E4">
-        <v>492768.3125</v>
-      </c>
-      <c r="F4">
-        <v>492764.59375</v>
-      </c>
       <c r="G4">
-        <v>474571.40625</v>
+        <v>539022.8125</v>
       </c>
       <c r="H4">
-        <v>424511.90625</v>
+        <v>507227.3125</v>
       </c>
       <c r="I4">
-        <v>433829.0625</v>
+        <v>492766.875</v>
       </c>
       <c r="J4">
-        <v>424256.4757696001</v>
+        <v>492769.8125</v>
       </c>
       <c r="K4">
-        <v>424447.3159694888</v>
+        <v>500031.53125</v>
       </c>
       <c r="L4">
-        <v>436734.1875</v>
+        <v>482021.625</v>
       </c>
       <c r="M4">
-        <v>420763.03125</v>
+        <v>395141.8739394429</v>
       </c>
       <c r="N4">
-        <v>425482.4966376101</v>
+        <v>392814.3687342065</v>
       </c>
       <c r="O4">
-        <v>416724.0625</v>
+        <v>392922.03125</v>
       </c>
       <c r="P4">
-        <v>423021.625</v>
+        <v>403809.3735116462</v>
       </c>
       <c r="Q4">
-        <v>70334.328125</v>
+        <v>2418935.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3298,46 +3298,46 @@
         <v>495253</v>
       </c>
       <c r="D5">
+        <v>474440.46875</v>
+      </c>
+      <c r="E5">
+        <v>540274.0625</v>
+      </c>
+      <c r="F5">
         <v>468078.65625</v>
       </c>
-      <c r="E5">
-        <v>492769.28125</v>
-      </c>
-      <c r="F5">
-        <v>492768.28125</v>
-      </c>
       <c r="G5">
-        <v>452851.375</v>
+        <v>482418.375</v>
       </c>
       <c r="H5">
-        <v>449794.15625</v>
+        <v>456454.9375</v>
       </c>
       <c r="I5">
-        <v>405223.09375</v>
+        <v>492766.90625</v>
       </c>
       <c r="J5">
-        <v>450202.333854918</v>
+        <v>492765.34375</v>
       </c>
       <c r="K5">
-        <v>448835.2607221539</v>
+        <v>431802.625</v>
       </c>
       <c r="L5">
-        <v>414033.15625</v>
+        <v>451604.59375</v>
       </c>
       <c r="M5">
-        <v>393575.46875</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N5">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O5">
-        <v>398835.84375</v>
+        <v>435625.875</v>
       </c>
       <c r="P5">
-        <v>401814.65625</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q5">
-        <v>891611.5</v>
+        <v>-2369513.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3351,46 +3351,46 @@
         <v>454314</v>
       </c>
       <c r="D6">
+        <v>399947.375</v>
+      </c>
+      <c r="E6">
+        <v>446853.34375</v>
+      </c>
+      <c r="F6">
         <v>468221.34375</v>
       </c>
-      <c r="E6">
-        <v>492770.03125</v>
-      </c>
-      <c r="F6">
-        <v>492771.25</v>
-      </c>
       <c r="G6">
-        <v>360719.21875</v>
+        <v>383838.1875</v>
       </c>
       <c r="H6">
-        <v>401543.8125</v>
+        <v>403254.6875</v>
       </c>
       <c r="I6">
-        <v>355725.71875</v>
+        <v>492767.28125</v>
       </c>
       <c r="J6">
-        <v>401171.226163694</v>
+        <v>492773.21875</v>
       </c>
       <c r="K6">
-        <v>400637.5290218727</v>
+        <v>388588.125</v>
       </c>
       <c r="L6">
-        <v>352096.25</v>
+        <v>364321.59375</v>
       </c>
       <c r="M6">
-        <v>343379.25</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N6">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O6">
-        <v>344037.84375</v>
+        <v>370720.28125</v>
       </c>
       <c r="P6">
-        <v>346572.5</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q6">
-        <v>15510.91796875</v>
+        <v>772715</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,46 +3404,46 @@
         <v>515497</v>
       </c>
       <c r="D7">
+        <v>498853.03125</v>
+      </c>
+      <c r="E7">
+        <v>521367.90625</v>
+      </c>
+      <c r="F7">
         <v>496311.96875</v>
       </c>
-      <c r="E7">
-        <v>492769.3125</v>
-      </c>
-      <c r="F7">
-        <v>492771.21875</v>
-      </c>
       <c r="G7">
-        <v>473068.65625</v>
+        <v>520351.40625</v>
       </c>
       <c r="H7">
-        <v>472683.53125</v>
+        <v>503790.1875</v>
       </c>
       <c r="I7">
-        <v>445782.90625</v>
+        <v>492767.46875</v>
       </c>
       <c r="J7">
-        <v>453844.948761354</v>
+        <v>492774.25</v>
       </c>
       <c r="K7">
-        <v>458950.2953571428</v>
+        <v>486104</v>
       </c>
       <c r="L7">
-        <v>441667.09375</v>
+        <v>472725.3125</v>
       </c>
       <c r="M7">
-        <v>448657.125</v>
+        <v>436743.3366666667</v>
       </c>
       <c r="N7">
-        <v>460049.0375480318</v>
+        <v>382652.6743682534</v>
       </c>
       <c r="O7">
-        <v>436747.84375</v>
+        <v>416159.6875</v>
       </c>
       <c r="P7">
-        <v>436714.5625</v>
+        <v>419131.4434759198</v>
       </c>
       <c r="Q7">
-        <v>398668.65625</v>
+        <v>623394.1875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3457,46 +3457,46 @@
         <v>531268</v>
       </c>
       <c r="D8">
+        <v>543492.125</v>
+      </c>
+      <c r="E8">
+        <v>531798.3125</v>
+      </c>
+      <c r="F8">
         <v>531619.5625</v>
       </c>
-      <c r="E8">
-        <v>492766.4375</v>
-      </c>
-      <c r="F8">
-        <v>492769.53125</v>
-      </c>
       <c r="G8">
-        <v>481261</v>
+        <v>546902.1875</v>
       </c>
       <c r="H8">
-        <v>424511.90625</v>
+        <v>505675.15625</v>
       </c>
       <c r="I8">
-        <v>448322.40625</v>
+        <v>492767.3125</v>
       </c>
       <c r="J8">
-        <v>424256.4757696001</v>
+        <v>492831.78125</v>
       </c>
       <c r="K8">
-        <v>424447.3159694888</v>
+        <v>527858.5625</v>
       </c>
       <c r="L8">
-        <v>437990.90625</v>
+        <v>481183.09375</v>
       </c>
       <c r="M8">
-        <v>437741.75</v>
+        <v>395141.8739394429</v>
       </c>
       <c r="N8">
-        <v>425482.4966376101</v>
+        <v>392814.3687342065</v>
       </c>
       <c r="O8">
-        <v>435961.75</v>
+        <v>392922.03125</v>
       </c>
       <c r="P8">
-        <v>438798.75</v>
+        <v>403809.3735116462</v>
       </c>
       <c r="Q8">
-        <v>785164.5</v>
+        <v>-950838.6875</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3510,46 +3510,46 @@
         <v>513516</v>
       </c>
       <c r="D9">
+        <v>515828.59375</v>
+      </c>
+      <c r="E9">
+        <v>513545.4375</v>
+      </c>
+      <c r="F9">
         <v>549413.5625</v>
       </c>
-      <c r="E9">
-        <v>492765.3125</v>
-      </c>
-      <c r="F9">
-        <v>492766.5625</v>
-      </c>
       <c r="G9">
-        <v>599849.4375</v>
+        <v>501885.375</v>
       </c>
       <c r="H9">
-        <v>401543.8125</v>
+        <v>512694.53125</v>
       </c>
       <c r="I9">
-        <v>461338.28125</v>
+        <v>492767.1875</v>
       </c>
       <c r="J9">
-        <v>401171.226163694</v>
+        <v>492822.5625</v>
       </c>
       <c r="K9">
-        <v>400637.5290218727</v>
+        <v>500467.75</v>
       </c>
       <c r="L9">
-        <v>446406.03125</v>
+        <v>601069.5</v>
       </c>
       <c r="M9">
-        <v>431629.59375</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N9">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O9">
-        <v>439450.28125</v>
+        <v>370720.28125</v>
       </c>
       <c r="P9">
-        <v>451246.6875</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q9">
-        <v>888488.125</v>
+        <v>4116775</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3563,46 +3563,46 @@
         <v>580416</v>
       </c>
       <c r="D10">
+        <v>573001.75</v>
+      </c>
+      <c r="E10">
+        <v>581847.625</v>
+      </c>
+      <c r="F10">
         <v>556402.8125</v>
       </c>
-      <c r="E10">
-        <v>492768.40625</v>
-      </c>
-      <c r="F10">
-        <v>492765.25</v>
-      </c>
       <c r="G10">
-        <v>653343.125</v>
+        <v>540217.75</v>
       </c>
       <c r="H10">
-        <v>480877.25</v>
+        <v>562272.625</v>
       </c>
       <c r="I10">
-        <v>506862.15625</v>
+        <v>492767.1875</v>
       </c>
       <c r="J10">
-        <v>478573.597666144</v>
+        <v>492824.46875</v>
       </c>
       <c r="K10">
-        <v>479249.5278035713</v>
+        <v>539722.6875</v>
       </c>
       <c r="L10">
-        <v>489494.625</v>
+        <v>655755.875</v>
       </c>
       <c r="M10">
-        <v>504550.5</v>
+        <v>486592.0151071426</v>
       </c>
       <c r="N10">
-        <v>459780.7446815442</v>
+        <v>491887.4008711198</v>
       </c>
       <c r="O10">
-        <v>493383.59375</v>
+        <v>492008.9375</v>
       </c>
       <c r="P10">
-        <v>496260.5</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q10">
-        <v>1058383.625</v>
+        <v>2091953.625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3616,46 +3616,46 @@
         <v>427738</v>
       </c>
       <c r="D11">
+        <v>369165.9375</v>
+      </c>
+      <c r="E11">
+        <v>375277.78125</v>
+      </c>
+      <c r="F11">
         <v>534461.5</v>
       </c>
-      <c r="E11">
-        <v>492771.09375</v>
-      </c>
-      <c r="F11">
-        <v>492768.78125</v>
-      </c>
       <c r="G11">
-        <v>358872.125</v>
+        <v>393002.40625</v>
       </c>
       <c r="H11">
-        <v>401543.8125</v>
+        <v>360228.03125</v>
       </c>
       <c r="I11">
-        <v>346007.96875</v>
+        <v>492767.3125</v>
       </c>
       <c r="J11">
-        <v>401171.226163694</v>
+        <v>492820.1875</v>
       </c>
       <c r="K11">
-        <v>400637.5290218727</v>
+        <v>305186.53125</v>
       </c>
       <c r="L11">
-        <v>339670.21875</v>
+        <v>359670.1875</v>
       </c>
       <c r="M11">
-        <v>330015.3125</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N11">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O11">
-        <v>335129.125</v>
+        <v>370720.28125</v>
       </c>
       <c r="P11">
-        <v>343850.46875</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q11">
-        <v>427358.125</v>
+        <v>1310807.875</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3669,46 +3669,46 @@
         <v>453494</v>
       </c>
       <c r="D12">
+        <v>413143.65625</v>
+      </c>
+      <c r="E12">
+        <v>409860.78125</v>
+      </c>
+      <c r="F12">
         <v>511865.8125</v>
       </c>
-      <c r="E12">
-        <v>492772.375</v>
-      </c>
-      <c r="F12">
-        <v>492771.625</v>
-      </c>
       <c r="G12">
-        <v>351877.875</v>
+        <v>427614.9375</v>
       </c>
       <c r="H12">
-        <v>390895.28125</v>
+        <v>400837.0625</v>
       </c>
       <c r="I12">
-        <v>382641.5</v>
+        <v>492767.5</v>
       </c>
       <c r="J12">
-        <v>391599.1519631221</v>
+        <v>492830.21875</v>
       </c>
       <c r="K12">
-        <v>393069.7811666667</v>
+        <v>416533.5</v>
       </c>
       <c r="L12">
-        <v>382022.9375</v>
+        <v>350123.59375</v>
       </c>
       <c r="M12">
-        <v>383880.0625</v>
+        <v>349305.7540119048</v>
       </c>
       <c r="N12">
-        <v>370949.9916655814</v>
+        <v>369573.6726389903</v>
       </c>
       <c r="O12">
-        <v>383996.875</v>
+        <v>335859.5</v>
       </c>
       <c r="P12">
-        <v>366322.8125</v>
+        <v>330180.4496926841</v>
       </c>
       <c r="Q12">
-        <v>674213.4375</v>
+        <v>-1590165.125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3722,46 +3722,46 @@
         <v>583089</v>
       </c>
       <c r="D13">
+        <v>456113.96875</v>
+      </c>
+      <c r="E13">
+        <v>476680.21875</v>
+      </c>
+      <c r="F13">
         <v>567172.125</v>
       </c>
-      <c r="E13">
-        <v>492776.1875</v>
-      </c>
-      <c r="F13">
-        <v>492771.59375</v>
-      </c>
       <c r="G13">
-        <v>437431.65625</v>
+        <v>414120.5</v>
       </c>
       <c r="H13">
-        <v>480938.40625</v>
+        <v>468222.40625</v>
       </c>
       <c r="I13">
-        <v>466509.5</v>
+        <v>492767.90625</v>
       </c>
       <c r="J13">
-        <v>479527.340064424</v>
+        <v>492830.40625</v>
       </c>
       <c r="K13">
-        <v>478546.0034761905</v>
+        <v>438823.53125</v>
       </c>
       <c r="L13">
-        <v>443153.28125</v>
+        <v>435536.03125</v>
       </c>
       <c r="M13">
-        <v>451062.125</v>
+        <v>402181.3058520923</v>
       </c>
       <c r="N13">
-        <v>460049.0375480318</v>
+        <v>399791.1839940766</v>
       </c>
       <c r="O13">
-        <v>465209.75</v>
+        <v>399750.65625</v>
       </c>
       <c r="P13">
-        <v>459867.96875</v>
+        <v>419131.4434759198</v>
       </c>
       <c r="Q13">
-        <v>700234.5</v>
+        <v>589806.6875</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3775,46 +3775,46 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>373888</v>
+      </c>
+      <c r="E14">
+        <v>401726.59375</v>
+      </c>
+      <c r="F14">
         <v>567809.75</v>
       </c>
-      <c r="E14">
-        <v>492779.09375</v>
-      </c>
-      <c r="F14">
-        <v>492770.625</v>
-      </c>
       <c r="G14">
-        <v>503654.875</v>
+        <v>346614</v>
       </c>
       <c r="H14">
-        <v>401543.8125</v>
+        <v>412898.21875</v>
       </c>
       <c r="I14">
-        <v>410992.28125</v>
+        <v>492768.1875</v>
       </c>
       <c r="J14">
-        <v>401171.226163694</v>
+        <v>492834.59375</v>
       </c>
       <c r="K14">
-        <v>400637.5290218727</v>
+        <v>323074.4375</v>
       </c>
       <c r="L14">
-        <v>402014.8125</v>
+        <v>502022.9375</v>
       </c>
       <c r="M14">
-        <v>419369.625</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N14">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O14">
-        <v>428030.0625</v>
+        <v>370720.28125</v>
       </c>
       <c r="P14">
-        <v>402286.90625</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q14">
-        <v>435952.4375</v>
+        <v>-677707.25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>353532.4375</v>
+      </c>
+      <c r="E15">
+        <v>411648.625</v>
+      </c>
+      <c r="F15">
         <v>587717.375</v>
       </c>
-      <c r="E15">
-        <v>492782.3125</v>
-      </c>
-      <c r="F15">
-        <v>492767.84375</v>
-      </c>
       <c r="G15">
-        <v>395584.03125</v>
+        <v>258265</v>
       </c>
       <c r="H15">
-        <v>284109.25</v>
+        <v>425073.0625</v>
       </c>
       <c r="I15">
-        <v>431255.53125</v>
+        <v>492768.46875</v>
       </c>
       <c r="J15">
-        <v>315949.7457695066</v>
+        <v>492830.71875</v>
       </c>
       <c r="K15">
-        <v>345271.3815357143</v>
+        <v>343681.5</v>
       </c>
       <c r="L15">
-        <v>452339.46875</v>
+        <v>392351.5625</v>
       </c>
       <c r="M15">
-        <v>435321.5625</v>
+        <v>272804.5586655844</v>
       </c>
       <c r="N15">
-        <v>420480.2170570021</v>
+        <v>264472.6258460599</v>
       </c>
       <c r="O15">
-        <v>452238.75</v>
+        <v>263834.8125</v>
       </c>
       <c r="P15">
-        <v>438757.6875</v>
+        <v>387631.0930801181</v>
       </c>
       <c r="Q15">
-        <v>660415.75</v>
+        <v>1588286.875</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3881,46 +3881,46 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>347490.3125</v>
+      </c>
+      <c r="E16">
+        <v>427681.09375</v>
+      </c>
+      <c r="F16">
         <v>591529.625</v>
       </c>
-      <c r="E16">
-        <v>492787.53125</v>
-      </c>
-      <c r="F16">
-        <v>492767.28125</v>
-      </c>
       <c r="G16">
-        <v>382417.03125</v>
+        <v>337282.90625</v>
       </c>
       <c r="H16">
-        <v>449794.15625</v>
+        <v>449707.5</v>
       </c>
       <c r="I16">
-        <v>447527.125</v>
+        <v>492768.53125</v>
       </c>
       <c r="J16">
-        <v>450202.333854918</v>
+        <v>492827.09375</v>
       </c>
       <c r="K16">
-        <v>448835.2607221539</v>
+        <v>402394.21875</v>
       </c>
       <c r="L16">
-        <v>445597.6875</v>
+        <v>386755.4375</v>
       </c>
       <c r="M16">
-        <v>440901.125</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N16">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O16">
-        <v>444722.5625</v>
+        <v>435625.875</v>
       </c>
       <c r="P16">
-        <v>440953.71875</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q16">
-        <v>904544.625</v>
+        <v>-2429651.25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3934,46 +3934,46 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>313968.28125</v>
+      </c>
+      <c r="E17">
+        <v>351480.21875</v>
+      </c>
+      <c r="F17">
         <v>560641.6875</v>
       </c>
-      <c r="E17">
-        <v>492788.71875</v>
-      </c>
-      <c r="F17">
-        <v>492767.15625</v>
-      </c>
       <c r="G17">
-        <v>349693.125</v>
+        <v>281308.34375</v>
       </c>
       <c r="H17">
-        <v>401543.8125</v>
+        <v>368617.15625</v>
       </c>
       <c r="I17">
-        <v>369736.375</v>
+        <v>492768.15625</v>
       </c>
       <c r="J17">
-        <v>401171.226163694</v>
+        <v>492829.4375</v>
       </c>
       <c r="K17">
-        <v>400637.5290218727</v>
+        <v>343054</v>
       </c>
       <c r="L17">
-        <v>374686.625</v>
+        <v>346356.4375</v>
       </c>
       <c r="M17">
-        <v>365546.5625</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N17">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O17">
-        <v>373671.375</v>
+        <v>370720.28125</v>
       </c>
       <c r="P17">
-        <v>380040.25</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q17">
-        <v>644090.625</v>
+        <v>1826999</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3987,46 +3987,46 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>353344.59375</v>
+      </c>
+      <c r="E18">
+        <v>396475.21875</v>
+      </c>
+      <c r="F18">
         <v>548846.3125</v>
       </c>
-      <c r="E18">
-        <v>492786.34375</v>
-      </c>
-      <c r="F18">
-        <v>492769.0625</v>
-      </c>
       <c r="G18">
-        <v>229005.921875</v>
+        <v>294564.6875</v>
       </c>
       <c r="H18">
-        <v>449794.15625</v>
+        <v>419750.6875</v>
       </c>
       <c r="I18">
-        <v>421851.84375</v>
+        <v>492768.25</v>
       </c>
       <c r="J18">
-        <v>450202.333854918</v>
+        <v>492831.34375</v>
       </c>
       <c r="K18">
-        <v>448835.2607221539</v>
+        <v>365493.71875</v>
       </c>
       <c r="L18">
-        <v>425016.71875</v>
+        <v>230824.234375</v>
       </c>
       <c r="M18">
-        <v>423375.40625</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N18">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O18">
-        <v>426181.0625</v>
+        <v>435625.875</v>
       </c>
       <c r="P18">
-        <v>426851.3125</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q18">
-        <v>218533.671875</v>
+        <v>3370743.75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4040,46 +4040,46 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>265855.875</v>
+      </c>
+      <c r="E19">
+        <v>374355.625</v>
+      </c>
+      <c r="F19">
         <v>572977.875</v>
       </c>
-      <c r="E19">
-        <v>492783.9375</v>
-      </c>
-      <c r="F19">
-        <v>492769.8125</v>
-      </c>
       <c r="G19">
-        <v>246834.546875</v>
+        <v>189835.78125</v>
       </c>
       <c r="H19">
-        <v>424511.90625</v>
+        <v>442620.28125</v>
       </c>
       <c r="I19">
-        <v>432750.21875</v>
+        <v>492768.21875</v>
       </c>
       <c r="J19">
-        <v>424256.4757696001</v>
+        <v>492828.84375</v>
       </c>
       <c r="K19">
-        <v>424447.3159694888</v>
+        <v>395115.09375</v>
       </c>
       <c r="L19">
-        <v>434339.375</v>
+        <v>245070.890625</v>
       </c>
       <c r="M19">
-        <v>460541.5625</v>
+        <v>395141.8739394429</v>
       </c>
       <c r="N19">
-        <v>425482.4966376101</v>
+        <v>392814.3687342065</v>
       </c>
       <c r="O19">
-        <v>457510.40625</v>
+        <v>392922.03125</v>
       </c>
       <c r="P19">
-        <v>430082.8125</v>
+        <v>403809.3735116462</v>
       </c>
       <c r="Q19">
-        <v>1273951.25</v>
+        <v>979200.75</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4093,46 +4093,46 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>249882.25</v>
+      </c>
+      <c r="E20">
+        <v>335673.6875</v>
+      </c>
+      <c r="F20">
         <v>608891.9375</v>
       </c>
-      <c r="E20">
-        <v>492785.46875</v>
-      </c>
-      <c r="F20">
-        <v>492765.375</v>
-      </c>
       <c r="G20">
-        <v>318655.3125</v>
+        <v>213129.015625</v>
       </c>
       <c r="H20">
-        <v>401543.8125</v>
+        <v>380330.875</v>
       </c>
       <c r="I20">
-        <v>392829.03125</v>
+        <v>492768.1875</v>
       </c>
       <c r="J20">
-        <v>401171.226163694</v>
+        <v>492828.96875</v>
       </c>
       <c r="K20">
-        <v>400637.5290218727</v>
+        <v>368331.1875</v>
       </c>
       <c r="L20">
-        <v>425057.5625</v>
+        <v>323167.21875</v>
       </c>
       <c r="M20">
-        <v>402220.78125</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N20">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O20">
-        <v>413046.8125</v>
+        <v>370720.28125</v>
       </c>
       <c r="P20">
-        <v>405669.9375</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q20">
-        <v>711526.5</v>
+        <v>1455637.5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>337668.84375</v>
+      </c>
+      <c r="E21">
+        <v>435336.625</v>
+      </c>
+      <c r="F21">
         <v>633439.8125</v>
       </c>
-      <c r="E21">
-        <v>492787.28125</v>
-      </c>
-      <c r="F21">
-        <v>492767</v>
-      </c>
       <c r="G21">
-        <v>269501.3125</v>
+        <v>306830.1875</v>
       </c>
       <c r="H21">
-        <v>449794.15625</v>
+        <v>471182.5</v>
       </c>
       <c r="I21">
-        <v>478104.53125</v>
+        <v>492768.03125</v>
       </c>
       <c r="J21">
-        <v>450202.333854918</v>
+        <v>492827.25</v>
       </c>
       <c r="K21">
-        <v>448835.2607221539</v>
+        <v>477320</v>
       </c>
       <c r="L21">
-        <v>492480.375</v>
+        <v>269272.1875</v>
       </c>
       <c r="M21">
-        <v>472308.3125</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N21">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O21">
-        <v>486635.40625</v>
+        <v>435625.875</v>
       </c>
       <c r="P21">
-        <v>484896.8125</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q21">
-        <v>193854.890625</v>
+        <v>-629432</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4199,46 +4199,46 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>307448.46875</v>
+      </c>
+      <c r="E22">
+        <v>391578.375</v>
+      </c>
+      <c r="F22">
         <v>659208.3125</v>
       </c>
-      <c r="E22">
-        <v>492786.65625</v>
-      </c>
-      <c r="F22">
-        <v>492768.53125</v>
-      </c>
       <c r="G22">
-        <v>454248.65625</v>
+        <v>209688.953125</v>
       </c>
       <c r="H22">
-        <v>424511.90625</v>
+        <v>466231.125</v>
       </c>
       <c r="I22">
-        <v>464016.0625</v>
+        <v>492767.9375</v>
       </c>
       <c r="J22">
-        <v>424256.4757696001</v>
+        <v>492830.96875</v>
       </c>
       <c r="K22">
-        <v>424447.3159694888</v>
+        <v>465409.34375</v>
       </c>
       <c r="L22">
-        <v>468713.65625</v>
+        <v>446973.90625</v>
       </c>
       <c r="M22">
-        <v>476414.15625</v>
+        <v>395141.8739394429</v>
       </c>
       <c r="N22">
-        <v>425482.4966376101</v>
+        <v>392814.3687342065</v>
       </c>
       <c r="O22">
-        <v>464600.8125</v>
+        <v>392922.03125</v>
       </c>
       <c r="P22">
-        <v>482554.625</v>
+        <v>403809.3735116462</v>
       </c>
       <c r="Q22">
-        <v>964677.5</v>
+        <v>1117205.875</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4252,46 +4252,46 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>226884.609375</v>
+      </c>
+      <c r="E23">
+        <v>303425.625</v>
+      </c>
+      <c r="F23">
         <v>616160.1875</v>
       </c>
-      <c r="E23">
-        <v>492785.8125</v>
-      </c>
-      <c r="F23">
-        <v>492769.4375</v>
-      </c>
       <c r="G23">
-        <v>322073.78125</v>
+        <v>185819.71875</v>
       </c>
       <c r="H23">
-        <v>424511.90625</v>
+        <v>373446.5625</v>
       </c>
       <c r="I23">
-        <v>376222.3125</v>
+        <v>492767.78125</v>
       </c>
       <c r="J23">
-        <v>424256.4757696001</v>
+        <v>492828.28125</v>
       </c>
       <c r="K23">
-        <v>424447.3159694888</v>
+        <v>337747.25</v>
       </c>
       <c r="L23">
-        <v>397584.3125</v>
+        <v>324936.5625</v>
       </c>
       <c r="M23">
-        <v>406167.375</v>
+        <v>395141.8739394429</v>
       </c>
       <c r="N23">
-        <v>425482.4966376101</v>
+        <v>392814.3687342065</v>
       </c>
       <c r="O23">
-        <v>386327.96875</v>
+        <v>392922.03125</v>
       </c>
       <c r="P23">
-        <v>389302.6875</v>
+        <v>403809.3735116462</v>
       </c>
       <c r="Q23">
-        <v>1334005.375</v>
+        <v>334016.9375</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4305,46 +4305,46 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>182339.875</v>
+      </c>
+      <c r="E24">
+        <v>290115.21875</v>
+      </c>
+      <c r="F24">
         <v>647682.8125</v>
       </c>
-      <c r="E24">
-        <v>492786.90625</v>
-      </c>
-      <c r="F24">
-        <v>492770.34375</v>
-      </c>
       <c r="G24">
-        <v>436503.84375</v>
+        <v>152021.390625</v>
       </c>
       <c r="H24">
-        <v>401543.8125</v>
+        <v>337781.6875</v>
       </c>
       <c r="I24">
-        <v>371355.3125</v>
+        <v>492767.375</v>
       </c>
       <c r="J24">
-        <v>401171.226163694</v>
+        <v>492827.71875</v>
       </c>
       <c r="K24">
-        <v>400637.5290218727</v>
+        <v>325991.9375</v>
       </c>
       <c r="L24">
-        <v>368664.6875</v>
+        <v>434503.4375</v>
       </c>
       <c r="M24">
-        <v>370291.90625</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N24">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O24">
-        <v>384920.125</v>
+        <v>370720.28125</v>
       </c>
       <c r="P24">
-        <v>382175.65625</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q24">
-        <v>276198.75</v>
+        <v>324630.34375</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>236265.8125</v>
+      </c>
+      <c r="E25">
+        <v>340805.125</v>
+      </c>
+      <c r="F25">
         <v>655487.5625</v>
       </c>
-      <c r="E25">
-        <v>492788.375</v>
-      </c>
-      <c r="F25">
-        <v>492770.40625</v>
-      </c>
       <c r="G25">
-        <v>456898.375</v>
+        <v>187123.203125</v>
       </c>
       <c r="H25">
-        <v>445890.1875</v>
+        <v>398661.96875</v>
       </c>
       <c r="I25">
-        <v>454321.34375</v>
+        <v>492767.28125</v>
       </c>
       <c r="J25">
-        <v>447196.2961641401</v>
+        <v>492834.75</v>
       </c>
       <c r="K25">
-        <v>444411.0679210789</v>
+        <v>372846.25</v>
       </c>
       <c r="L25">
-        <v>474710.78125</v>
+        <v>452780.71875</v>
       </c>
       <c r="M25">
-        <v>480350.6875</v>
+        <v>425441.6499031107</v>
       </c>
       <c r="N25">
-        <v>460049.0375480318</v>
+        <v>423211.9846580314</v>
       </c>
       <c r="O25">
-        <v>484445.46875</v>
+        <v>423298.59375</v>
       </c>
       <c r="P25">
-        <v>465586.28125</v>
+        <v>419131.4434759198</v>
       </c>
       <c r="Q25">
-        <v>724111.4375</v>
+        <v>238654.171875</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4411,46 +4411,46 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>284221.9375</v>
+      </c>
+      <c r="E26">
+        <v>338102.125</v>
+      </c>
+      <c r="F26">
         <v>669360.1875</v>
       </c>
-      <c r="E26">
-        <v>492796</v>
-      </c>
-      <c r="F26">
-        <v>492770.1875</v>
-      </c>
       <c r="G26">
-        <v>466016.75</v>
+        <v>226012.765625</v>
       </c>
       <c r="H26">
-        <v>401543.8125</v>
+        <v>441749.34375</v>
       </c>
       <c r="I26">
-        <v>436710.375</v>
+        <v>492767.65625</v>
       </c>
       <c r="J26">
-        <v>401171.226163694</v>
+        <v>492831.59375</v>
       </c>
       <c r="K26">
-        <v>400637.5290218727</v>
+        <v>429939.625</v>
       </c>
       <c r="L26">
-        <v>440412.4375</v>
+        <v>462360.15625</v>
       </c>
       <c r="M26">
-        <v>451027.09375</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N26">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O26">
-        <v>453881.90625</v>
+        <v>370720.28125</v>
       </c>
       <c r="P26">
-        <v>438168.09375</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q26">
-        <v>1692024.875</v>
+        <v>3429987.25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4464,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <v>368054.15625</v>
+      </c>
+      <c r="E27">
+        <v>448587.75</v>
+      </c>
+      <c r="F27">
         <v>689715.375</v>
       </c>
-      <c r="E27">
-        <v>492805.21875</v>
-      </c>
-      <c r="F27">
-        <v>492770.4375</v>
-      </c>
       <c r="G27">
-        <v>607935.4375</v>
+        <v>313715.96875</v>
       </c>
       <c r="H27">
-        <v>449794.15625</v>
+        <v>455927.59375</v>
       </c>
       <c r="I27">
-        <v>475238.03125</v>
+        <v>492768.15625</v>
       </c>
       <c r="J27">
-        <v>450202.333854918</v>
+        <v>492824.0625</v>
       </c>
       <c r="K27">
-        <v>448835.2607221539</v>
+        <v>442339.0625</v>
       </c>
       <c r="L27">
-        <v>498348.09375</v>
+        <v>599204.9375</v>
       </c>
       <c r="M27">
-        <v>482899.46875</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N27">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O27">
-        <v>492102.6875</v>
+        <v>435625.875</v>
       </c>
       <c r="P27">
-        <v>493267.375</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q27">
-        <v>1345783.875</v>
+        <v>3097945</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>352588.625</v>
+      </c>
+      <c r="E28">
+        <v>394008.9375</v>
+      </c>
+      <c r="F28">
         <v>675465.0625</v>
       </c>
-      <c r="E28">
-        <v>492807.375</v>
-      </c>
-      <c r="F28">
-        <v>492770.6875</v>
-      </c>
       <c r="G28">
-        <v>368291.21875</v>
+        <v>280973.65625</v>
       </c>
       <c r="H28">
-        <v>284109.25</v>
+        <v>469872.1875</v>
       </c>
       <c r="I28">
-        <v>471538.28125</v>
+        <v>492768.46875</v>
       </c>
       <c r="J28">
-        <v>315949.7457695066</v>
+        <v>492833.46875</v>
       </c>
       <c r="K28">
-        <v>345271.3815357143</v>
+        <v>469230.1875</v>
       </c>
       <c r="L28">
-        <v>474844.65625</v>
+        <v>359003.4375</v>
       </c>
       <c r="M28">
-        <v>487456.78125</v>
+        <v>272804.5586655844</v>
       </c>
       <c r="N28">
-        <v>420480.2170570021</v>
+        <v>264472.6258460599</v>
       </c>
       <c r="O28">
-        <v>478350.875</v>
+        <v>263834.8125</v>
       </c>
       <c r="P28">
-        <v>477793.0625</v>
+        <v>387631.0930801181</v>
       </c>
       <c r="Q28">
-        <v>1079514.25</v>
+        <v>843311.875</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4570,46 +4570,46 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>311353.9375</v>
+      </c>
+      <c r="E29">
+        <v>380299.5625</v>
+      </c>
+      <c r="F29">
         <v>665633.25</v>
       </c>
-      <c r="E29">
-        <v>492806.90625</v>
-      </c>
-      <c r="F29">
-        <v>492772.625</v>
-      </c>
       <c r="G29">
-        <v>514326.28125</v>
+        <v>258035.109375</v>
       </c>
       <c r="H29">
-        <v>401543.8125</v>
+        <v>437894.96875</v>
       </c>
       <c r="I29">
-        <v>434978.53125</v>
+        <v>492768.4375</v>
       </c>
       <c r="J29">
-        <v>401171.226163694</v>
+        <v>492827.8125</v>
       </c>
       <c r="K29">
-        <v>400637.5290218727</v>
+        <v>449276.9375</v>
       </c>
       <c r="L29">
-        <v>439909.8125</v>
+        <v>508308.40625</v>
       </c>
       <c r="M29">
-        <v>444236</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N29">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O29">
-        <v>427347.46875</v>
+        <v>370720.28125</v>
       </c>
       <c r="P29">
-        <v>444172.59375</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q29">
-        <v>1442053.25</v>
+        <v>1722694.75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4623,46 +4623,46 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>378729.0625</v>
+      </c>
+      <c r="E30">
+        <v>417342.5</v>
+      </c>
+      <c r="F30">
         <v>672133.5625</v>
       </c>
-      <c r="E30">
-        <v>492807</v>
-      </c>
-      <c r="F30">
-        <v>492771.03125</v>
-      </c>
       <c r="G30">
-        <v>531023.625</v>
+        <v>304784.625</v>
       </c>
       <c r="H30">
-        <v>480938.40625</v>
+        <v>506695.4375</v>
       </c>
       <c r="I30">
-        <v>504784.78125</v>
+        <v>492768.375</v>
       </c>
       <c r="J30">
-        <v>479527.340064424</v>
+        <v>492831.625</v>
       </c>
       <c r="K30">
-        <v>478546.0034761905</v>
+        <v>537328.875</v>
       </c>
       <c r="L30">
-        <v>505671.3125</v>
+        <v>532995.875</v>
       </c>
       <c r="M30">
-        <v>522093.40625</v>
+        <v>402181.3058520923</v>
       </c>
       <c r="N30">
-        <v>460049.0375480318</v>
+        <v>399791.1839940766</v>
       </c>
       <c r="O30">
-        <v>524233.125</v>
+        <v>399750.65625</v>
       </c>
       <c r="P30">
-        <v>508499.6875</v>
+        <v>419131.4434759198</v>
       </c>
       <c r="Q30">
-        <v>407447.09375</v>
+        <v>3024893.5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4676,46 +4676,46 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>229918.078125</v>
+      </c>
+      <c r="E31">
+        <v>240898.234375</v>
+      </c>
+      <c r="F31">
         <v>680005.75</v>
       </c>
-      <c r="E31">
-        <v>492807.4375</v>
-      </c>
-      <c r="F31">
-        <v>492794.28125</v>
-      </c>
       <c r="G31">
-        <v>295813.875</v>
+        <v>202669.328125</v>
       </c>
       <c r="H31">
-        <v>401543.8125</v>
+        <v>373634.09375</v>
       </c>
       <c r="I31">
-        <v>366932.53125</v>
+        <v>492768.5</v>
       </c>
       <c r="J31">
-        <v>401171.226163694</v>
+        <v>492826.71875</v>
       </c>
       <c r="K31">
-        <v>400637.5290218727</v>
+        <v>389312.1875</v>
       </c>
       <c r="L31">
-        <v>372078.8125</v>
+        <v>295813.96875</v>
       </c>
       <c r="M31">
-        <v>393748.34375</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N31">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O31">
-        <v>398310.59375</v>
+        <v>370720.28125</v>
       </c>
       <c r="P31">
-        <v>389683.125</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q31">
-        <v>895980.5</v>
+        <v>5293526</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>362295</v>
+      </c>
+      <c r="E32">
+        <v>359157.09375</v>
+      </c>
+      <c r="F32">
         <v>679015</v>
       </c>
-      <c r="E32">
-        <v>492810.1875</v>
-      </c>
-      <c r="F32">
-        <v>492794.21875</v>
-      </c>
       <c r="G32">
-        <v>435569.46875</v>
+        <v>313519.90625</v>
       </c>
       <c r="H32">
-        <v>453883.90625</v>
+        <v>419581.3125</v>
       </c>
       <c r="I32">
-        <v>442076.03125</v>
+        <v>492768.34375</v>
       </c>
       <c r="J32">
-        <v>455866.0118971279</v>
+        <v>492826.5</v>
       </c>
       <c r="K32">
-        <v>473358.93</v>
+        <v>450745.15625</v>
       </c>
       <c r="L32">
-        <v>452628.75</v>
+        <v>435561.59375</v>
       </c>
       <c r="M32">
-        <v>445205.71875</v>
+        <v>490539.4159880953</v>
       </c>
       <c r="N32">
-        <v>420480.2170570021</v>
+        <v>480832.8889915858</v>
       </c>
       <c r="O32">
-        <v>455097.90625</v>
+        <v>453883.96875</v>
       </c>
       <c r="P32">
-        <v>441374.4375</v>
+        <v>387631.0930801181</v>
       </c>
       <c r="Q32">
-        <v>802753.3125</v>
+        <v>2403462.75</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4782,46 +4782,46 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>455430.125</v>
+      </c>
+      <c r="E33">
+        <v>405718.0625</v>
+      </c>
+      <c r="F33">
         <v>670211.3125</v>
       </c>
-      <c r="E33">
-        <v>492814.3125</v>
-      </c>
-      <c r="F33">
-        <v>492796.375</v>
-      </c>
       <c r="G33">
-        <v>424639.3125</v>
+        <v>395553.78125</v>
       </c>
       <c r="H33">
-        <v>449794.15625</v>
+        <v>512409.65625</v>
       </c>
       <c r="I33">
-        <v>509995.03125</v>
+        <v>492768.09375</v>
       </c>
       <c r="J33">
-        <v>450202.333854918</v>
+        <v>492832.09375</v>
       </c>
       <c r="K33">
-        <v>448835.2607221539</v>
+        <v>567528.625</v>
       </c>
       <c r="L33">
-        <v>523928.1875</v>
+        <v>424639.40625</v>
       </c>
       <c r="M33">
-        <v>522177.9375</v>
+        <v>435658.3737802157</v>
       </c>
       <c r="N33">
-        <v>459780.7446815442</v>
+        <v>435662.9449646322</v>
       </c>
       <c r="O33">
-        <v>520628.53125</v>
+        <v>435625.875</v>
       </c>
       <c r="P33">
-        <v>515787.9375</v>
+        <v>436016.8754885727</v>
       </c>
       <c r="Q33">
-        <v>911507.625</v>
+        <v>-626266</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4835,46 +4835,46 @@
         <v>0</v>
       </c>
       <c r="D34">
+        <v>378300.125</v>
+      </c>
+      <c r="E34">
+        <v>378707</v>
+      </c>
+      <c r="F34">
         <v>700905.625</v>
       </c>
-      <c r="E34">
-        <v>492816.21875</v>
-      </c>
-      <c r="F34">
-        <v>492793.96875</v>
-      </c>
       <c r="G34">
-        <v>357327.65625</v>
+        <v>360486.75</v>
       </c>
       <c r="H34">
-        <v>401543.8125</v>
+        <v>491946.5</v>
       </c>
       <c r="I34">
-        <v>452798.9375</v>
+        <v>492768</v>
       </c>
       <c r="J34">
-        <v>401171.226163694</v>
+        <v>492830.75</v>
       </c>
       <c r="K34">
-        <v>400637.5290218727</v>
+        <v>527482.0625</v>
       </c>
       <c r="L34">
-        <v>463358.59375</v>
+        <v>357321.46875</v>
       </c>
       <c r="M34">
-        <v>476073.125</v>
+        <v>369295.3550693706</v>
       </c>
       <c r="N34">
-        <v>392629.652202474</v>
+        <v>370737.1934590599</v>
       </c>
       <c r="O34">
-        <v>465471.71875</v>
+        <v>370720.28125</v>
       </c>
       <c r="P34">
-        <v>458422.625</v>
+        <v>368187.6633226316</v>
       </c>
       <c r="Q34">
-        <v>804479.8125</v>
+        <v>1700502.875</v>
       </c>
     </row>
   </sheetData>
@@ -4941,106 +4941,106 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>44130216622.88956</v>
+        <v>44124548780.88485</v>
       </c>
       <c r="C3">
-        <v>210071.9320206523</v>
+        <v>210058.441346414</v>
       </c>
       <c r="D3">
-        <v>0.03894004755974357</v>
+        <v>0.03893009704930828</v>
       </c>
       <c r="E3">
-        <v>98779.8046875</v>
+        <v>98758.45052083333</v>
       </c>
       <c r="F3">
-        <v>0.1265491758899379</v>
+        <v>0.1265138339398108</v>
       </c>
       <c r="G3">
-        <v>49609.71875</v>
+        <v>49613.53125</v>
       </c>
       <c r="H3">
-        <v>0.1021128221827546</v>
+        <v>0.1021328329319304</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>44129447070.33366</v>
+        <v>44130328517.41895</v>
       </c>
       <c r="C4">
-        <v>210070.100372075</v>
+        <v>210072.1983448046</v>
       </c>
       <c r="D4">
-        <v>0.03893892364688221</v>
+        <v>0.03894023850222791</v>
       </c>
       <c r="E4">
-        <v>98777.734375</v>
+        <v>98780.20833333333</v>
       </c>
       <c r="F4">
-        <v>0.12654592568411</v>
+        <v>0.1265498712787025</v>
       </c>
       <c r="G4">
-        <v>49612.34375</v>
+        <v>49609.625</v>
       </c>
       <c r="H4">
-        <v>0.1021191120996993</v>
+        <v>0.1021126453093111</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>47965428777.16675</v>
+        <v>47637739826.73063</v>
       </c>
       <c r="C5">
-        <v>219010.1111299813</v>
+        <v>218260.7152621163</v>
       </c>
       <c r="D5">
-        <v>0.05071159152622801</v>
+        <v>0.05003460329366675</v>
       </c>
       <c r="E5">
-        <v>118756.8671875</v>
+        <v>118058.9166666667</v>
       </c>
       <c r="F5">
-        <v>0.1652382091604846</v>
+        <v>0.1641611615493374</v>
       </c>
       <c r="G5">
-        <v>74641.25</v>
+        <v>74139.390625</v>
       </c>
       <c r="H5">
-        <v>0.1446400607130161</v>
+        <v>0.1436897507619638</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>56963022776.9546</v>
+        <v>44861919494.63053</v>
       </c>
       <c r="C6">
-        <v>238669.2748909138</v>
+        <v>211806.3254358343</v>
       </c>
       <c r="D6">
-        <v>0.07363382082022749</v>
+        <v>0.06381346165876368</v>
       </c>
       <c r="E6">
-        <v>156457.1084642065</v>
+        <v>142434.46875</v>
       </c>
       <c r="F6">
-        <v>0.2398680970588025</v>
+        <v>0.2214624384495659</v>
       </c>
       <c r="G6">
-        <v>105724.6654544957</v>
+        <v>92585.65625</v>
       </c>
       <c r="H6">
-        <v>0.2021821346545931</v>
+        <v>0.1807048702175288</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5048,155 +5048,155 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>56253828768.24152</v>
+        <v>59998134291.59683</v>
       </c>
       <c r="C7">
-        <v>237178.8961274622</v>
+        <v>244945.1658873815</v>
       </c>
       <c r="D7">
-        <v>0.07252216030406324</v>
+        <v>0.08330959505878001</v>
       </c>
       <c r="E7">
-        <v>156578.3331354703</v>
+        <v>168323.3351194364</v>
       </c>
       <c r="F7">
-        <v>0.2401961200392563</v>
+        <v>0.2624657500216181</v>
       </c>
       <c r="G7">
-        <v>96648.71274466094</v>
+        <v>119515.6418534185</v>
       </c>
       <c r="H7">
-        <v>0.203168829686169</v>
+        <v>0.2258768207021555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>57565761499.88143</v>
+        <v>62178955490.01421</v>
       </c>
       <c r="C8">
-        <v>239928.6591882709</v>
+        <v>249357.0842988308</v>
       </c>
       <c r="D8">
-        <v>0.07456484638947437</v>
+        <v>0.08782704557385741</v>
       </c>
       <c r="E8">
-        <v>156842.1744791667</v>
+        <v>172855.2435782934</v>
       </c>
       <c r="F8">
-        <v>0.240286897580518</v>
+        <v>0.2704997359082522</v>
       </c>
       <c r="G8">
-        <v>107158.15625</v>
+        <v>115583.1998290598</v>
       </c>
       <c r="H8">
-        <v>0.2140989004572674</v>
+        <v>0.2327362052956294</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>58064156655.3146</v>
+        <v>62696152118.90527</v>
       </c>
       <c r="C9">
-        <v>240965.0527676464</v>
+        <v>250391.9969146484</v>
       </c>
       <c r="D9">
-        <v>0.07597324053657313</v>
+        <v>0.08952290338962383</v>
       </c>
       <c r="E9">
-        <v>158895.6023232281</v>
+        <v>174577.45613222</v>
       </c>
       <c r="F9">
-        <v>0.2440996023578933</v>
+        <v>0.2736569715459705</v>
       </c>
       <c r="G9">
-        <v>107894.10053842</v>
+        <v>124593.1029391698</v>
       </c>
       <c r="H9">
-        <v>0.2132292689004652</v>
+        <v>0.2348497508221325</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>52888813358.93335</v>
+        <v>62762648100.49422</v>
       </c>
       <c r="C10">
-        <v>229975.6799292772</v>
+        <v>250524.7454853397</v>
       </c>
       <c r="D10">
-        <v>0.07600276354164755</v>
+        <v>0.08965815735232756</v>
       </c>
       <c r="E10">
-        <v>161192.5390625</v>
+        <v>174722.3723958333</v>
       </c>
       <c r="F10">
-        <v>0.2533508906002514</v>
+        <v>0.2738993973691796</v>
       </c>
       <c r="G10">
-        <v>103211.1875</v>
+        <v>124887.96875</v>
       </c>
       <c r="H10">
-        <v>0.2108951641508554</v>
+        <v>0.2357739125305794</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>57355554922.89957</v>
+        <v>56132966659.493</v>
       </c>
       <c r="C11">
-        <v>239490.1979683085</v>
+        <v>236923.9680984028</v>
       </c>
       <c r="D11">
-        <v>0.08244759393972949</v>
+        <v>0.09771584376204241</v>
       </c>
       <c r="E11">
-        <v>166734.4479166667</v>
+        <v>175445.7395833333</v>
       </c>
       <c r="F11">
-        <v>0.2628145671731595</v>
+        <v>0.2843739819733677</v>
       </c>
       <c r="G11">
-        <v>109149.8125</v>
+        <v>125608.28125</v>
       </c>
       <c r="H11">
-        <v>0.2372390171723535</v>
+        <v>0.2508516761689598</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>57710614356.81747</v>
+        <v>54675521665.78092</v>
       </c>
       <c r="C12">
-        <v>240230.3360460903</v>
+        <v>233827.974514986</v>
       </c>
       <c r="D12">
-        <v>0.08560128834134412</v>
+        <v>0.09730171765007274</v>
       </c>
       <c r="E12">
-        <v>170441.3463541667</v>
+        <v>178636.1302083333</v>
       </c>
       <c r="F12">
-        <v>0.2704347498299592</v>
+        <v>0.2922269355594369</v>
       </c>
       <c r="G12">
-        <v>122653.875</v>
+        <v>136178.578125</v>
       </c>
       <c r="H12">
-        <v>0.2434545685022913</v>
+        <v>0.2706482502462951</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5204,51 +5204,51 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>61124338806.04541</v>
+        <v>58066957694.64884</v>
       </c>
       <c r="C13">
-        <v>247233.36911923</v>
+        <v>240970.8648252914</v>
       </c>
       <c r="D13">
-        <v>0.0912770981339215</v>
+        <v>0.1056012513011886</v>
       </c>
       <c r="E13">
-        <v>176253.328125</v>
+        <v>182290.4921875</v>
       </c>
       <c r="F13">
-        <v>0.2799494519838731</v>
+        <v>0.2973308048256219</v>
       </c>
       <c r="G13">
-        <v>118043.1875</v>
+        <v>154389.21875</v>
       </c>
       <c r="H13">
-        <v>0.2527309265804469</v>
+        <v>0.3154910838296655</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>63939352986.06836</v>
+        <v>69799217871.79918</v>
       </c>
       <c r="C14">
-        <v>252862.3202180751</v>
+        <v>264195.4160688621</v>
       </c>
       <c r="D14">
-        <v>0.1006065488963073</v>
+        <v>0.1493140697611732</v>
       </c>
       <c r="E14">
-        <v>184808.2395833333</v>
+        <v>216865.6705729167</v>
       </c>
       <c r="F14">
-        <v>0.2966489983488423</v>
+        <v>0.3665253498617516</v>
       </c>
       <c r="G14">
-        <v>130911.90625</v>
+        <v>195531.0234375</v>
       </c>
       <c r="H14">
-        <v>0.2711062759975935</v>
+        <v>0.4009185030820905</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5256,25 +5256,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>318728199408.8942</v>
+        <v>425374483625.7365</v>
       </c>
       <c r="C15">
-        <v>564560.182273683</v>
+        <v>652207.3931087691</v>
       </c>
       <c r="D15">
-        <v>1.030829601568921</v>
+        <v>1.339468206268758</v>
       </c>
       <c r="E15">
-        <v>400374.6422526042</v>
+        <v>559827.9158528646</v>
       </c>
       <c r="F15">
-        <v>0.719127536463284</v>
+        <v>1.013571042792645</v>
       </c>
       <c r="G15">
-        <v>239887.609375</v>
+        <v>509248.125</v>
       </c>
       <c r="H15">
-        <v>0.546993807814112</v>
+        <v>0.9939421939522808</v>
       </c>
     </row>
   </sheetData>
@@ -5304,40 +5304,40 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5357,43 +5357,43 @@
         <v>477399.59375</v>
       </c>
       <c r="E2">
-        <v>470019.09375</v>
+        <v>470044.0625</v>
       </c>
       <c r="F2">
-        <v>470020.25</v>
+        <v>470018.40625</v>
       </c>
       <c r="G2">
-        <v>484225.15625</v>
+        <v>488547.625</v>
       </c>
       <c r="H2">
-        <v>357757.335830064</v>
+        <v>389925.59375</v>
       </c>
       <c r="I2">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J2">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K2">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L2">
-        <v>354752.1875</v>
+        <v>353748.96875</v>
       </c>
       <c r="M2">
-        <v>344757.28125</v>
+        <v>384612.90625</v>
       </c>
       <c r="N2">
-        <v>350772</v>
+        <v>344368.34375</v>
       </c>
       <c r="O2">
-        <v>341878.96875</v>
+        <v>374436.875</v>
       </c>
       <c r="P2">
-        <v>333438.125</v>
+        <v>360135.625</v>
       </c>
       <c r="Q2">
-        <v>246777.09375</v>
+        <v>974668.3125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5410,43 +5410,43 @@
         <v>464952.84375</v>
       </c>
       <c r="E3">
-        <v>470019.25</v>
+        <v>470046</v>
       </c>
       <c r="F3">
-        <v>470023.6875</v>
+        <v>470018.65625</v>
       </c>
       <c r="G3">
-        <v>463763.25</v>
+        <v>464886.625</v>
       </c>
       <c r="H3">
-        <v>428158.6279415655</v>
+        <v>528650.3125</v>
       </c>
       <c r="I3">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J3">
-        <v>424741.75</v>
+        <v>414636.0843299755</v>
       </c>
       <c r="K3">
-        <v>423619.7374826839</v>
+        <v>414363.8368893406</v>
       </c>
       <c r="L3">
-        <v>477808.59375</v>
+        <v>414103.03125</v>
       </c>
       <c r="M3">
-        <v>445247.375</v>
+        <v>500885.625</v>
       </c>
       <c r="N3">
-        <v>449767.03125</v>
+        <v>515982.1875</v>
       </c>
       <c r="O3">
-        <v>430982.625</v>
+        <v>505222.65625</v>
       </c>
       <c r="P3">
-        <v>426650.875</v>
+        <v>494500.8125</v>
       </c>
       <c r="Q3">
-        <v>372676.40625</v>
+        <v>-11827.123046875</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5463,43 +5463,43 @@
         <v>456251.3125</v>
       </c>
       <c r="E4">
-        <v>470019.40625</v>
+        <v>470044.5625</v>
       </c>
       <c r="F4">
-        <v>470023</v>
+        <v>470018.8125</v>
       </c>
       <c r="G4">
-        <v>438027.71875</v>
+        <v>438079.34375</v>
       </c>
       <c r="H4">
-        <v>378551.7541267878</v>
+        <v>401866.5</v>
       </c>
       <c r="I4">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J4">
-        <v>371691.875</v>
+        <v>384780.6469542125</v>
       </c>
       <c r="K4">
-        <v>368806.4203863913</v>
+        <v>389690.2487642443</v>
       </c>
       <c r="L4">
-        <v>397428.75</v>
+        <v>389719.65625</v>
       </c>
       <c r="M4">
-        <v>373185.09375</v>
+        <v>385319.71875</v>
       </c>
       <c r="N4">
-        <v>353388.8125</v>
+        <v>391663.28125</v>
       </c>
       <c r="O4">
-        <v>343912.375</v>
+        <v>410005.53125</v>
       </c>
       <c r="P4">
-        <v>345109.6875</v>
+        <v>343054.875</v>
       </c>
       <c r="Q4">
-        <v>863965.375</v>
+        <v>-112343.7109375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5516,43 +5516,43 @@
         <v>467614.15625</v>
       </c>
       <c r="E5">
-        <v>470019.8125</v>
+        <v>470045.46875</v>
       </c>
       <c r="F5">
-        <v>470020.34375</v>
+        <v>470018.96875</v>
       </c>
       <c r="G5">
-        <v>438170.15625</v>
+        <v>434723.6875</v>
       </c>
       <c r="H5">
-        <v>375986.0975714296</v>
+        <v>379087.90625</v>
       </c>
       <c r="I5">
-        <v>375132.9833303176</v>
+        <v>374331.7505370767</v>
       </c>
       <c r="J5">
-        <v>381003.9375</v>
+        <v>375482.1401363856</v>
       </c>
       <c r="K5">
-        <v>380418.1920217283</v>
+        <v>376671.3927303992</v>
       </c>
       <c r="L5">
-        <v>380951.6875</v>
+        <v>376674.28125</v>
       </c>
       <c r="M5">
-        <v>367627.34375</v>
+        <v>335909.375</v>
       </c>
       <c r="N5">
-        <v>367311.71875</v>
+        <v>336674.90625</v>
       </c>
       <c r="O5">
-        <v>364013.03125</v>
+        <v>358556.46875</v>
       </c>
       <c r="P5">
-        <v>345292.90625</v>
+        <v>264576.9375</v>
       </c>
       <c r="Q5">
-        <v>268612.03125</v>
+        <v>-494945.46875</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5569,43 +5569,43 @@
         <v>467077.6875</v>
       </c>
       <c r="E6">
-        <v>470020.9375</v>
+        <v>470055.625</v>
       </c>
       <c r="F6">
-        <v>470026.21875</v>
+        <v>470019.875</v>
       </c>
       <c r="G6">
-        <v>432626.8125</v>
+        <v>434028.84375</v>
       </c>
       <c r="H6">
-        <v>428158.6279415655</v>
+        <v>459889.4375</v>
       </c>
       <c r="I6">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J6">
-        <v>424741.75</v>
+        <v>414636.0843299755</v>
       </c>
       <c r="K6">
-        <v>423619.7374826839</v>
+        <v>414363.8368893406</v>
       </c>
       <c r="L6">
-        <v>415590.28125</v>
+        <v>414103.03125</v>
       </c>
       <c r="M6">
-        <v>416331.5</v>
+        <v>420420.0625</v>
       </c>
       <c r="N6">
-        <v>434997.5625</v>
+        <v>397777.4375</v>
       </c>
       <c r="O6">
-        <v>402842.1875</v>
+        <v>359746.9375</v>
       </c>
       <c r="P6">
-        <v>392977.84375</v>
+        <v>315399.0625</v>
       </c>
       <c r="Q6">
-        <v>378427.46875</v>
+        <v>-509814.46875</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5622,43 +5622,43 @@
         <v>471226.5625</v>
       </c>
       <c r="E7">
-        <v>470021.53125</v>
+        <v>470060.5625</v>
       </c>
       <c r="F7">
-        <v>470024.0625</v>
+        <v>470020.21875</v>
       </c>
       <c r="G7">
-        <v>380246.8125</v>
+        <v>379571.46875</v>
       </c>
       <c r="H7">
-        <v>417677.0652131757</v>
+        <v>458967.6875</v>
       </c>
       <c r="I7">
-        <v>382723.1093281803</v>
+        <v>358141.8581465815</v>
       </c>
       <c r="J7">
-        <v>420725.65625</v>
+        <v>360139.5160119049</v>
       </c>
       <c r="K7">
-        <v>419337.4896190476</v>
+        <v>349794.404278174</v>
       </c>
       <c r="L7">
-        <v>376323</v>
+        <v>349956.4375</v>
       </c>
       <c r="M7">
-        <v>386985.5</v>
+        <v>429597.25</v>
       </c>
       <c r="N7">
-        <v>398193.59375</v>
+        <v>426377.03125</v>
       </c>
       <c r="O7">
-        <v>388689.65625</v>
+        <v>432039.8125</v>
       </c>
       <c r="P7">
-        <v>395051.8125</v>
+        <v>405373.5</v>
       </c>
       <c r="Q7">
-        <v>505613.9375</v>
+        <v>429018.46875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5675,43 +5675,43 @@
         <v>487753.90625</v>
       </c>
       <c r="E8">
-        <v>470021.8125</v>
+        <v>470062.3125</v>
       </c>
       <c r="F8">
-        <v>470028.25</v>
+        <v>470020.09375</v>
       </c>
       <c r="G8">
-        <v>431977.28125</v>
+        <v>434008.25</v>
       </c>
       <c r="H8">
-        <v>437944.0411494431</v>
+        <v>455193.1875</v>
       </c>
       <c r="I8">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J8">
-        <v>426304.9375</v>
+        <v>436158.45209788</v>
       </c>
       <c r="K8">
-        <v>428804.5853109666</v>
+        <v>424433.3898434864</v>
       </c>
       <c r="L8">
-        <v>440668.625</v>
+        <v>423681.625</v>
       </c>
       <c r="M8">
-        <v>453380.34375</v>
+        <v>457061.4375</v>
       </c>
       <c r="N8">
-        <v>422395.75</v>
+        <v>429256.40625</v>
       </c>
       <c r="O8">
-        <v>427111.3125</v>
+        <v>451005.71875</v>
       </c>
       <c r="P8">
-        <v>434925.625</v>
+        <v>427067.375</v>
       </c>
       <c r="Q8">
-        <v>503999.4375</v>
+        <v>160567.40625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5728,43 +5728,43 @@
         <v>503820.96875</v>
       </c>
       <c r="E9">
-        <v>470021.75</v>
+        <v>470068.28125</v>
       </c>
       <c r="F9">
-        <v>470025.21875</v>
+        <v>470020.5625</v>
       </c>
       <c r="G9">
-        <v>531908.3125</v>
+        <v>531971.875</v>
       </c>
       <c r="H9">
-        <v>369161.1455581456</v>
+        <v>414191</v>
       </c>
       <c r="I9">
-        <v>391384.8617704218</v>
+        <v>368994.1020097504</v>
       </c>
       <c r="J9">
-        <v>366046.34375</v>
+        <v>361357.5904286747</v>
       </c>
       <c r="K9">
-        <v>365729.400665941</v>
+        <v>361522.1524139444</v>
       </c>
       <c r="L9">
-        <v>385723.8125</v>
+        <v>361399.46875</v>
       </c>
       <c r="M9">
-        <v>360697.96875</v>
+        <v>364451.1875</v>
       </c>
       <c r="N9">
-        <v>364456.0625</v>
+        <v>324625.125</v>
       </c>
       <c r="O9">
-        <v>369568.09375</v>
+        <v>316844.34375</v>
       </c>
       <c r="P9">
-        <v>349989.375</v>
+        <v>271211.875</v>
       </c>
       <c r="Q9">
-        <v>2006279.375</v>
+        <v>1053048.75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5781,43 +5781,43 @@
         <v>500971.78125</v>
       </c>
       <c r="E10">
-        <v>470021.90625</v>
+        <v>470066.6875</v>
       </c>
       <c r="F10">
-        <v>470022.84375</v>
+        <v>470021.46875</v>
       </c>
       <c r="G10">
-        <v>509805.375</v>
+        <v>510370.96875</v>
       </c>
       <c r="H10">
-        <v>366947.1779490522</v>
+        <v>397198.09375</v>
       </c>
       <c r="I10">
-        <v>382723.1093281803</v>
+        <v>358141.8581465815</v>
       </c>
       <c r="J10">
-        <v>370394.9375</v>
+        <v>352251.9430967088</v>
       </c>
       <c r="K10">
-        <v>370045.0614404761</v>
+        <v>352563.2208512474</v>
       </c>
       <c r="L10">
-        <v>381082.78125</v>
+        <v>352310.3125</v>
       </c>
       <c r="M10">
-        <v>373601</v>
+        <v>372101.625</v>
       </c>
       <c r="N10">
-        <v>358453.53125</v>
+        <v>359746.09375</v>
       </c>
       <c r="O10">
-        <v>365650.90625</v>
+        <v>327601.125</v>
       </c>
       <c r="P10">
-        <v>360867.28125</v>
+        <v>313055.75</v>
       </c>
       <c r="Q10">
-        <v>1150043.75</v>
+        <v>921136.6875</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5834,43 +5834,43 @@
         <v>500781.65625</v>
       </c>
       <c r="E11">
-        <v>470022.15625</v>
+        <v>470073.53125</v>
       </c>
       <c r="F11">
-        <v>470023.0625</v>
+        <v>470022.34375</v>
       </c>
       <c r="G11">
-        <v>437448.78125</v>
+        <v>438400.875</v>
       </c>
       <c r="H11">
-        <v>428158.6279415655</v>
+        <v>363237.9375</v>
       </c>
       <c r="I11">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J11">
-        <v>424741.75</v>
+        <v>414636.0843299755</v>
       </c>
       <c r="K11">
-        <v>423619.7374826839</v>
+        <v>414363.8368893406</v>
       </c>
       <c r="L11">
-        <v>411522.5625</v>
+        <v>414103.03125</v>
       </c>
       <c r="M11">
-        <v>434030.625</v>
+        <v>295751.75</v>
       </c>
       <c r="N11">
-        <v>405691.71875</v>
+        <v>367653.90625</v>
       </c>
       <c r="O11">
-        <v>423336.78125</v>
+        <v>303464.125</v>
       </c>
       <c r="P11">
-        <v>395523.6875</v>
+        <v>309626.875</v>
       </c>
       <c r="Q11">
-        <v>56070.48046875</v>
+        <v>409910.9375</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5887,43 +5887,43 @@
         <v>505067.75</v>
       </c>
       <c r="E12">
-        <v>470022.09375</v>
+        <v>470079.15625</v>
       </c>
       <c r="F12">
-        <v>470027.1875</v>
+        <v>470022.4375</v>
       </c>
       <c r="G12">
-        <v>429224.25</v>
+        <v>436512.65625</v>
       </c>
       <c r="H12">
-        <v>460128.8613766627</v>
+        <v>420852.28125</v>
       </c>
       <c r="I12">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J12">
-        <v>478173.96875</v>
+        <v>389810.5164877345</v>
       </c>
       <c r="K12">
-        <v>462466.6307619048</v>
+        <v>383774.6935354639</v>
       </c>
       <c r="L12">
-        <v>387732.59375</v>
+        <v>383654.71875</v>
       </c>
       <c r="M12">
-        <v>408882.21875</v>
+        <v>365320.375</v>
       </c>
       <c r="N12">
-        <v>417695.25</v>
+        <v>365535.78125</v>
       </c>
       <c r="O12">
-        <v>395711.8125</v>
+        <v>383609.0625</v>
       </c>
       <c r="P12">
-        <v>382833.40625</v>
+        <v>343510.25</v>
       </c>
       <c r="Q12">
-        <v>658969.875</v>
+        <v>188436.21875</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5940,43 +5940,43 @@
         <v>499237.5</v>
       </c>
       <c r="E13">
+        <v>470080.59375</v>
+      </c>
+      <c r="F13">
         <v>470021.59375</v>
       </c>
-      <c r="F13">
-        <v>470027.75</v>
-      </c>
       <c r="G13">
-        <v>411436.75</v>
+        <v>415909.96875</v>
       </c>
       <c r="H13">
-        <v>357757.335830064</v>
+        <v>305598.4375</v>
       </c>
       <c r="I13">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J13">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K13">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L13">
-        <v>339976.65625</v>
+        <v>353748.96875</v>
       </c>
       <c r="M13">
-        <v>318332.375</v>
+        <v>267091.8125</v>
       </c>
       <c r="N13">
-        <v>315452.8125</v>
+        <v>280577.9375</v>
       </c>
       <c r="O13">
-        <v>315134.3125</v>
+        <v>273853.4375</v>
       </c>
       <c r="P13">
-        <v>303512.5</v>
+        <v>233971.015625</v>
       </c>
       <c r="Q13">
-        <v>707790.3125</v>
+        <v>-67053.5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5993,43 +5993,43 @@
         <v>524770.375</v>
       </c>
       <c r="E14">
-        <v>470021.09375</v>
+        <v>470087.5625</v>
       </c>
       <c r="F14">
-        <v>470026.0625</v>
+        <v>470021.1875</v>
       </c>
       <c r="G14">
-        <v>409083.59375</v>
+        <v>409905.5</v>
       </c>
       <c r="H14">
-        <v>422733.0818700566</v>
+        <v>313330.53125</v>
       </c>
       <c r="I14">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J14">
-        <v>424475.5</v>
+        <v>432594.5690497892</v>
       </c>
       <c r="K14">
-        <v>421581.0613427125</v>
+        <v>431348.1154904973</v>
       </c>
       <c r="L14">
-        <v>393157.5625</v>
+        <v>431606.4375</v>
       </c>
       <c r="M14">
-        <v>369161.875</v>
+        <v>246712.640625</v>
       </c>
       <c r="N14">
-        <v>358953.71875</v>
+        <v>318698.59375</v>
       </c>
       <c r="O14">
-        <v>386641.6875</v>
+        <v>269710.09375</v>
       </c>
       <c r="P14">
-        <v>368241.84375</v>
+        <v>294892.625</v>
       </c>
       <c r="Q14">
-        <v>1005523.375</v>
+        <v>138520.90625</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6046,43 +6046,43 @@
         <v>532324.875</v>
       </c>
       <c r="E15">
-        <v>470020.71875</v>
+        <v>470092.9375</v>
       </c>
       <c r="F15">
-        <v>470027.78125</v>
+        <v>470020.875</v>
       </c>
       <c r="G15">
-        <v>374586.59375</v>
+        <v>373806.25</v>
       </c>
       <c r="H15">
-        <v>436186.8237614794</v>
+        <v>394376.40625</v>
       </c>
       <c r="I15">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J15">
-        <v>419567.59375</v>
+        <v>421261.0763084196</v>
       </c>
       <c r="K15">
-        <v>430667.8786681095</v>
+        <v>405944.9031082852</v>
       </c>
       <c r="L15">
-        <v>411482.3125</v>
+        <v>413358.34375</v>
       </c>
       <c r="M15">
-        <v>409555.71875</v>
+        <v>303091.90625</v>
       </c>
       <c r="N15">
-        <v>410194.5625</v>
+        <v>363320.1875</v>
       </c>
       <c r="O15">
-        <v>399473.09375</v>
+        <v>349731.0625</v>
       </c>
       <c r="P15">
-        <v>391491.625</v>
+        <v>358102.625</v>
       </c>
       <c r="Q15">
-        <v>672978.125</v>
+        <v>-1018047.625</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6099,43 +6099,43 @@
         <v>525195.25</v>
       </c>
       <c r="E16">
-        <v>470020.1875</v>
+        <v>470091.03125</v>
       </c>
       <c r="F16">
-        <v>470028.34375</v>
+        <v>470020.4375</v>
       </c>
       <c r="G16">
-        <v>392776.03125</v>
+        <v>393538.625</v>
       </c>
       <c r="H16">
-        <v>366947.1779490522</v>
+        <v>307006.15625</v>
       </c>
       <c r="I16">
-        <v>382723.1093281803</v>
+        <v>358141.8581465815</v>
       </c>
       <c r="J16">
-        <v>370394.9375</v>
+        <v>352251.9430967088</v>
       </c>
       <c r="K16">
-        <v>370045.0614404761</v>
+        <v>352563.2208512474</v>
       </c>
       <c r="L16">
-        <v>363552.96875</v>
+        <v>352310.3125</v>
       </c>
       <c r="M16">
-        <v>334161.28125</v>
+        <v>334431.34375</v>
       </c>
       <c r="N16">
-        <v>327101.28125</v>
+        <v>322129.53125</v>
       </c>
       <c r="O16">
-        <v>338530.15625</v>
+        <v>327400.03125</v>
       </c>
       <c r="P16">
-        <v>341791.9375</v>
+        <v>360534.15625</v>
       </c>
       <c r="Q16">
-        <v>1160284.625</v>
+        <v>-854730.875</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6152,43 +6152,43 @@
         <v>537460.1875</v>
       </c>
       <c r="E17">
-        <v>470020.25</v>
+        <v>470096.40625</v>
       </c>
       <c r="F17">
-        <v>470023.25</v>
+        <v>470020.4375</v>
       </c>
       <c r="G17">
-        <v>407528.3125</v>
+        <v>407105.375</v>
       </c>
       <c r="H17">
-        <v>473755.5696466167</v>
+        <v>373373.3125</v>
       </c>
       <c r="I17">
-        <v>391384.8617704218</v>
+        <v>368994.1020097504</v>
       </c>
       <c r="J17">
-        <v>481375.53125</v>
+        <v>412837.3133672247</v>
       </c>
       <c r="K17">
-        <v>472667.4995411256</v>
+        <v>410348.1698380483</v>
       </c>
       <c r="L17">
-        <v>405423.6875</v>
+        <v>410946.28125</v>
       </c>
       <c r="M17">
-        <v>387334.46875</v>
+        <v>337654.78125</v>
       </c>
       <c r="N17">
-        <v>399760.9375</v>
+        <v>362932.03125</v>
       </c>
       <c r="O17">
-        <v>397880.40625</v>
+        <v>338024.34375</v>
       </c>
       <c r="P17">
-        <v>396541.3125</v>
+        <v>375574.125</v>
       </c>
       <c r="Q17">
-        <v>1792456.5</v>
+        <v>559128.375</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6205,43 +6205,43 @@
         <v>547009.8125</v>
       </c>
       <c r="E18">
-        <v>470020.6875</v>
+        <v>470104.84375</v>
       </c>
       <c r="F18">
-        <v>470025.1875</v>
+        <v>470020.90625</v>
       </c>
       <c r="G18">
-        <v>366804.5</v>
+        <v>357162.875</v>
       </c>
       <c r="H18">
-        <v>378551.7541267878</v>
+        <v>332567.90625</v>
       </c>
       <c r="I18">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J18">
-        <v>371691.875</v>
+        <v>384780.6469542125</v>
       </c>
       <c r="K18">
-        <v>368806.4203863913</v>
+        <v>389690.2487642443</v>
       </c>
       <c r="L18">
-        <v>402252.5</v>
+        <v>389719.65625</v>
       </c>
       <c r="M18">
-        <v>360252.28125</v>
+        <v>339753.125</v>
       </c>
       <c r="N18">
-        <v>357577.125</v>
+        <v>348232.21875</v>
       </c>
       <c r="O18">
-        <v>383506.8125</v>
+        <v>309334.75</v>
       </c>
       <c r="P18">
-        <v>380779.59375</v>
+        <v>331803.28125</v>
       </c>
       <c r="Q18">
-        <v>757105.75</v>
+        <v>1059337.625</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6258,43 +6258,43 @@
         <v>544275</v>
       </c>
       <c r="E19">
-        <v>470021.09375</v>
+        <v>470106.84375</v>
       </c>
       <c r="F19">
-        <v>470025.5</v>
+        <v>470021.28125</v>
       </c>
       <c r="G19">
-        <v>354177.5</v>
+        <v>356558.40625</v>
       </c>
       <c r="H19">
-        <v>461943.2381973249</v>
+        <v>418822.71875</v>
       </c>
       <c r="I19">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J19">
-        <v>462242.75</v>
+        <v>431537.1256666666</v>
       </c>
       <c r="K19">
-        <v>456316.4620000001</v>
+        <v>415142.1579777517</v>
       </c>
       <c r="L19">
-        <v>450358.3125</v>
+        <v>444300.375</v>
       </c>
       <c r="M19">
-        <v>444856.3125</v>
+        <v>354613.09375</v>
       </c>
       <c r="N19">
-        <v>449102.375</v>
+        <v>411589.125</v>
       </c>
       <c r="O19">
-        <v>451910.4375</v>
+        <v>394210.90625</v>
       </c>
       <c r="P19">
-        <v>462318.8125</v>
+        <v>417435.71875</v>
       </c>
       <c r="Q19">
-        <v>-77702.453125</v>
+        <v>-296214.46875</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6311,43 +6311,43 @@
         <v>553493.125</v>
       </c>
       <c r="E20">
-        <v>470021.0625</v>
+        <v>470113.84375</v>
       </c>
       <c r="F20">
-        <v>470024.21875</v>
+        <v>470020.90625</v>
       </c>
       <c r="G20">
-        <v>390346.21875</v>
+        <v>393169.9375</v>
       </c>
       <c r="H20">
-        <v>452538.2463102433</v>
+        <v>349560.8125</v>
       </c>
       <c r="I20">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J20">
-        <v>454769.15625</v>
+        <v>455582.2298928571</v>
       </c>
       <c r="K20">
-        <v>455344.6915595237</v>
+        <v>454734.434330335</v>
       </c>
       <c r="L20">
-        <v>449033.3125</v>
+        <v>454769.1875</v>
       </c>
       <c r="M20">
-        <v>444429.09375</v>
+        <v>356751.21875</v>
       </c>
       <c r="N20">
-        <v>425125.84375</v>
+        <v>407934.90625</v>
       </c>
       <c r="O20">
-        <v>445276.375</v>
+        <v>395303.53125</v>
       </c>
       <c r="P20">
-        <v>447545.90625</v>
+        <v>398211.28125</v>
       </c>
       <c r="Q20">
-        <v>580482.8125</v>
+        <v>426766.25</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6364,43 +6364,43 @@
         <v>555211.25</v>
       </c>
       <c r="E21">
-        <v>470021.25</v>
+        <v>470118.375</v>
       </c>
       <c r="F21">
-        <v>470026.03125</v>
+        <v>470020.40625</v>
       </c>
       <c r="G21">
-        <v>300990.21875</v>
+        <v>303038.5</v>
       </c>
       <c r="H21">
-        <v>357757.335830064</v>
+        <v>315561.9375</v>
       </c>
       <c r="I21">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J21">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K21">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L21">
-        <v>380333.65625</v>
+        <v>353748.96875</v>
       </c>
       <c r="M21">
-        <v>359370.8125</v>
+        <v>327870.25</v>
       </c>
       <c r="N21">
-        <v>340812.8125</v>
+        <v>358229.15625</v>
       </c>
       <c r="O21">
-        <v>351998.34375</v>
+        <v>344530.625</v>
       </c>
       <c r="P21">
-        <v>380048.5625</v>
+        <v>347977.59375</v>
       </c>
       <c r="Q21">
-        <v>2219939.25</v>
+        <v>1739709.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6417,43 +6417,43 @@
         <v>559924.6875</v>
       </c>
       <c r="E22">
-        <v>470021.75</v>
+        <v>470126.875</v>
       </c>
       <c r="F22">
-        <v>470026.9375</v>
+        <v>470020.3125</v>
       </c>
       <c r="G22">
-        <v>451983.90625</v>
+        <v>453341.9375</v>
       </c>
       <c r="H22">
-        <v>422733.0818700566</v>
+        <v>382229.875</v>
       </c>
       <c r="I22">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J22">
-        <v>424475.5</v>
+        <v>432594.5690497892</v>
       </c>
       <c r="K22">
-        <v>421581.0613427125</v>
+        <v>431348.1154904973</v>
       </c>
       <c r="L22">
-        <v>423419.9375</v>
+        <v>431606.4375</v>
       </c>
       <c r="M22">
-        <v>414940.375</v>
+        <v>379526.21875</v>
       </c>
       <c r="N22">
-        <v>415032.90625</v>
+        <v>389725.28125</v>
       </c>
       <c r="O22">
-        <v>410865.15625</v>
+        <v>407667.28125</v>
       </c>
       <c r="P22">
-        <v>417918.5</v>
+        <v>395193.3125</v>
       </c>
       <c r="Q22">
-        <v>-836511.5625</v>
+        <v>-1314107.125</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6470,43 +6470,43 @@
         <v>576997.9375</v>
       </c>
       <c r="E23">
-        <v>470022.34375</v>
+        <v>470133.21875</v>
       </c>
       <c r="F23">
-        <v>470025.5</v>
+        <v>470020.15625</v>
       </c>
       <c r="G23">
-        <v>410686.90625</v>
+        <v>399716.78125</v>
       </c>
       <c r="H23">
-        <v>442813.7533593244</v>
+        <v>421444</v>
       </c>
       <c r="I23">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J23">
-        <v>441280.09375</v>
+        <v>426036.0519166667</v>
       </c>
       <c r="K23">
-        <v>444484.6515</v>
+        <v>441151.9053079953</v>
       </c>
       <c r="L23">
-        <v>480626.125</v>
+        <v>441279.90625</v>
       </c>
       <c r="M23">
-        <v>503437.28125</v>
+        <v>443711.1875</v>
       </c>
       <c r="N23">
-        <v>483024.0625</v>
+        <v>428529.75</v>
       </c>
       <c r="O23">
-        <v>521585.5</v>
+        <v>456537.3125</v>
       </c>
       <c r="P23">
-        <v>511353.0625</v>
+        <v>456496.84375</v>
       </c>
       <c r="Q23">
-        <v>1436494.125</v>
+        <v>-1186442.625</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6523,43 +6523,43 @@
         <v>590313.1875</v>
       </c>
       <c r="E24">
-        <v>470022.46875</v>
+        <v>470136.5625</v>
       </c>
       <c r="F24">
-        <v>470026.75</v>
+        <v>470020</v>
       </c>
       <c r="G24">
-        <v>420187.59375</v>
+        <v>420482.34375</v>
       </c>
       <c r="H24">
-        <v>357757.335830064</v>
+        <v>311679.3125</v>
       </c>
       <c r="I24">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J24">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K24">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L24">
-        <v>355670.1875</v>
+        <v>353748.96875</v>
       </c>
       <c r="M24">
-        <v>334623.5625</v>
+        <v>333665.4375</v>
       </c>
       <c r="N24">
-        <v>336252.65625</v>
+        <v>329854.84375</v>
       </c>
       <c r="O24">
-        <v>336425.03125</v>
+        <v>305021.8125</v>
       </c>
       <c r="P24">
-        <v>365130.9375</v>
+        <v>310014.1875</v>
       </c>
       <c r="Q24">
-        <v>1434763.75</v>
+        <v>3318414.25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6576,43 +6576,43 @@
         <v>593313.3125</v>
       </c>
       <c r="E25">
-        <v>470022.0625</v>
+        <v>470146.875</v>
       </c>
       <c r="F25">
-        <v>470028.09375</v>
+        <v>470019.625</v>
       </c>
       <c r="G25">
-        <v>519262.9375</v>
+        <v>519754.96875</v>
       </c>
       <c r="H25">
-        <v>378551.7541267878</v>
+        <v>319935.0625</v>
       </c>
       <c r="I25">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J25">
-        <v>371691.875</v>
+        <v>384780.6469542125</v>
       </c>
       <c r="K25">
-        <v>368806.4203863913</v>
+        <v>389690.2487642443</v>
       </c>
       <c r="L25">
-        <v>391069.375</v>
+        <v>389719.65625</v>
       </c>
       <c r="M25">
-        <v>360392.84375</v>
+        <v>373040.8125</v>
       </c>
       <c r="N25">
-        <v>368252.5</v>
+        <v>358200.9375</v>
       </c>
       <c r="O25">
-        <v>356293.40625</v>
+        <v>335969.40625</v>
       </c>
       <c r="P25">
-        <v>372852.46875</v>
+        <v>356801.78125</v>
       </c>
       <c r="Q25">
-        <v>1066647.125</v>
+        <v>2842759.5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6629,43 +6629,43 @@
         <v>594020.3125</v>
       </c>
       <c r="E26">
-        <v>470021.90625</v>
+        <v>470193.8125</v>
       </c>
       <c r="F26">
-        <v>470026.71875</v>
+        <v>470019.90625</v>
       </c>
       <c r="G26">
-        <v>438492.28125</v>
+        <v>438297.21875</v>
       </c>
       <c r="H26">
-        <v>369161.1455581456</v>
+        <v>398618.875</v>
       </c>
       <c r="I26">
-        <v>391384.8617704218</v>
+        <v>368994.1020097504</v>
       </c>
       <c r="J26">
-        <v>366046.34375</v>
+        <v>361357.5904286747</v>
       </c>
       <c r="K26">
-        <v>365729.400665941</v>
+        <v>361522.1524139444</v>
       </c>
       <c r="L26">
-        <v>434551.5625</v>
+        <v>361399.46875</v>
       </c>
       <c r="M26">
-        <v>435948.8125</v>
+        <v>412614.125</v>
       </c>
       <c r="N26">
-        <v>443985.09375</v>
+        <v>388655.0625</v>
       </c>
       <c r="O26">
-        <v>428093.84375</v>
+        <v>424879.65625</v>
       </c>
       <c r="P26">
-        <v>449588.5625</v>
+        <v>426975.96875</v>
       </c>
       <c r="Q26">
-        <v>841202</v>
+        <v>3674226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6682,43 +6682,43 @@
         <v>609099.0625</v>
       </c>
       <c r="E27">
-        <v>470021.75</v>
+        <v>470201.25</v>
       </c>
       <c r="F27">
-        <v>470025</v>
+        <v>470020.375</v>
       </c>
       <c r="G27">
-        <v>580161.8125</v>
+        <v>575085</v>
       </c>
       <c r="H27">
-        <v>408230.0849095397</v>
+        <v>382239.3125</v>
       </c>
       <c r="I27">
-        <v>412045.6787117523</v>
+        <v>397493.1005524935</v>
       </c>
       <c r="J27">
-        <v>369487.78125</v>
+        <v>376751.8645613276</v>
       </c>
       <c r="K27">
-        <v>386154.9185869686</v>
+        <v>366647.4083497195</v>
       </c>
       <c r="L27">
-        <v>396681.8125</v>
+        <v>408018.3125</v>
       </c>
       <c r="M27">
-        <v>405216.75</v>
+        <v>374604.40625</v>
       </c>
       <c r="N27">
-        <v>416625.21875</v>
+        <v>395240.4375</v>
       </c>
       <c r="O27">
-        <v>420164.65625</v>
+        <v>395013.8125</v>
       </c>
       <c r="P27">
-        <v>409611.8125</v>
+        <v>397811.5625</v>
       </c>
       <c r="Q27">
-        <v>2181454.5</v>
+        <v>3213451.25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6735,43 +6735,43 @@
         <v>618635.125</v>
       </c>
       <c r="E28">
-        <v>470021.625</v>
+        <v>470208.34375</v>
       </c>
       <c r="F28">
-        <v>470026.5625</v>
+        <v>470020.125</v>
       </c>
       <c r="G28">
-        <v>431684.5625</v>
+        <v>433104.59375</v>
       </c>
       <c r="H28">
-        <v>375986.0975714296</v>
+        <v>335068.875</v>
       </c>
       <c r="I28">
-        <v>375132.9833303176</v>
+        <v>374331.7505370767</v>
       </c>
       <c r="J28">
-        <v>381003.9375</v>
+        <v>375482.1401363856</v>
       </c>
       <c r="K28">
-        <v>380418.1920217283</v>
+        <v>376671.3927303992</v>
       </c>
       <c r="L28">
-        <v>362949.28125</v>
+        <v>376674.28125</v>
       </c>
       <c r="M28">
-        <v>385850.125</v>
+        <v>346934.1875</v>
       </c>
       <c r="N28">
-        <v>379030.15625</v>
+        <v>373484.4375</v>
       </c>
       <c r="O28">
-        <v>376840.3125</v>
+        <v>357324.84375</v>
       </c>
       <c r="P28">
-        <v>377621.375</v>
+        <v>365605.5</v>
       </c>
       <c r="Q28">
-        <v>166318.859375</v>
+        <v>2731015.5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6788,43 +6788,43 @@
         <v>607444.125</v>
       </c>
       <c r="E29">
-        <v>470021.46875</v>
+        <v>470214.09375</v>
       </c>
       <c r="F29">
-        <v>470024.75</v>
+        <v>470019.9375</v>
       </c>
       <c r="G29">
-        <v>469235.21875</v>
+        <v>469233.0625</v>
       </c>
       <c r="H29">
-        <v>473755.5696466167</v>
+        <v>378548.9375</v>
       </c>
       <c r="I29">
-        <v>391384.8617704218</v>
+        <v>368994.1020097504</v>
       </c>
       <c r="J29">
-        <v>481375.53125</v>
+        <v>412837.3133672247</v>
       </c>
       <c r="K29">
-        <v>472667.4995411256</v>
+        <v>410348.1698380483</v>
       </c>
       <c r="L29">
-        <v>434816.1875</v>
+        <v>410946.28125</v>
       </c>
       <c r="M29">
-        <v>445737.40625</v>
+        <v>426739.3125</v>
       </c>
       <c r="N29">
-        <v>465625.21875</v>
+        <v>381056.5</v>
       </c>
       <c r="O29">
-        <v>472980.53125</v>
+        <v>402669.34375</v>
       </c>
       <c r="P29">
-        <v>469341.625</v>
+        <v>441946</v>
       </c>
       <c r="Q29">
-        <v>219854.59375</v>
+        <v>3321070.25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6841,43 +6841,43 @@
         <v>622109.0625</v>
       </c>
       <c r="E30">
-        <v>470021.40625</v>
+        <v>470224.375</v>
       </c>
       <c r="F30">
-        <v>470025.46875</v>
+        <v>470020.125</v>
       </c>
       <c r="G30">
-        <v>492073.6875</v>
+        <v>491782.1875</v>
       </c>
       <c r="H30">
-        <v>357757.335830064</v>
+        <v>368494.53125</v>
       </c>
       <c r="I30">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J30">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K30">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L30">
-        <v>376166.0625</v>
+        <v>353748.96875</v>
       </c>
       <c r="M30">
-        <v>394805.15625</v>
+        <v>385935.09375</v>
       </c>
       <c r="N30">
-        <v>377041.84375</v>
+        <v>365270.25</v>
       </c>
       <c r="O30">
-        <v>394653.59375</v>
+        <v>379156.21875</v>
       </c>
       <c r="P30">
-        <v>390460.59375</v>
+        <v>414588.65625</v>
       </c>
       <c r="Q30">
-        <v>1036207.25</v>
+        <v>7258927</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6894,43 +6894,43 @@
         <v>628017.8125</v>
       </c>
       <c r="E31">
-        <v>470021.4375</v>
+        <v>470230.875</v>
       </c>
       <c r="F31">
-        <v>470026.25</v>
+        <v>470020.4375</v>
       </c>
       <c r="G31">
-        <v>439789.9375</v>
+        <v>441446.78125</v>
       </c>
       <c r="H31">
-        <v>369161.1455581456</v>
+        <v>395973.90625</v>
       </c>
       <c r="I31">
-        <v>391384.8617704218</v>
+        <v>368994.1020097504</v>
       </c>
       <c r="J31">
-        <v>366046.34375</v>
+        <v>361357.5904286747</v>
       </c>
       <c r="K31">
-        <v>365729.400665941</v>
+        <v>361522.1524139444</v>
       </c>
       <c r="L31">
-        <v>447387.03125</v>
+        <v>361399.46875</v>
       </c>
       <c r="M31">
-        <v>450824.09375</v>
+        <v>449528.84375</v>
       </c>
       <c r="N31">
-        <v>432788.40625</v>
+        <v>429469.59375</v>
       </c>
       <c r="O31">
-        <v>432554</v>
+        <v>444250.875</v>
       </c>
       <c r="P31">
-        <v>436074.3125</v>
+        <v>483472.9375</v>
       </c>
       <c r="Q31">
-        <v>554329.875</v>
+        <v>7836206</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6947,43 +6947,43 @@
         <v>626800.5</v>
       </c>
       <c r="E32">
-        <v>470021.3125</v>
+        <v>470236.09375</v>
       </c>
       <c r="F32">
-        <v>470025.78125</v>
+        <v>470020.53125</v>
       </c>
       <c r="G32">
-        <v>444964.15625</v>
+        <v>437439</v>
       </c>
       <c r="H32">
-        <v>448841.7811955761</v>
+        <v>387951.65625</v>
       </c>
       <c r="I32">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J32">
-        <v>443428.53125</v>
+        <v>399949.5100595238</v>
       </c>
       <c r="K32">
-        <v>444682.8928333333</v>
+        <v>390377.6020338071</v>
       </c>
       <c r="L32">
-        <v>435100.78125</v>
+        <v>353992.09375</v>
       </c>
       <c r="M32">
-        <v>467685.9375</v>
+        <v>439987.5625</v>
       </c>
       <c r="N32">
-        <v>450233.0625</v>
+        <v>415154.875</v>
       </c>
       <c r="O32">
-        <v>502482.03125</v>
+        <v>396742.71875</v>
       </c>
       <c r="P32">
-        <v>501176.0625</v>
+        <v>467587.0625</v>
       </c>
       <c r="Q32">
-        <v>1420566.125</v>
+        <v>11931794</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7000,43 +7000,43 @@
         <v>621119.9375</v>
       </c>
       <c r="E33">
-        <v>470021.125</v>
+        <v>470263.375</v>
       </c>
       <c r="F33">
-        <v>470027.125</v>
+        <v>470020.375</v>
       </c>
       <c r="G33">
-        <v>391684.4375</v>
+        <v>391684.375</v>
       </c>
       <c r="H33">
-        <v>357757.335830064</v>
+        <v>351988.90625</v>
       </c>
       <c r="I33">
-        <v>357573.3602318806</v>
+        <v>356052.7275718183</v>
       </c>
       <c r="J33">
-        <v>356599.5</v>
+        <v>352860.009428526</v>
       </c>
       <c r="K33">
-        <v>355328.8897333777</v>
+        <v>353700.7566641893</v>
       </c>
       <c r="L33">
-        <v>383427.5</v>
+        <v>353748.96875</v>
       </c>
       <c r="M33">
-        <v>386616.125</v>
+        <v>377524.1875</v>
       </c>
       <c r="N33">
-        <v>369318.75</v>
+        <v>378537.125</v>
       </c>
       <c r="O33">
-        <v>401756.15625</v>
+        <v>381817.40625</v>
       </c>
       <c r="P33">
-        <v>410614</v>
+        <v>385642.9375</v>
       </c>
       <c r="Q33">
-        <v>-656444.125</v>
+        <v>19127852</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7053,43 +7053,43 @@
         <v>632496.0625</v>
       </c>
       <c r="E34">
-        <v>470021.03125</v>
+        <v>470272.5</v>
       </c>
       <c r="F34">
-        <v>470051.59375</v>
+        <v>470020.28125</v>
       </c>
       <c r="G34">
-        <v>331816.65625</v>
+        <v>331816.96875</v>
       </c>
       <c r="H34">
-        <v>428158.6279415655</v>
+        <v>457822.09375</v>
       </c>
       <c r="I34">
-        <v>433432.4651824978</v>
+        <v>424322.6883695374</v>
       </c>
       <c r="J34">
-        <v>424741.75</v>
+        <v>414636.0843299755</v>
       </c>
       <c r="K34">
-        <v>423619.7374826839</v>
+        <v>414363.8368893406</v>
       </c>
       <c r="L34">
-        <v>455185.9375</v>
+        <v>414103.03125</v>
       </c>
       <c r="M34">
-        <v>472701.40625</v>
+        <v>486890.78125</v>
       </c>
       <c r="N34">
-        <v>467615.4375</v>
+        <v>497298.25</v>
       </c>
       <c r="O34">
-        <v>481263.6875</v>
+        <v>515054.625</v>
       </c>
       <c r="P34">
-        <v>482228.75</v>
+        <v>525599.25</v>
       </c>
       <c r="Q34">
-        <v>1550200.875</v>
+        <v>37469360</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_호남선.xlsx
@@ -45,9 +45,6 @@
     <t>NBEATS</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>NBEATSx</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>GRU</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>LSTM</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>126285823401.0563</v>
+        <v>126286136611.1859</v>
       </c>
       <c r="C3">
-        <v>355367.1670273667</v>
+        <v>355367.607712332</v>
       </c>
       <c r="D3">
-        <v>0.02919554090658791</v>
+        <v>0.02919555624235951</v>
       </c>
       <c r="E3">
-        <v>150003.421875</v>
+        <v>150002.890625</v>
       </c>
       <c r="F3">
-        <v>0.09368825963423144</v>
+        <v>0.09368764737471019</v>
       </c>
       <c r="G3">
-        <v>50641.28125</v>
+        <v>50642.9375</v>
       </c>
       <c r="H3">
-        <v>0.04996994539287667</v>
+        <v>0.04997157959185183</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>126286136611.1859</v>
+        <v>129674309321.1924</v>
       </c>
       <c r="C4">
-        <v>355367.607712332</v>
+        <v>360103.192600666</v>
       </c>
       <c r="D4">
-        <v>0.02919555624235951</v>
+        <v>0.03621406533670912</v>
       </c>
       <c r="E4">
-        <v>150002.890625</v>
+        <v>195605.234375</v>
       </c>
       <c r="F4">
-        <v>0.09368764737471019</v>
+        <v>0.1408281625542005</v>
       </c>
       <c r="G4">
-        <v>50642.9375</v>
+        <v>101198.21875</v>
       </c>
       <c r="H4">
-        <v>0.04997157959185183</v>
+        <v>0.09958035899329379</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>129674309321.1924</v>
+        <v>129328004677.5127</v>
       </c>
       <c r="C5">
-        <v>360103.192600666</v>
+        <v>359622.0303005819</v>
       </c>
       <c r="D5">
-        <v>0.03621406533670912</v>
+        <v>0.03991844095559782</v>
       </c>
       <c r="E5">
-        <v>195605.234375</v>
+        <v>198492.921875</v>
       </c>
       <c r="F5">
-        <v>0.1408281625542005</v>
+        <v>0.1450925069106751</v>
       </c>
       <c r="G5">
-        <v>101198.21875</v>
+        <v>109383.65625</v>
       </c>
       <c r="H5">
-        <v>0.09958035899329379</v>
+        <v>0.104801863243321</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>129328004677.5127</v>
+        <v>133701743506.3021</v>
       </c>
       <c r="C6">
-        <v>359622.0303005819</v>
+        <v>365652.4900862868</v>
       </c>
       <c r="D6">
-        <v>0.03991844095559782</v>
+        <v>0.04511500414983697</v>
       </c>
       <c r="E6">
-        <v>198492.921875</v>
+        <v>218547.90625</v>
       </c>
       <c r="F6">
-        <v>0.1450925069106751</v>
+        <v>0.1654105317018767</v>
       </c>
       <c r="G6">
-        <v>109383.65625</v>
+        <v>107162.59375</v>
       </c>
       <c r="H6">
-        <v>0.104801863243321</v>
+        <v>0.1054511753996051</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>133701743506.3021</v>
+        <v>140967183431.7962</v>
       </c>
       <c r="C7">
-        <v>365652.4900862868</v>
+        <v>375455.9673674081</v>
       </c>
       <c r="D7">
-        <v>0.04511500414983697</v>
+        <v>0.0444922664604471</v>
       </c>
       <c r="E7">
-        <v>218547.90625</v>
+        <v>218972.1458333333</v>
       </c>
       <c r="F7">
-        <v>0.1654105317018767</v>
+        <v>0.163006142284401</v>
       </c>
       <c r="G7">
-        <v>107162.59375</v>
+        <v>156992.15625</v>
       </c>
       <c r="H7">
-        <v>0.1054511753996051</v>
+        <v>0.1590397392448714</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>140967183431.7962</v>
+        <v>184253782111.9232</v>
       </c>
       <c r="C8">
-        <v>375455.9673674081</v>
+        <v>429247.9261591409</v>
       </c>
       <c r="D8">
-        <v>0.0444922664604471</v>
+        <v>0.09171068595358789</v>
       </c>
       <c r="E8">
-        <v>218972.1458333333</v>
+        <v>299565.3932291667</v>
       </c>
       <c r="F8">
-        <v>0.163006142284401</v>
+        <v>0.2444524578974622</v>
       </c>
       <c r="G8">
-        <v>156992.15625</v>
+        <v>137549.0625</v>
       </c>
       <c r="H8">
-        <v>0.1590397392448714</v>
+        <v>0.1369160915041052</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>184253782111.9232</v>
+        <v>202747186494.6849</v>
       </c>
       <c r="C9">
-        <v>429247.9261591409</v>
+        <v>450274.5678968388</v>
       </c>
       <c r="D9">
-        <v>0.09171068595358789</v>
+        <v>0.08552632420673613</v>
       </c>
       <c r="E9">
-        <v>299565.3932291667</v>
+        <v>298967.78125</v>
       </c>
       <c r="F9">
-        <v>0.2444524578974622</v>
+        <v>0.2355546785042388</v>
       </c>
       <c r="G9">
-        <v>137549.0625</v>
+        <v>170722.21875</v>
       </c>
       <c r="H9">
-        <v>0.1369160915041052</v>
+        <v>0.1674796487416671</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -927,25 +927,25 @@
         <v>1009081.25</v>
       </c>
       <c r="E2">
-        <v>962788.3125</v>
+        <v>962786.1875</v>
       </c>
       <c r="F2">
-        <v>962786.1875</v>
+        <v>922197</v>
       </c>
       <c r="G2">
-        <v>922197</v>
+        <v>923680.6875</v>
       </c>
       <c r="H2">
-        <v>923680.6875</v>
+        <v>916269.5625</v>
       </c>
       <c r="I2">
-        <v>916269.5625</v>
+        <v>1033759.1875</v>
       </c>
       <c r="J2">
-        <v>1033759.1875</v>
+        <v>922799.125</v>
       </c>
       <c r="K2">
-        <v>922799.125</v>
+        <v>856573.625</v>
       </c>
       <c r="L2">
         <v>976244.875</v>
@@ -980,25 +980,25 @@
         <v>978737.6875</v>
       </c>
       <c r="E3">
-        <v>962785.75</v>
+        <v>962783.8125</v>
       </c>
       <c r="F3">
-        <v>962783.8125</v>
+        <v>985108.8125</v>
       </c>
       <c r="G3">
-        <v>985108.8125</v>
+        <v>1010606.375</v>
       </c>
       <c r="H3">
-        <v>1010606.375</v>
+        <v>1016421.125</v>
       </c>
       <c r="I3">
-        <v>1016421.125</v>
+        <v>967533.3125</v>
       </c>
       <c r="J3">
-        <v>967533.3125</v>
+        <v>993570.5</v>
       </c>
       <c r="K3">
-        <v>993570.5</v>
+        <v>856573.6875</v>
       </c>
       <c r="L3">
         <v>988817</v>
@@ -1033,25 +1033,25 @@
         <v>958222.0625</v>
       </c>
       <c r="E4">
-        <v>962785.25</v>
+        <v>962784.75</v>
       </c>
       <c r="F4">
-        <v>962784.75</v>
+        <v>907592.5625</v>
       </c>
       <c r="G4">
-        <v>907592.5625</v>
+        <v>932218.1875</v>
       </c>
       <c r="H4">
-        <v>932218.1875</v>
+        <v>901591.25</v>
       </c>
       <c r="I4">
-        <v>901591.25</v>
+        <v>921077.375</v>
       </c>
       <c r="J4">
-        <v>921077.375</v>
+        <v>870853.875</v>
       </c>
       <c r="K4">
-        <v>870853.875</v>
+        <v>933491</v>
       </c>
       <c r="L4">
         <v>903678.4375</v>
@@ -1086,25 +1086,25 @@
         <v>927141.9375</v>
       </c>
       <c r="E5">
-        <v>962788.0625</v>
+        <v>962786.8125</v>
       </c>
       <c r="F5">
-        <v>962786.8125</v>
+        <v>892300.375</v>
       </c>
       <c r="G5">
-        <v>892300.375</v>
+        <v>905353.6875</v>
       </c>
       <c r="H5">
-        <v>905353.6875</v>
+        <v>857363</v>
       </c>
       <c r="I5">
-        <v>857363</v>
+        <v>912240.625</v>
       </c>
       <c r="J5">
-        <v>912240.625</v>
+        <v>873260.3125</v>
       </c>
       <c r="K5">
-        <v>873260.3125</v>
+        <v>1109315.25</v>
       </c>
       <c r="L5">
         <v>873412</v>
@@ -1139,25 +1139,25 @@
         <v>931413.8125</v>
       </c>
       <c r="E6">
-        <v>962783</v>
+        <v>962785.625</v>
       </c>
       <c r="F6">
-        <v>962785.625</v>
+        <v>834267.375</v>
       </c>
       <c r="G6">
-        <v>834267.375</v>
+        <v>873092.5625</v>
       </c>
       <c r="H6">
-        <v>873092.5625</v>
+        <v>848938.8125</v>
       </c>
       <c r="I6">
-        <v>848938.8125</v>
+        <v>833304.9375</v>
       </c>
       <c r="J6">
-        <v>833304.9375</v>
+        <v>863349</v>
       </c>
       <c r="K6">
-        <v>863349</v>
+        <v>1285133</v>
       </c>
       <c r="L6">
         <v>660190.5625</v>
@@ -1192,25 +1192,25 @@
         <v>967818.9375</v>
       </c>
       <c r="E7">
-        <v>962788.75</v>
+        <v>962790.4375</v>
       </c>
       <c r="F7">
-        <v>962790.4375</v>
+        <v>943312.75</v>
       </c>
       <c r="G7">
-        <v>943312.75</v>
+        <v>988304.9375</v>
       </c>
       <c r="H7">
-        <v>988304.9375</v>
+        <v>946960.1875</v>
       </c>
       <c r="I7">
-        <v>946960.1875</v>
+        <v>772083.75</v>
       </c>
       <c r="J7">
-        <v>772083.75</v>
+        <v>926263.1875</v>
       </c>
       <c r="K7">
-        <v>926263.1875</v>
+        <v>1460965.125</v>
       </c>
       <c r="L7">
         <v>906213.125</v>
@@ -1245,25 +1245,25 @@
         <v>1028504.1875</v>
       </c>
       <c r="E8">
-        <v>962785.4375</v>
+        <v>962789.6875</v>
       </c>
       <c r="F8">
-        <v>962789.6875</v>
+        <v>1003259.125</v>
       </c>
       <c r="G8">
-        <v>1003259.125</v>
+        <v>1008220.875</v>
       </c>
       <c r="H8">
-        <v>1008220.875</v>
+        <v>991990.9375</v>
       </c>
       <c r="I8">
-        <v>991990.9375</v>
+        <v>899186.4375</v>
       </c>
       <c r="J8">
-        <v>899186.4375</v>
+        <v>956354.125</v>
       </c>
       <c r="K8">
-        <v>956354.125</v>
+        <v>1524556.75</v>
       </c>
       <c r="L8">
         <v>919714.9375</v>
@@ -1298,25 +1298,25 @@
         <v>1056136.5</v>
       </c>
       <c r="E9">
-        <v>962785.875</v>
+        <v>962786.6875</v>
       </c>
       <c r="F9">
-        <v>962786.6875</v>
+        <v>930980.375</v>
       </c>
       <c r="G9">
-        <v>930980.375</v>
+        <v>1011157.75</v>
       </c>
       <c r="H9">
-        <v>1011157.75</v>
+        <v>988472.125</v>
       </c>
       <c r="I9">
-        <v>988472.125</v>
+        <v>1155639.25</v>
       </c>
       <c r="J9">
-        <v>1155639.25</v>
+        <v>921361.375</v>
       </c>
       <c r="K9">
-        <v>921361.375</v>
+        <v>1341216.625</v>
       </c>
       <c r="L9">
         <v>846694.8125</v>
@@ -1351,25 +1351,25 @@
         <v>1046735.875</v>
       </c>
       <c r="E10">
-        <v>962786.375</v>
+        <v>962786.9375</v>
       </c>
       <c r="F10">
-        <v>962786.9375</v>
+        <v>966886</v>
       </c>
       <c r="G10">
-        <v>966886</v>
+        <v>943336</v>
       </c>
       <c r="H10">
-        <v>943336</v>
+        <v>963096.75</v>
       </c>
       <c r="I10">
-        <v>963096.75</v>
+        <v>1140444.875</v>
       </c>
       <c r="J10">
-        <v>1140444.875</v>
+        <v>816905.3125</v>
       </c>
       <c r="K10">
-        <v>816905.3125</v>
+        <v>1157867.5</v>
       </c>
       <c r="L10">
         <v>858087.6875</v>
@@ -1404,25 +1404,25 @@
         <v>1046905.5625</v>
       </c>
       <c r="E11">
-        <v>962790.1875</v>
+        <v>962787.125</v>
       </c>
       <c r="F11">
-        <v>962787.125</v>
+        <v>822539.9375</v>
       </c>
       <c r="G11">
-        <v>822539.9375</v>
+        <v>750389.25</v>
       </c>
       <c r="H11">
-        <v>750389.25</v>
+        <v>752237.75</v>
       </c>
       <c r="I11">
-        <v>752237.75</v>
+        <v>812410.375</v>
       </c>
       <c r="J11">
-        <v>812410.375</v>
+        <v>541284.4375</v>
       </c>
       <c r="K11">
-        <v>541284.4375</v>
+        <v>974520.4375</v>
       </c>
       <c r="L11">
         <v>609530</v>
@@ -1457,25 +1457,25 @@
         <v>1041554</v>
       </c>
       <c r="E12">
-        <v>962788.9375</v>
+        <v>962787.5</v>
       </c>
       <c r="F12">
-        <v>962787.5</v>
+        <v>928172.25</v>
       </c>
       <c r="G12">
-        <v>928172.25</v>
+        <v>840354.3125</v>
       </c>
       <c r="H12">
-        <v>840354.3125</v>
+        <v>832622.625</v>
       </c>
       <c r="I12">
-        <v>832622.625</v>
+        <v>801568.4375</v>
       </c>
       <c r="J12">
-        <v>801568.4375</v>
+        <v>587759.5</v>
       </c>
       <c r="K12">
-        <v>587759.5</v>
+        <v>840888.9375</v>
       </c>
       <c r="L12">
         <v>707780</v>
@@ -1510,25 +1510,25 @@
         <v>1088453.5</v>
       </c>
       <c r="E13">
-        <v>962789.5</v>
+        <v>962787.625</v>
       </c>
       <c r="F13">
-        <v>962787.625</v>
+        <v>842092.625</v>
       </c>
       <c r="G13">
-        <v>842092.625</v>
+        <v>757342.3125</v>
       </c>
       <c r="H13">
-        <v>757342.3125</v>
+        <v>687433</v>
       </c>
       <c r="I13">
-        <v>687433</v>
+        <v>845292.3125</v>
       </c>
       <c r="J13">
-        <v>845292.3125</v>
+        <v>457426.53125</v>
       </c>
       <c r="K13">
-        <v>457426.53125</v>
+        <v>922724.0625</v>
       </c>
       <c r="L13">
         <v>605107.0625</v>
@@ -1563,25 +1563,25 @@
         <v>1122139.5</v>
       </c>
       <c r="E14">
-        <v>962790.5625</v>
+        <v>962788.625</v>
       </c>
       <c r="F14">
-        <v>962788.625</v>
+        <v>823420.6875</v>
       </c>
       <c r="G14">
-        <v>823420.6875</v>
+        <v>765860.4375</v>
       </c>
       <c r="H14">
-        <v>765860.4375</v>
+        <v>712523.75</v>
       </c>
       <c r="I14">
-        <v>712523.75</v>
+        <v>894478.5</v>
       </c>
       <c r="J14">
-        <v>894478.5</v>
+        <v>593668.4375</v>
       </c>
       <c r="K14">
-        <v>593668.4375</v>
+        <v>1004564.1875</v>
       </c>
       <c r="L14">
         <v>647691.875</v>
@@ -1616,25 +1616,25 @@
         <v>1133236.375</v>
       </c>
       <c r="E15">
-        <v>962787.1875</v>
+        <v>962788.8125</v>
       </c>
       <c r="F15">
-        <v>962788.8125</v>
+        <v>946156.8125</v>
       </c>
       <c r="G15">
-        <v>946156.8125</v>
+        <v>809579.625</v>
       </c>
       <c r="H15">
-        <v>809579.625</v>
+        <v>884403.0625</v>
       </c>
       <c r="I15">
-        <v>884403.0625</v>
+        <v>776655.125</v>
       </c>
       <c r="J15">
-        <v>776655.125</v>
+        <v>717411.4375</v>
       </c>
       <c r="K15">
-        <v>717411.4375</v>
+        <v>1086398</v>
       </c>
       <c r="L15">
         <v>847455.6875</v>
@@ -1669,25 +1669,25 @@
         <v>1133940</v>
       </c>
       <c r="E16">
-        <v>962791.3125</v>
+        <v>962788.5</v>
       </c>
       <c r="F16">
-        <v>962788.5</v>
+        <v>803330.5</v>
       </c>
       <c r="G16">
-        <v>803330.5</v>
+        <v>733971.8125</v>
       </c>
       <c r="H16">
-        <v>733971.8125</v>
+        <v>688758</v>
       </c>
       <c r="I16">
-        <v>688758</v>
+        <v>778950.75</v>
       </c>
       <c r="J16">
-        <v>778950.75</v>
+        <v>598741.3125</v>
       </c>
       <c r="K16">
-        <v>598741.3125</v>
+        <v>1157618.625</v>
       </c>
       <c r="L16">
         <v>697801.25</v>
@@ -1722,25 +1722,25 @@
         <v>1134382.25</v>
       </c>
       <c r="E17">
-        <v>962789.375</v>
+        <v>962786.5625</v>
       </c>
       <c r="F17">
-        <v>962786.5625</v>
+        <v>759785.125</v>
       </c>
       <c r="G17">
-        <v>759785.125</v>
+        <v>691875.125</v>
       </c>
       <c r="H17">
-        <v>691875.125</v>
+        <v>613213.875</v>
       </c>
       <c r="I17">
-        <v>613213.875</v>
+        <v>741080.75</v>
       </c>
       <c r="J17">
-        <v>741080.75</v>
+        <v>550556.25</v>
       </c>
       <c r="K17">
-        <v>550556.25</v>
+        <v>1069662.25</v>
       </c>
       <c r="L17">
         <v>692256</v>
@@ -1775,25 +1775,25 @@
         <v>1108786.5</v>
       </c>
       <c r="E18">
-        <v>962798.1875</v>
+        <v>962788</v>
       </c>
       <c r="F18">
-        <v>962788</v>
+        <v>847765.375</v>
       </c>
       <c r="G18">
-        <v>847765.375</v>
+        <v>682495.75</v>
       </c>
       <c r="H18">
-        <v>682495.75</v>
+        <v>613256.75</v>
       </c>
       <c r="I18">
-        <v>613256.75</v>
+        <v>627708.3125</v>
       </c>
       <c r="J18">
-        <v>627708.3125</v>
+        <v>564594.3125</v>
       </c>
       <c r="K18">
-        <v>564594.3125</v>
+        <v>981729.125</v>
       </c>
       <c r="L18">
         <v>702194.625</v>
@@ -1828,25 +1828,25 @@
         <v>1120666.375</v>
       </c>
       <c r="E19">
-        <v>962794.8125</v>
+        <v>962787.4375</v>
       </c>
       <c r="F19">
-        <v>962787.4375</v>
+        <v>843283.375</v>
       </c>
       <c r="G19">
-        <v>843283.375</v>
+        <v>716323.375</v>
       </c>
       <c r="H19">
-        <v>716323.375</v>
+        <v>776888.625</v>
       </c>
       <c r="I19">
-        <v>776888.625</v>
+        <v>536018.0625</v>
       </c>
       <c r="J19">
-        <v>536018.0625</v>
+        <v>584366.625</v>
       </c>
       <c r="K19">
-        <v>584366.625</v>
+        <v>893783.75</v>
       </c>
       <c r="L19">
         <v>767065.0625</v>
@@ -1881,25 +1881,25 @@
         <v>1180209.875</v>
       </c>
       <c r="E20">
-        <v>962794.0625</v>
+        <v>962787.6875</v>
       </c>
       <c r="F20">
-        <v>962787.6875</v>
+        <v>872024.125</v>
       </c>
       <c r="G20">
-        <v>872024.125</v>
+        <v>663019.4375</v>
       </c>
       <c r="H20">
-        <v>663019.4375</v>
+        <v>607027.5625</v>
       </c>
       <c r="I20">
-        <v>607027.5625</v>
+        <v>779337.1875</v>
       </c>
       <c r="J20">
-        <v>779337.1875</v>
+        <v>586412.875</v>
       </c>
       <c r="K20">
-        <v>586412.875</v>
+        <v>805838.9375</v>
       </c>
       <c r="L20">
         <v>803594.0625</v>
@@ -1934,25 +1934,25 @@
         <v>1185161.75</v>
       </c>
       <c r="E21">
-        <v>962794.625</v>
+        <v>962786</v>
       </c>
       <c r="F21">
-        <v>962786</v>
+        <v>905754.8125</v>
       </c>
       <c r="G21">
-        <v>905754.8125</v>
+        <v>744068.0625</v>
       </c>
       <c r="H21">
-        <v>744068.0625</v>
+        <v>661617.375</v>
       </c>
       <c r="I21">
-        <v>661617.375</v>
+        <v>534767.0625</v>
       </c>
       <c r="J21">
-        <v>534767.0625</v>
+        <v>622496.75</v>
       </c>
       <c r="K21">
-        <v>622496.75</v>
+        <v>806598.75</v>
       </c>
       <c r="L21">
         <v>778356.5</v>
@@ -1987,25 +1987,25 @@
         <v>1209640.375</v>
       </c>
       <c r="E22">
-        <v>962795.875</v>
+        <v>962786.5</v>
       </c>
       <c r="F22">
-        <v>962786.5</v>
+        <v>849883.125</v>
       </c>
       <c r="G22">
-        <v>849883.125</v>
+        <v>722228.5625</v>
       </c>
       <c r="H22">
-        <v>722228.5625</v>
+        <v>638367</v>
       </c>
       <c r="I22">
-        <v>638367</v>
+        <v>919038.9375</v>
       </c>
       <c r="J22">
-        <v>919038.9375</v>
+        <v>614589.5</v>
       </c>
       <c r="K22">
-        <v>614589.5</v>
+        <v>813271.3125</v>
       </c>
       <c r="L22">
         <v>791461.3125</v>
@@ -2040,25 +2040,25 @@
         <v>1195656</v>
       </c>
       <c r="E23">
-        <v>962794.1875</v>
+        <v>962787.6875</v>
       </c>
       <c r="F23">
-        <v>962787.6875</v>
+        <v>850927.8125</v>
       </c>
       <c r="G23">
-        <v>850927.8125</v>
+        <v>761915.6875</v>
       </c>
       <c r="H23">
-        <v>761915.6875</v>
+        <v>709601.8125</v>
       </c>
       <c r="I23">
-        <v>709601.8125</v>
+        <v>739373.4375</v>
       </c>
       <c r="J23">
-        <v>739373.4375</v>
+        <v>731161.3125</v>
       </c>
       <c r="K23">
-        <v>731161.3125</v>
+        <v>819945.375</v>
       </c>
       <c r="L23">
         <v>816727.125</v>
@@ -2093,25 +2093,25 @@
         <v>1234132.375</v>
       </c>
       <c r="E24">
-        <v>962792.9375</v>
+        <v>962787.1875</v>
       </c>
       <c r="F24">
-        <v>962787.1875</v>
+        <v>633124.375</v>
       </c>
       <c r="G24">
-        <v>633124.375</v>
+        <v>498975.375</v>
       </c>
       <c r="H24">
-        <v>498975.375</v>
+        <v>529197.875</v>
       </c>
       <c r="I24">
-        <v>529197.875</v>
+        <v>816496.375</v>
       </c>
       <c r="J24">
-        <v>816496.375</v>
+        <v>516830.78125</v>
       </c>
       <c r="K24">
-        <v>516830.78125</v>
+        <v>826615.5625</v>
       </c>
       <c r="L24">
         <v>618552.375</v>
@@ -2146,25 +2146,25 @@
         <v>1251246.375</v>
       </c>
       <c r="E25">
-        <v>962795.4375</v>
+        <v>962786.875</v>
       </c>
       <c r="F25">
-        <v>962786.875</v>
+        <v>669787.1875</v>
       </c>
       <c r="G25">
-        <v>669787.1875</v>
+        <v>433870.46875</v>
       </c>
       <c r="H25">
-        <v>433870.46875</v>
+        <v>541402.0625</v>
       </c>
       <c r="I25">
-        <v>541402.0625</v>
+        <v>1014056.5625</v>
       </c>
       <c r="J25">
-        <v>1014056.5625</v>
+        <v>430521.5</v>
       </c>
       <c r="K25">
-        <v>430521.5</v>
+        <v>1041964.0625</v>
       </c>
       <c r="L25">
         <v>687907.375</v>
@@ -2199,25 +2199,25 @@
         <v>1262408.75</v>
       </c>
       <c r="E26">
-        <v>962795</v>
+        <v>962786.8125</v>
       </c>
       <c r="F26">
-        <v>962786.8125</v>
+        <v>735999.875</v>
       </c>
       <c r="G26">
-        <v>735999.875</v>
+        <v>494741.96875</v>
       </c>
       <c r="H26">
-        <v>494741.96875</v>
+        <v>614138</v>
       </c>
       <c r="I26">
-        <v>614138</v>
+        <v>871098.3125</v>
       </c>
       <c r="J26">
-        <v>871098.3125</v>
+        <v>503505.5625</v>
       </c>
       <c r="K26">
-        <v>503505.5625</v>
+        <v>1305467.25</v>
       </c>
       <c r="L26">
         <v>731288.375</v>
@@ -2252,25 +2252,25 @@
         <v>1284597.125</v>
       </c>
       <c r="E27">
-        <v>962793.3125</v>
+        <v>962787.125</v>
       </c>
       <c r="F27">
-        <v>962787.125</v>
+        <v>797888.625</v>
       </c>
       <c r="G27">
-        <v>797888.625</v>
+        <v>684645.125</v>
       </c>
       <c r="H27">
-        <v>684645.125</v>
+        <v>716691.375</v>
       </c>
       <c r="I27">
-        <v>716691.375</v>
+        <v>1144123.375</v>
       </c>
       <c r="J27">
-        <v>1144123.375</v>
+        <v>724192.875</v>
       </c>
       <c r="K27">
-        <v>724192.875</v>
+        <v>1568966.875</v>
       </c>
       <c r="L27">
         <v>813300.5625</v>
@@ -2305,25 +2305,25 @@
         <v>1291120.5</v>
       </c>
       <c r="E28">
-        <v>962792.1875</v>
+        <v>962787.125</v>
       </c>
       <c r="F28">
-        <v>962787.125</v>
+        <v>760439.75</v>
       </c>
       <c r="G28">
-        <v>760439.75</v>
+        <v>626077.875</v>
       </c>
       <c r="H28">
-        <v>626077.875</v>
+        <v>693236.5625</v>
       </c>
       <c r="I28">
-        <v>693236.5625</v>
+        <v>768228.875</v>
       </c>
       <c r="J28">
-        <v>768228.875</v>
+        <v>652753</v>
       </c>
       <c r="K28">
-        <v>652753</v>
+        <v>1832468.375</v>
       </c>
       <c r="L28">
         <v>823461.9375</v>
@@ -2358,25 +2358,25 @@
         <v>1300758.625</v>
       </c>
       <c r="E29">
-        <v>962793.3125</v>
+        <v>962786.875</v>
       </c>
       <c r="F29">
-        <v>962786.875</v>
+        <v>758002.25</v>
       </c>
       <c r="G29">
-        <v>758002.25</v>
+        <v>647040.5</v>
       </c>
       <c r="H29">
-        <v>647040.5</v>
+        <v>665703.875</v>
       </c>
       <c r="I29">
-        <v>665703.875</v>
+        <v>989268.3125</v>
       </c>
       <c r="J29">
-        <v>989268.3125</v>
+        <v>625340.1875</v>
       </c>
       <c r="K29">
-        <v>625340.1875</v>
+        <v>1803892.625</v>
       </c>
       <c r="L29">
         <v>832753.375</v>
@@ -2411,25 +2411,25 @@
         <v>1292561</v>
       </c>
       <c r="E30">
-        <v>962792.25</v>
+        <v>962787.5625</v>
       </c>
       <c r="F30">
-        <v>962787.5625</v>
+        <v>821263</v>
       </c>
       <c r="G30">
-        <v>821263</v>
+        <v>698362.0625</v>
       </c>
       <c r="H30">
-        <v>698362.0625</v>
+        <v>688192.0625</v>
       </c>
       <c r="I30">
-        <v>688192.0625</v>
+        <v>1024684.1875</v>
       </c>
       <c r="J30">
-        <v>1024684.1875</v>
+        <v>724092.25</v>
       </c>
       <c r="K30">
-        <v>724092.25</v>
+        <v>1642548.25</v>
       </c>
       <c r="L30">
         <v>906164.125</v>
@@ -2464,25 +2464,25 @@
         <v>1310865</v>
       </c>
       <c r="E31">
-        <v>962795.5625</v>
+        <v>962787.625</v>
       </c>
       <c r="F31">
-        <v>962787.625</v>
+        <v>703843.5625</v>
       </c>
       <c r="G31">
-        <v>703843.5625</v>
+        <v>543304.375</v>
       </c>
       <c r="H31">
-        <v>543304.375</v>
+        <v>593870.375</v>
       </c>
       <c r="I31">
-        <v>593870.375</v>
+        <v>749024.625</v>
       </c>
       <c r="J31">
-        <v>749024.625</v>
+        <v>584075</v>
       </c>
       <c r="K31">
-        <v>584075</v>
+        <v>1481207.25</v>
       </c>
       <c r="L31">
         <v>803016.0625</v>
@@ -2517,25 +2517,25 @@
         <v>1307370.125</v>
       </c>
       <c r="E32">
-        <v>962834.5625</v>
+        <v>962787.25</v>
       </c>
       <c r="F32">
-        <v>962787.25</v>
+        <v>910959.125</v>
       </c>
       <c r="G32">
-        <v>910959.125</v>
+        <v>708910.1875</v>
       </c>
       <c r="H32">
-        <v>708910.1875</v>
+        <v>746097.8125</v>
       </c>
       <c r="I32">
-        <v>746097.8125</v>
+        <v>907508.5</v>
       </c>
       <c r="J32">
-        <v>907508.5</v>
+        <v>838784.5</v>
       </c>
       <c r="K32">
-        <v>838784.5</v>
+        <v>1319909.125</v>
       </c>
       <c r="L32">
         <v>945923.5</v>
@@ -2570,25 +2570,25 @@
         <v>1310645</v>
       </c>
       <c r="E33">
-        <v>962831.5</v>
+        <v>962787.4375</v>
       </c>
       <c r="F33">
-        <v>962787.4375</v>
+        <v>866504.875</v>
       </c>
       <c r="G33">
-        <v>866504.875</v>
+        <v>791161.0625</v>
       </c>
       <c r="H33">
-        <v>791161.0625</v>
+        <v>820290.625</v>
       </c>
       <c r="I33">
-        <v>820290.625</v>
+        <v>800327.6875</v>
       </c>
       <c r="J33">
-        <v>800327.6875</v>
+        <v>890126.5625</v>
       </c>
       <c r="K33">
-        <v>890126.5625</v>
+        <v>1249320.375</v>
       </c>
       <c r="L33">
         <v>982303.8125</v>
@@ -2623,25 +2623,25 @@
         <v>1346747.375</v>
       </c>
       <c r="E34">
-        <v>962832.5</v>
+        <v>962787.4375</v>
       </c>
       <c r="F34">
-        <v>962787.4375</v>
+        <v>903893.9375</v>
       </c>
       <c r="G34">
-        <v>903893.9375</v>
+        <v>688216.25</v>
       </c>
       <c r="H34">
-        <v>688216.25</v>
+        <v>750873.75</v>
       </c>
       <c r="I34">
-        <v>750873.75</v>
+        <v>703149.25</v>
       </c>
       <c r="J34">
-        <v>703149.25</v>
+        <v>767840.9375</v>
       </c>
       <c r="K34">
-        <v>767840.9375</v>
+        <v>1249326.375</v>
       </c>
       <c r="L34">
         <v>983641.25</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>22858312977.64274</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>21200368533.14494</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>22124519681.00407</v>
@@ -2833,25 +2833,25 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>24148134488.70247</v>
+        <v>24146527911.92179</v>
       </c>
       <c r="C7">
-        <v>155396.7003790701</v>
+        <v>155391.5310173685</v>
       </c>
       <c r="D7">
-        <v>0.03107619911615371</v>
+        <v>0.03107365564926702</v>
       </c>
       <c r="E7">
-        <v>84533.83854166667</v>
+        <v>84522.9140625</v>
       </c>
       <c r="F7">
-        <v>0.1233270972233724</v>
+        <v>0.1233118716260161</v>
       </c>
       <c r="G7">
-        <v>38887.09375</v>
+        <v>38897.71875</v>
       </c>
       <c r="H7">
-        <v>0.08562117270522679</v>
+        <v>0.08569685786676481</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2859,77 +2859,77 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>24146527911.92179</v>
+        <v>25121477691.57707</v>
       </c>
       <c r="C8">
-        <v>155391.5310173685</v>
+        <v>158497.5636771022</v>
       </c>
       <c r="D8">
-        <v>0.03107365564926702</v>
+        <v>0.0378395658951801</v>
       </c>
       <c r="E8">
-        <v>84522.9140625</v>
+        <v>89790.76302083333</v>
       </c>
       <c r="F8">
-        <v>0.1233118716260161</v>
+        <v>0.1374796678124565</v>
       </c>
       <c r="G8">
-        <v>38897.71875</v>
+        <v>43097.4375</v>
       </c>
       <c r="H8">
-        <v>0.08569685786676481</v>
+        <v>0.08022313782903873</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>25121477691.57707</v>
+        <v>28601409498.62117</v>
       </c>
       <c r="C9">
-        <v>158497.5636771022</v>
+        <v>169119.512471569</v>
       </c>
       <c r="D9">
-        <v>0.0378395658951801</v>
+        <v>0.04463618098724536</v>
       </c>
       <c r="E9">
-        <v>89790.76302083333</v>
+        <v>109167.1796875</v>
       </c>
       <c r="F9">
-        <v>0.1374796678124565</v>
+        <v>0.1723941679129359</v>
       </c>
       <c r="G9">
-        <v>43097.4375</v>
+        <v>71703.84375</v>
       </c>
       <c r="H9">
-        <v>0.08022313782903873</v>
+        <v>0.1444687975359654</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>28601409498.62117</v>
+        <v>38293355349.63485</v>
       </c>
       <c r="C10">
-        <v>169119.512471569</v>
+        <v>195686.880882789</v>
       </c>
       <c r="D10">
-        <v>0.04463618098724536</v>
+        <v>0.07123854457588585</v>
       </c>
       <c r="E10">
-        <v>109167.1796875</v>
+        <v>132969.5078125</v>
       </c>
       <c r="F10">
-        <v>0.1723941679129359</v>
+        <v>0.2190051311225117</v>
       </c>
       <c r="G10">
-        <v>71703.84375</v>
+        <v>106708.65625</v>
       </c>
       <c r="H10">
-        <v>0.1444687975359654</v>
+        <v>0.2094309882562171</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3086,16 +3086,16 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -3107,10 +3107,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
@@ -3154,16 +3154,16 @@
         <v>597694.625</v>
       </c>
       <c r="I2">
-        <v>492766.5625</v>
+        <v>492769.34375</v>
       </c>
       <c r="J2">
-        <v>492769.34375</v>
+        <v>530871.4375</v>
       </c>
       <c r="K2">
-        <v>530871.4375</v>
+        <v>528953</v>
       </c>
       <c r="L2">
-        <v>528953</v>
+        <v>379274.03125</v>
       </c>
       <c r="M2">
         <v>435658.3737802157</v>
@@ -3207,16 +3207,16 @@
         <v>492544.8125</v>
       </c>
       <c r="I3">
-        <v>492766.625</v>
+        <v>492768.6875</v>
       </c>
       <c r="J3">
-        <v>492768.6875</v>
+        <v>498620.5625</v>
       </c>
       <c r="K3">
-        <v>498620.5625</v>
+        <v>474916.1875</v>
       </c>
       <c r="L3">
-        <v>474916.1875</v>
+        <v>428374.4375</v>
       </c>
       <c r="M3">
         <v>346104.87973779</v>
@@ -3260,16 +3260,16 @@
         <v>507227.3125</v>
       </c>
       <c r="I4">
-        <v>492766.875</v>
+        <v>492769.8125</v>
       </c>
       <c r="J4">
-        <v>492769.8125</v>
+        <v>500031.53125</v>
       </c>
       <c r="K4">
-        <v>500031.53125</v>
+        <v>482021.625</v>
       </c>
       <c r="L4">
-        <v>482021.625</v>
+        <v>533122.125</v>
       </c>
       <c r="M4">
         <v>395141.8739394429</v>
@@ -3313,16 +3313,16 @@
         <v>456454.9375</v>
       </c>
       <c r="I5">
-        <v>492766.90625</v>
+        <v>492765.34375</v>
       </c>
       <c r="J5">
-        <v>492765.34375</v>
+        <v>431802.625</v>
       </c>
       <c r="K5">
-        <v>431802.625</v>
+        <v>451604.59375</v>
       </c>
       <c r="L5">
-        <v>451604.59375</v>
+        <v>599541.5</v>
       </c>
       <c r="M5">
         <v>435658.3737802157</v>
@@ -3366,16 +3366,16 @@
         <v>403254.6875</v>
       </c>
       <c r="I6">
-        <v>492767.28125</v>
+        <v>492773.21875</v>
       </c>
       <c r="J6">
-        <v>492773.21875</v>
+        <v>388588.125</v>
       </c>
       <c r="K6">
-        <v>388588.125</v>
+        <v>364321.59375</v>
       </c>
       <c r="L6">
-        <v>364321.59375</v>
+        <v>609943.1875</v>
       </c>
       <c r="M6">
         <v>369295.3550693706</v>
@@ -3419,16 +3419,16 @@
         <v>503790.1875</v>
       </c>
       <c r="I7">
-        <v>492767.46875</v>
+        <v>492774.25</v>
       </c>
       <c r="J7">
-        <v>492774.25</v>
+        <v>486104</v>
       </c>
       <c r="K7">
-        <v>486104</v>
+        <v>472725.3125</v>
       </c>
       <c r="L7">
-        <v>472725.3125</v>
+        <v>622867.6875</v>
       </c>
       <c r="M7">
         <v>436743.3366666667</v>
@@ -3472,16 +3472,16 @@
         <v>505675.15625</v>
       </c>
       <c r="I8">
-        <v>492767.3125</v>
+        <v>492831.78125</v>
       </c>
       <c r="J8">
-        <v>492831.78125</v>
+        <v>527858.5625</v>
       </c>
       <c r="K8">
-        <v>527858.5625</v>
+        <v>481183.09375</v>
       </c>
       <c r="L8">
-        <v>481183.09375</v>
+        <v>640608.625</v>
       </c>
       <c r="M8">
         <v>395141.8739394429</v>
@@ -3525,16 +3525,16 @@
         <v>512694.53125</v>
       </c>
       <c r="I9">
-        <v>492767.1875</v>
+        <v>492822.5625</v>
       </c>
       <c r="J9">
-        <v>492822.5625</v>
+        <v>500467.75</v>
       </c>
       <c r="K9">
-        <v>500467.75</v>
+        <v>601069.5</v>
       </c>
       <c r="L9">
-        <v>601069.5</v>
+        <v>636639.8125</v>
       </c>
       <c r="M9">
         <v>369295.3550693706</v>
@@ -3578,16 +3578,16 @@
         <v>562272.625</v>
       </c>
       <c r="I10">
-        <v>492767.1875</v>
+        <v>492824.46875</v>
       </c>
       <c r="J10">
-        <v>492824.46875</v>
+        <v>539722.6875</v>
       </c>
       <c r="K10">
-        <v>539722.6875</v>
+        <v>655755.875</v>
       </c>
       <c r="L10">
-        <v>655755.875</v>
+        <v>577190.5625</v>
       </c>
       <c r="M10">
         <v>486592.0151071426</v>
@@ -3631,16 +3631,16 @@
         <v>360228.03125</v>
       </c>
       <c r="I11">
-        <v>492767.3125</v>
+        <v>492820.1875</v>
       </c>
       <c r="J11">
-        <v>492820.1875</v>
+        <v>305186.53125</v>
       </c>
       <c r="K11">
-        <v>305186.53125</v>
+        <v>359670.1875</v>
       </c>
       <c r="L11">
-        <v>359670.1875</v>
+        <v>533784.625</v>
       </c>
       <c r="M11">
         <v>369295.3550693706</v>
@@ -3684,16 +3684,16 @@
         <v>400837.0625</v>
       </c>
       <c r="I12">
-        <v>492767.5</v>
+        <v>492830.21875</v>
       </c>
       <c r="J12">
-        <v>492830.21875</v>
+        <v>416533.5</v>
       </c>
       <c r="K12">
-        <v>416533.5</v>
+        <v>350123.59375</v>
       </c>
       <c r="L12">
-        <v>350123.59375</v>
+        <v>547675.4375</v>
       </c>
       <c r="M12">
         <v>349305.7540119048</v>
@@ -3737,16 +3737,16 @@
         <v>468222.40625</v>
       </c>
       <c r="I13">
-        <v>492767.90625</v>
+        <v>492830.40625</v>
       </c>
       <c r="J13">
-        <v>492830.40625</v>
+        <v>438823.53125</v>
       </c>
       <c r="K13">
-        <v>438823.53125</v>
+        <v>435536.03125</v>
       </c>
       <c r="L13">
-        <v>435536.03125</v>
+        <v>585552.125</v>
       </c>
       <c r="M13">
         <v>402181.3058520923</v>
@@ -3790,16 +3790,16 @@
         <v>412898.21875</v>
       </c>
       <c r="I14">
-        <v>492768.1875</v>
+        <v>492834.59375</v>
       </c>
       <c r="J14">
-        <v>492834.59375</v>
+        <v>323074.4375</v>
       </c>
       <c r="K14">
-        <v>323074.4375</v>
+        <v>502022.9375</v>
       </c>
       <c r="L14">
-        <v>502022.9375</v>
+        <v>752950.25</v>
       </c>
       <c r="M14">
         <v>369295.3550693706</v>
@@ -3843,16 +3843,16 @@
         <v>425073.0625</v>
       </c>
       <c r="I15">
-        <v>492768.46875</v>
+        <v>492830.71875</v>
       </c>
       <c r="J15">
-        <v>492830.71875</v>
+        <v>343681.5</v>
       </c>
       <c r="K15">
-        <v>343681.5</v>
+        <v>392351.5625</v>
       </c>
       <c r="L15">
-        <v>392351.5625</v>
+        <v>893138.0625</v>
       </c>
       <c r="M15">
         <v>272804.5586655844</v>
@@ -3896,16 +3896,16 @@
         <v>449707.5</v>
       </c>
       <c r="I16">
-        <v>492768.53125</v>
+        <v>492827.09375</v>
       </c>
       <c r="J16">
-        <v>492827.09375</v>
+        <v>402394.21875</v>
       </c>
       <c r="K16">
-        <v>402394.21875</v>
+        <v>386755.4375</v>
       </c>
       <c r="L16">
-        <v>386755.4375</v>
+        <v>770291.5</v>
       </c>
       <c r="M16">
         <v>435658.3737802157</v>
@@ -3949,16 +3949,16 @@
         <v>368617.15625</v>
       </c>
       <c r="I17">
-        <v>492768.15625</v>
+        <v>492829.4375</v>
       </c>
       <c r="J17">
-        <v>492829.4375</v>
+        <v>343054</v>
       </c>
       <c r="K17">
-        <v>343054</v>
+        <v>346356.4375</v>
       </c>
       <c r="L17">
-        <v>346356.4375</v>
+        <v>653026.875</v>
       </c>
       <c r="M17">
         <v>369295.3550693706</v>
@@ -4002,16 +4002,16 @@
         <v>419750.6875</v>
       </c>
       <c r="I18">
-        <v>492768.25</v>
+        <v>492831.34375</v>
       </c>
       <c r="J18">
-        <v>492831.34375</v>
+        <v>365493.71875</v>
       </c>
       <c r="K18">
-        <v>365493.71875</v>
+        <v>230824.234375</v>
       </c>
       <c r="L18">
-        <v>230824.234375</v>
+        <v>708819.375</v>
       </c>
       <c r="M18">
         <v>435658.3737802157</v>
@@ -4055,16 +4055,16 @@
         <v>442620.28125</v>
       </c>
       <c r="I19">
-        <v>492768.21875</v>
+        <v>492828.84375</v>
       </c>
       <c r="J19">
-        <v>492828.84375</v>
+        <v>395115.09375</v>
       </c>
       <c r="K19">
-        <v>395115.09375</v>
+        <v>245070.890625</v>
       </c>
       <c r="L19">
-        <v>245070.890625</v>
+        <v>764611.875</v>
       </c>
       <c r="M19">
         <v>395141.8739394429</v>
@@ -4108,16 +4108,16 @@
         <v>380330.875</v>
       </c>
       <c r="I20">
-        <v>492768.1875</v>
+        <v>492828.96875</v>
       </c>
       <c r="J20">
-        <v>492828.96875</v>
+        <v>368331.1875</v>
       </c>
       <c r="K20">
-        <v>368331.1875</v>
+        <v>323167.21875</v>
       </c>
       <c r="L20">
-        <v>323167.21875</v>
+        <v>667704.5</v>
       </c>
       <c r="M20">
         <v>369295.3550693706</v>
@@ -4161,16 +4161,16 @@
         <v>471182.5</v>
       </c>
       <c r="I21">
-        <v>492768.03125</v>
+        <v>492827.25</v>
       </c>
       <c r="J21">
-        <v>492827.25</v>
+        <v>477320</v>
       </c>
       <c r="K21">
-        <v>477320</v>
+        <v>269272.1875</v>
       </c>
       <c r="L21">
-        <v>269272.1875</v>
+        <v>565871.4375</v>
       </c>
       <c r="M21">
         <v>435658.3737802157</v>
@@ -4214,16 +4214,16 @@
         <v>466231.125</v>
       </c>
       <c r="I22">
-        <v>492767.9375</v>
+        <v>492830.96875</v>
       </c>
       <c r="J22">
-        <v>492830.96875</v>
+        <v>465409.34375</v>
       </c>
       <c r="K22">
-        <v>465409.34375</v>
+        <v>446973.90625</v>
       </c>
       <c r="L22">
-        <v>446973.90625</v>
+        <v>448048.125</v>
       </c>
       <c r="M22">
         <v>395141.8739394429</v>
@@ -4267,16 +4267,16 @@
         <v>373446.5625</v>
       </c>
       <c r="I23">
-        <v>492767.78125</v>
+        <v>492828.28125</v>
       </c>
       <c r="J23">
-        <v>492828.28125</v>
+        <v>337747.25</v>
       </c>
       <c r="K23">
-        <v>337747.25</v>
+        <v>324936.5625</v>
       </c>
       <c r="L23">
-        <v>324936.5625</v>
+        <v>328570.375</v>
       </c>
       <c r="M23">
         <v>395141.8739394429</v>
@@ -4320,16 +4320,16 @@
         <v>337781.6875</v>
       </c>
       <c r="I24">
-        <v>492767.375</v>
+        <v>492827.71875</v>
       </c>
       <c r="J24">
-        <v>492827.71875</v>
+        <v>325991.9375</v>
       </c>
       <c r="K24">
-        <v>325991.9375</v>
+        <v>434503.4375</v>
       </c>
       <c r="L24">
-        <v>434503.4375</v>
+        <v>378274.25</v>
       </c>
       <c r="M24">
         <v>369295.3550693706</v>
@@ -4373,16 +4373,16 @@
         <v>398661.96875</v>
       </c>
       <c r="I25">
-        <v>492767.28125</v>
+        <v>492834.75</v>
       </c>
       <c r="J25">
-        <v>492834.75</v>
+        <v>372846.25</v>
       </c>
       <c r="K25">
-        <v>372846.25</v>
+        <v>452780.71875</v>
       </c>
       <c r="L25">
-        <v>452780.71875</v>
+        <v>459307.9375</v>
       </c>
       <c r="M25">
         <v>425441.6499031107</v>
@@ -4426,16 +4426,16 @@
         <v>441749.34375</v>
       </c>
       <c r="I26">
-        <v>492767.65625</v>
+        <v>492831.59375</v>
       </c>
       <c r="J26">
-        <v>492831.59375</v>
+        <v>429939.625</v>
       </c>
       <c r="K26">
-        <v>429939.625</v>
+        <v>462360.15625</v>
       </c>
       <c r="L26">
-        <v>462360.15625</v>
+        <v>444260.65625</v>
       </c>
       <c r="M26">
         <v>369295.3550693706</v>
@@ -4479,16 +4479,16 @@
         <v>455927.59375</v>
       </c>
       <c r="I27">
-        <v>492768.15625</v>
+        <v>492824.0625</v>
       </c>
       <c r="J27">
-        <v>492824.0625</v>
+        <v>442339.0625</v>
       </c>
       <c r="K27">
-        <v>442339.0625</v>
+        <v>599204.9375</v>
       </c>
       <c r="L27">
-        <v>599204.9375</v>
+        <v>402310.8125</v>
       </c>
       <c r="M27">
         <v>435658.3737802157</v>
@@ -4532,16 +4532,16 @@
         <v>469872.1875</v>
       </c>
       <c r="I28">
-        <v>492768.46875</v>
+        <v>492833.46875</v>
       </c>
       <c r="J28">
-        <v>492833.46875</v>
+        <v>469230.1875</v>
       </c>
       <c r="K28">
-        <v>469230.1875</v>
+        <v>359003.4375</v>
       </c>
       <c r="L28">
-        <v>359003.4375</v>
+        <v>496555.21875</v>
       </c>
       <c r="M28">
         <v>272804.5586655844</v>
@@ -4585,16 +4585,16 @@
         <v>437894.96875</v>
       </c>
       <c r="I29">
-        <v>492768.4375</v>
+        <v>492827.8125</v>
       </c>
       <c r="J29">
-        <v>492827.8125</v>
+        <v>449276.9375</v>
       </c>
       <c r="K29">
-        <v>449276.9375</v>
+        <v>508308.40625</v>
       </c>
       <c r="L29">
-        <v>508308.40625</v>
+        <v>644092.8125</v>
       </c>
       <c r="M29">
         <v>369295.3550693706</v>
@@ -4638,16 +4638,16 @@
         <v>506695.4375</v>
       </c>
       <c r="I30">
-        <v>492768.375</v>
+        <v>492831.625</v>
       </c>
       <c r="J30">
-        <v>492831.625</v>
+        <v>537328.875</v>
       </c>
       <c r="K30">
-        <v>537328.875</v>
+        <v>532995.875</v>
       </c>
       <c r="L30">
-        <v>532995.875</v>
+        <v>775518.1875</v>
       </c>
       <c r="M30">
         <v>402181.3058520923</v>
@@ -4691,16 +4691,16 @@
         <v>373634.09375</v>
       </c>
       <c r="I31">
-        <v>492768.5</v>
+        <v>492826.71875</v>
       </c>
       <c r="J31">
-        <v>492826.71875</v>
+        <v>389312.1875</v>
       </c>
       <c r="K31">
-        <v>389312.1875</v>
+        <v>295813.96875</v>
       </c>
       <c r="L31">
-        <v>295813.96875</v>
+        <v>898504.25</v>
       </c>
       <c r="M31">
         <v>369295.3550693706</v>
@@ -4744,16 +4744,16 @@
         <v>419581.3125</v>
       </c>
       <c r="I32">
-        <v>492768.34375</v>
+        <v>492826.5</v>
       </c>
       <c r="J32">
-        <v>492826.5</v>
+        <v>450745.15625</v>
       </c>
       <c r="K32">
-        <v>450745.15625</v>
+        <v>435561.59375</v>
       </c>
       <c r="L32">
-        <v>435561.59375</v>
+        <v>1375998.875</v>
       </c>
       <c r="M32">
         <v>490539.4159880953</v>
@@ -4797,16 +4797,16 @@
         <v>512409.65625</v>
       </c>
       <c r="I33">
-        <v>492768.09375</v>
+        <v>492832.09375</v>
       </c>
       <c r="J33">
-        <v>492832.09375</v>
+        <v>567528.625</v>
       </c>
       <c r="K33">
-        <v>567528.625</v>
+        <v>424639.40625</v>
       </c>
       <c r="L33">
-        <v>424639.40625</v>
+        <v>2096052.75</v>
       </c>
       <c r="M33">
         <v>435658.3737802157</v>
@@ -4850,16 +4850,16 @@
         <v>491946.5</v>
       </c>
       <c r="I34">
-        <v>492768</v>
+        <v>492830.75</v>
       </c>
       <c r="J34">
-        <v>492830.75</v>
+        <v>527482.0625</v>
       </c>
       <c r="K34">
-        <v>527482.0625</v>
+        <v>357321.46875</v>
       </c>
       <c r="L34">
-        <v>357321.46875</v>
+        <v>2433576.5</v>
       </c>
       <c r="M34">
         <v>369295.3550693706</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>44124548780.88485</v>
@@ -4967,33 +4967,33 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>44130328517.41895</v>
+        <v>44130154057.40536</v>
       </c>
       <c r="C4">
-        <v>210072.1983448046</v>
+        <v>210071.7831061691</v>
       </c>
       <c r="D4">
-        <v>0.03894023850222791</v>
+        <v>0.03893985978392337</v>
       </c>
       <c r="E4">
-        <v>98780.20833333333</v>
+        <v>98779.32552083333</v>
       </c>
       <c r="F4">
-        <v>0.1265498712787025</v>
+        <v>0.1265482920190806</v>
       </c>
       <c r="G4">
-        <v>49609.625</v>
+        <v>49609.53125</v>
       </c>
       <c r="H4">
-        <v>0.1021126453093111</v>
+        <v>0.1021125838512429</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>47637739826.73063</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>44861919494.63053</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>56132966659.493</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>54675521665.78092</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>69799217871.79918</v>
@@ -5304,16 +5304,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -5328,16 +5328,16 @@
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5360,7 +5360,7 @@
         <v>470044.0625</v>
       </c>
       <c r="F2">
-        <v>470018.40625</v>
+        <v>470018.90625</v>
       </c>
       <c r="G2">
         <v>488547.625</v>
@@ -5413,7 +5413,7 @@
         <v>470046</v>
       </c>
       <c r="F3">
-        <v>470018.65625</v>
+        <v>470019.3125</v>
       </c>
       <c r="G3">
         <v>464886.625</v>
@@ -5466,7 +5466,7 @@
         <v>470044.5625</v>
       </c>
       <c r="F4">
-        <v>470018.8125</v>
+        <v>470020.03125</v>
       </c>
       <c r="G4">
         <v>438079.34375</v>
@@ -5519,7 +5519,7 @@
         <v>470045.46875</v>
       </c>
       <c r="F5">
-        <v>470018.96875</v>
+        <v>470020.71875</v>
       </c>
       <c r="G5">
         <v>434723.6875</v>
@@ -5572,7 +5572,7 @@
         <v>470055.625</v>
       </c>
       <c r="F6">
-        <v>470019.875</v>
+        <v>470021.625</v>
       </c>
       <c r="G6">
         <v>434028.84375</v>
@@ -5625,7 +5625,7 @@
         <v>470060.5625</v>
       </c>
       <c r="F7">
-        <v>470020.21875</v>
+        <v>470022.28125</v>
       </c>
       <c r="G7">
         <v>379571.46875</v>
@@ -5678,7 +5678,7 @@
         <v>470062.3125</v>
       </c>
       <c r="F8">
-        <v>470020.09375</v>
+        <v>470022.8125</v>
       </c>
       <c r="G8">
         <v>434008.25</v>
@@ -5731,7 +5731,7 @@
         <v>470068.28125</v>
       </c>
       <c r="F9">
-        <v>470020.5625</v>
+        <v>470022.875</v>
       </c>
       <c r="G9">
         <v>531971.875</v>
@@ -5784,7 +5784,7 @@
         <v>470066.6875</v>
       </c>
       <c r="F10">
-        <v>470021.46875</v>
+        <v>470022.9375</v>
       </c>
       <c r="G10">
         <v>510370.96875</v>
@@ -5837,7 +5837,7 @@
         <v>470073.53125</v>
       </c>
       <c r="F11">
-        <v>470022.34375</v>
+        <v>470023.0625</v>
       </c>
       <c r="G11">
         <v>438400.875</v>
@@ -5890,7 +5890,7 @@
         <v>470079.15625</v>
       </c>
       <c r="F12">
-        <v>470022.4375</v>
+        <v>470022.90625</v>
       </c>
       <c r="G12">
         <v>436512.65625</v>
@@ -5943,7 +5943,7 @@
         <v>470080.59375</v>
       </c>
       <c r="F13">
-        <v>470021.59375</v>
+        <v>470022.125</v>
       </c>
       <c r="G13">
         <v>415909.96875</v>
@@ -5996,7 +5996,7 @@
         <v>470087.5625</v>
       </c>
       <c r="F14">
-        <v>470021.1875</v>
+        <v>470021.5</v>
       </c>
       <c r="G14">
         <v>409905.5</v>
@@ -6049,7 +6049,7 @@
         <v>470092.9375</v>
       </c>
       <c r="F15">
-        <v>470020.875</v>
+        <v>470020.9375</v>
       </c>
       <c r="G15">
         <v>373806.25</v>
@@ -6102,7 +6102,7 @@
         <v>470091.03125</v>
       </c>
       <c r="F16">
-        <v>470020.4375</v>
+        <v>470020.21875</v>
       </c>
       <c r="G16">
         <v>393538.625</v>
@@ -6155,7 +6155,7 @@
         <v>470096.40625</v>
       </c>
       <c r="F17">
-        <v>470020.4375</v>
+        <v>470020.625</v>
       </c>
       <c r="G17">
         <v>407105.375</v>
@@ -6208,7 +6208,7 @@
         <v>470104.84375</v>
       </c>
       <c r="F18">
-        <v>470020.90625</v>
+        <v>470021.9375</v>
       </c>
       <c r="G18">
         <v>357162.875</v>
@@ -6261,7 +6261,7 @@
         <v>470106.84375</v>
       </c>
       <c r="F19">
-        <v>470021.28125</v>
+        <v>470023.15625</v>
       </c>
       <c r="G19">
         <v>356558.40625</v>
@@ -6314,7 +6314,7 @@
         <v>470113.84375</v>
       </c>
       <c r="F20">
-        <v>470020.90625</v>
+        <v>470023.3125</v>
       </c>
       <c r="G20">
         <v>393169.9375</v>
@@ -6367,7 +6367,7 @@
         <v>470118.375</v>
       </c>
       <c r="F21">
-        <v>470020.40625</v>
+        <v>470031.71875</v>
       </c>
       <c r="G21">
         <v>303038.5</v>
@@ -6420,7 +6420,7 @@
         <v>470126.875</v>
       </c>
       <c r="F22">
-        <v>470020.3125</v>
+        <v>470041.34375</v>
       </c>
       <c r="G22">
         <v>453341.9375</v>
@@ -6473,7 +6473,7 @@
         <v>470133.21875</v>
       </c>
       <c r="F23">
-        <v>470020.15625</v>
+        <v>470051.03125</v>
       </c>
       <c r="G23">
         <v>399716.78125</v>
@@ -6526,7 +6526,7 @@
         <v>470136.5625</v>
       </c>
       <c r="F24">
-        <v>470020</v>
+        <v>470059.96875</v>
       </c>
       <c r="G24">
         <v>420482.34375</v>
@@ -6579,7 +6579,7 @@
         <v>470146.875</v>
       </c>
       <c r="F25">
-        <v>470019.625</v>
+        <v>470061.375</v>
       </c>
       <c r="G25">
         <v>519754.96875</v>
@@ -6632,7 +6632,7 @@
         <v>470193.8125</v>
       </c>
       <c r="F26">
-        <v>470019.90625</v>
+        <v>470062.03125</v>
       </c>
       <c r="G26">
         <v>438297.21875</v>
@@ -6685,7 +6685,7 @@
         <v>470201.25</v>
       </c>
       <c r="F27">
-        <v>470020.375</v>
+        <v>470063.03125</v>
       </c>
       <c r="G27">
         <v>575085</v>
@@ -6738,7 +6738,7 @@
         <v>470208.34375</v>
       </c>
       <c r="F28">
-        <v>470020.125</v>
+        <v>470063.25</v>
       </c>
       <c r="G28">
         <v>433104.59375</v>
@@ -6791,7 +6791,7 @@
         <v>470214.09375</v>
       </c>
       <c r="F29">
-        <v>470019.9375</v>
+        <v>470062.78125</v>
       </c>
       <c r="G29">
         <v>469233.0625</v>
@@ -6844,7 +6844,7 @@
         <v>470224.375</v>
       </c>
       <c r="F30">
-        <v>470020.125</v>
+        <v>470062.0625</v>
       </c>
       <c r="G30">
         <v>491782.1875</v>
@@ -6897,7 +6897,7 @@
         <v>470230.875</v>
       </c>
       <c r="F31">
-        <v>470020.4375</v>
+        <v>470061.375</v>
       </c>
       <c r="G31">
         <v>441446.78125</v>
@@ -6950,7 +6950,7 @@
         <v>470236.09375</v>
       </c>
       <c r="F32">
-        <v>470020.53125</v>
+        <v>470060.71875</v>
       </c>
       <c r="G32">
         <v>437439</v>
@@ -7003,7 +7003,7 @@
         <v>470263.375</v>
       </c>
       <c r="F33">
-        <v>470020.375</v>
+        <v>470060.28125</v>
       </c>
       <c r="G33">
         <v>391684.375</v>
@@ -7056,7 +7056,7 @@
         <v>470272.5</v>
       </c>
       <c r="F34">
-        <v>470020.28125</v>
+        <v>470060.21875</v>
       </c>
       <c r="G34">
         <v>331816.96875</v>
